--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -391,557 +391,707 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4731850527296967</v>
+        <v>0.3546538843350076</v>
       </c>
       <c r="C2">
-        <v>0.2690119262576721</v>
+        <v>0.2564914912576921</v>
       </c>
       <c r="D2">
-        <v>0.349674489535764</v>
+        <v>0.05052393671600553</v>
       </c>
       <c r="E2">
-        <v>1.04613830818187</v>
+        <v>0.6358559500465547</v>
       </c>
       <c r="F2">
-        <v>0.2711328787096984</v>
+        <v>0.0185882680975994</v>
       </c>
       <c r="G2">
-        <v>0.006558009463394401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.006903334633532278</v>
+      </c>
+      <c r="H2">
+        <v>0.2452693457448621</v>
+      </c>
+      <c r="I2">
+        <v>0.1294981695850873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3990075112430602</v>
+        <v>0.2725508721159307</v>
       </c>
       <c r="C3">
-        <v>0.2354319446275168</v>
+        <v>0.2103255635810917</v>
       </c>
       <c r="D3">
-        <v>0.3914287546051608</v>
+        <v>0.04969290753790809</v>
       </c>
       <c r="E3">
-        <v>1.030529984175064</v>
+        <v>0.6173068838777072</v>
       </c>
       <c r="F3">
-        <v>0.2508417178398821</v>
+        <v>0.02023691370514599</v>
       </c>
       <c r="G3">
-        <v>0.006601894294070689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.006920298051154188</v>
+      </c>
+      <c r="H3">
+        <v>0.2379420445638403</v>
+      </c>
+      <c r="I3">
+        <v>0.1459687472513051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3490664437131631</v>
+        <v>0.2119565186849259</v>
       </c>
       <c r="C4">
-        <v>0.2265857781162484</v>
+        <v>0.1765638073975859</v>
       </c>
       <c r="D4">
-        <v>0.4251471864110274</v>
+        <v>0.05992038744697144</v>
       </c>
       <c r="E4">
-        <v>1.02034726551646</v>
+        <v>0.6028410712859266</v>
       </c>
       <c r="F4">
-        <v>0.2352379285650269</v>
+        <v>0.0246594031252169</v>
       </c>
       <c r="G4">
-        <v>0.006631969835638425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.006932645900007789</v>
+      </c>
+      <c r="H4">
+        <v>0.2322113467545287</v>
+      </c>
+      <c r="I4">
+        <v>0.160107616616862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3271024399164836</v>
+        <v>0.1832363170230161</v>
       </c>
       <c r="C5">
-        <v>0.2290672558164538</v>
+        <v>0.1604277478256275</v>
       </c>
       <c r="D5">
-        <v>0.443152907147267</v>
+        <v>0.06792667479630489</v>
       </c>
       <c r="E5">
-        <v>1.015637605336112</v>
+        <v>0.5952790958929781</v>
       </c>
       <c r="F5">
-        <v>0.2271449555357949</v>
+        <v>0.02768350130974482</v>
       </c>
       <c r="G5">
-        <v>0.00664629404272671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.006938772292475571</v>
+      </c>
+      <c r="H5">
+        <v>0.2292111521519238</v>
+      </c>
+      <c r="I5">
+        <v>0.167875660298082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3187127140545737</v>
+        <v>0.1718773752153701</v>
       </c>
       <c r="C6">
-        <v>0.2316709575384246</v>
+        <v>0.1539131904714877</v>
       </c>
       <c r="D6">
-        <v>0.4510311905726272</v>
+        <v>0.0717905357690564</v>
       </c>
       <c r="E6">
-        <v>1.013718975585572</v>
+        <v>0.5920034390630011</v>
       </c>
       <c r="F6">
-        <v>0.2236516654434619</v>
+        <v>0.02910179303066487</v>
       </c>
       <c r="G6">
-        <v>0.006652205273513028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.006941353246710824</v>
+      </c>
+      <c r="H6">
+        <v>0.2279107688354301</v>
+      </c>
+      <c r="I6">
+        <v>0.1713129032176139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3187127140545737</v>
+        <v>0.1718773752153701</v>
       </c>
       <c r="C7">
-        <v>0.2316709575384246</v>
+        <v>0.1539131904714877</v>
       </c>
       <c r="D7">
-        <v>0.4510311905726272</v>
+        <v>0.0717905357690564</v>
       </c>
       <c r="E7">
-        <v>1.013718975585572</v>
+        <v>0.5920034390630011</v>
       </c>
       <c r="F7">
-        <v>0.2236516654434619</v>
+        <v>0.02910179303066487</v>
       </c>
       <c r="G7">
-        <v>0.006652205273513028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006941353246710824</v>
+      </c>
+      <c r="H7">
+        <v>0.2279107688354301</v>
+      </c>
+      <c r="I7">
+        <v>0.1713129032176139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.320716149553301</v>
+        <v>0.174608202461263</v>
       </c>
       <c r="C8">
-        <v>0.230943352991062</v>
+        <v>0.1554915423388122</v>
       </c>
       <c r="D8">
-        <v>0.4490804925630286</v>
+        <v>0.07081678874669842</v>
       </c>
       <c r="E8">
-        <v>1.014186330065924</v>
+        <v>0.5928126840060566</v>
       </c>
       <c r="F8">
-        <v>0.2245140017717026</v>
+        <v>0.02874607018856497</v>
       </c>
       <c r="G8">
-        <v>0.006650761355273311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.006940719786418322</v>
+      </c>
+      <c r="H8">
+        <v>0.2282320654267233</v>
+      </c>
+      <c r="I8">
+        <v>0.1704598310958202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3545591791292452</v>
+        <v>0.2189157989187939</v>
       </c>
       <c r="C9">
-        <v>0.2267179863206515</v>
+        <v>0.1804432832151652</v>
       </c>
       <c r="D9">
-        <v>0.4210517460388836</v>
+        <v>0.05829825683372099</v>
       </c>
       <c r="E9">
-        <v>1.021485157392163</v>
+        <v>0.6045762590313993</v>
       </c>
       <c r="F9">
-        <v>0.2371008337294299</v>
+        <v>0.02402340007300586</v>
       </c>
       <c r="G9">
-        <v>0.006628548706187402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.006931207669018263</v>
+      </c>
+      <c r="H9">
+        <v>0.2328993840344749</v>
+      </c>
+      <c r="I9">
+        <v>0.1583597095466004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4673662039734028</v>
+        <v>0.3484565955004634</v>
       </c>
       <c r="C10">
-        <v>0.2658122441264744</v>
+        <v>0.2529853859436453</v>
       </c>
       <c r="D10">
-        <v>0.3527311272585671</v>
+        <v>0.04990031965979403</v>
       </c>
       <c r="E10">
-        <v>1.044863577487463</v>
+        <v>0.6344709712649831</v>
       </c>
       <c r="F10">
-        <v>0.2696049718219813</v>
+        <v>0.01852557586110288</v>
       </c>
       <c r="G10">
-        <v>0.006561500201562305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.006904642799246925</v>
+      </c>
+      <c r="H10">
+        <v>0.2447231865845553</v>
+      </c>
+      <c r="I10">
+        <v>0.1306537162893509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5992049963863152</v>
+        <v>0.4819585770976261</v>
       </c>
       <c r="C11">
-        <v>0.3510745144847279</v>
+        <v>0.3291339738981695</v>
       </c>
       <c r="D11">
-        <v>0.2893424057002865</v>
+        <v>0.0756112723562848</v>
       </c>
       <c r="E11">
-        <v>1.076925485863032</v>
+        <v>0.664305385024045</v>
       </c>
       <c r="F11">
-        <v>0.3031204984762815</v>
+        <v>0.02513691063497919</v>
       </c>
       <c r="G11">
-        <v>0.006478027168759572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006875095220314716</v>
+      </c>
+      <c r="H11">
+        <v>0.2564491446959025</v>
+      </c>
+      <c r="I11">
+        <v>0.1090743872162868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6677371077510333</v>
+        <v>0.546841367665822</v>
       </c>
       <c r="C12">
-        <v>0.4016143038000491</v>
+        <v>0.3664949488425244</v>
       </c>
       <c r="D12">
-        <v>0.2603368503631859</v>
+        <v>0.09304576997381185</v>
       </c>
       <c r="E12">
-        <v>1.096904869662567</v>
+        <v>0.6789855676090533</v>
       </c>
       <c r="F12">
-        <v>0.3202208682008376</v>
+        <v>0.03077561441212059</v>
       </c>
       <c r="G12">
-        <v>0.006429883521500205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006859581833757587</v>
+      </c>
+      <c r="H12">
+        <v>0.2621855948775609</v>
+      </c>
+      <c r="I12">
+        <v>0.1015541919933131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.72336378055466</v>
+        <v>0.5975996426831736</v>
       </c>
       <c r="C13">
-        <v>0.4442019283464945</v>
+        <v>0.3958270233749891</v>
       </c>
       <c r="D13">
-        <v>0.2386298286544321</v>
+        <v>0.1075456520325891</v>
       </c>
       <c r="E13">
-        <v>1.115251154885475</v>
+        <v>0.690618501143224</v>
       </c>
       <c r="F13">
-        <v>0.3341811391956938</v>
+        <v>0.03566433208904298</v>
       </c>
       <c r="G13">
-        <v>0.006387786489717305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.006846878077874251</v>
+      </c>
+      <c r="H13">
+        <v>0.266713995377805</v>
+      </c>
+      <c r="I13">
+        <v>0.09738443946744854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7333345919975057</v>
+        <v>0.6065207337464633</v>
       </c>
       <c r="C14">
-        <v>0.451945448340862</v>
+        <v>0.4009898600065805</v>
       </c>
       <c r="D14">
-        <v>0.2349201649546647</v>
+        <v>0.1101451520686546</v>
       </c>
       <c r="E14">
-        <v>1.11876756923414</v>
+        <v>0.6926784743122538</v>
       </c>
       <c r="F14">
-        <v>0.3366993153326051</v>
+        <v>0.03655261419981153</v>
       </c>
       <c r="G14">
-        <v>0.006379923359812876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.006844592667327668</v>
+      </c>
+      <c r="H14">
+        <v>0.2675142325287214</v>
+      </c>
+      <c r="I14">
+        <v>0.09682424659386608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7189847555548048</v>
+        <v>0.5936645775138457</v>
       </c>
       <c r="C15">
-        <v>0.4408106091388762</v>
+        <v>0.3935503680560867</v>
       </c>
       <c r="D15">
-        <v>0.2402768971155801</v>
+        <v>0.1064031887490462</v>
       </c>
       <c r="E15">
-        <v>1.113729759093966</v>
+        <v>0.6897113781715792</v>
       </c>
       <c r="F15">
-        <v>0.3330769986292428</v>
+        <v>0.03527490809947537</v>
       </c>
       <c r="G15">
-        <v>0.006391208119203436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.00684788112720895</v>
+      </c>
+      <c r="H15">
+        <v>0.2663614454169296</v>
+      </c>
+      <c r="I15">
+        <v>0.09764851597847106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7191211231240987</v>
+        <v>0.5937872764788962</v>
       </c>
       <c r="C16">
-        <v>0.4409161285316333</v>
+        <v>0.3936213500639431</v>
       </c>
       <c r="D16">
-        <v>0.2402254426084144</v>
+        <v>0.1064387717701533</v>
       </c>
       <c r="E16">
-        <v>1.113776928454811</v>
+        <v>0.6897396491496171</v>
       </c>
       <c r="F16">
-        <v>0.3331113668536148</v>
+        <v>0.03528702775103441</v>
       </c>
       <c r="G16">
-        <v>0.006391101854867018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006847849897703955</v>
+      </c>
+      <c r="H16">
+        <v>0.2663724343008061</v>
+      </c>
+      <c r="I16">
+        <v>0.09764012620111963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7199918110345234</v>
+        <v>0.5945704547359304</v>
       </c>
       <c r="C17">
-        <v>0.4415899923343274</v>
+        <v>0.3940744323432424</v>
       </c>
       <c r="D17">
-        <v>0.2398971593747735</v>
+        <v>0.1066659568001799</v>
       </c>
       <c r="E17">
-        <v>1.114078413300597</v>
+        <v>0.6899201217848517</v>
       </c>
       <c r="F17">
-        <v>0.3333308270271097</v>
+        <v>0.03536442168017725</v>
       </c>
       <c r="G17">
-        <v>0.006390422935232197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.006847650491628335</v>
+      </c>
+      <c r="H17">
+        <v>0.2664425814923983</v>
+      </c>
+      <c r="I17">
+        <v>0.09758681042577545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6744243179810741</v>
+        <v>0.5530320053981731</v>
       </c>
       <c r="C18">
-        <v>0.4066720859167262</v>
+        <v>0.3700680798789676</v>
       </c>
       <c r="D18">
-        <v>0.2576389015603908</v>
+        <v>0.09478298871341997</v>
       </c>
       <c r="E18">
-        <v>1.09900244244733</v>
+        <v>0.6803967636605558</v>
       </c>
       <c r="F18">
-        <v>0.3218928863740092</v>
+        <v>0.03135424407429318</v>
       </c>
       <c r="G18">
-        <v>0.006424974445205294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.006858059491084551</v>
+      </c>
+      <c r="H18">
+        <v>0.2627357714774432</v>
+      </c>
+      <c r="I18">
+        <v>0.1009598595701783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6469268086834675</v>
+        <v>0.5274194425491181</v>
       </c>
       <c r="C19">
-        <v>0.3860022210124699</v>
+        <v>0.3552937151401426</v>
       </c>
       <c r="D19">
-        <v>0.2688838279314277</v>
+        <v>0.08766604077103701</v>
       </c>
       <c r="E19">
-        <v>1.090553135578543</v>
+        <v>0.6745708820299731</v>
       </c>
       <c r="F19">
-        <v>0.3150243959560191</v>
+        <v>0.02899953017805718</v>
       </c>
       <c r="G19">
-        <v>0.006444910668259695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006864309738477304</v>
+      </c>
+      <c r="H19">
+        <v>0.2604630062625934</v>
+      </c>
+      <c r="I19">
+        <v>0.1035641925798343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6471276696160767</v>
+        <v>0.5276080471607979</v>
       </c>
       <c r="C20">
-        <v>0.3861519273320312</v>
+        <v>0.3554024224671913</v>
       </c>
       <c r="D20">
-        <v>0.2688002446694325</v>
+        <v>0.08771772354070564</v>
       </c>
       <c r="E20">
-        <v>1.090613202153633</v>
+        <v>0.6746136632210248</v>
       </c>
       <c r="F20">
-        <v>0.3150745146423214</v>
+        <v>0.02901646747059047</v>
       </c>
       <c r="G20">
-        <v>0.006444767393804157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.006864264175539241</v>
+      </c>
+      <c r="H20">
+        <v>0.2604797097646381</v>
+      </c>
+      <c r="I20">
+        <v>0.1035436384184094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7200761025537321</v>
+        <v>0.5946462526151617</v>
       </c>
       <c r="C21">
-        <v>0.441655241830463</v>
+        <v>0.3941182836053919</v>
       </c>
       <c r="D21">
-        <v>0.2398654008444831</v>
+        <v>0.1066879499223886</v>
       </c>
       <c r="E21">
-        <v>1.114107629078797</v>
+        <v>0.6899375903003699</v>
       </c>
       <c r="F21">
-        <v>0.3333520752200137</v>
+        <v>0.0353719152638432</v>
       </c>
       <c r="G21">
-        <v>0.006390357168723156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.006847631186159342</v>
+      </c>
+      <c r="H21">
+        <v>0.2664493710553215</v>
+      </c>
+      <c r="I21">
+        <v>0.09758167202741269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7949287865789655</v>
+        <v>0.6604110541344995</v>
       </c>
       <c r="C22">
-        <v>0.5003673275864277</v>
+        <v>0.432216167333491</v>
       </c>
       <c r="D22">
-        <v>0.2133144272149604</v>
+        <v>0.126078977974331</v>
       </c>
       <c r="E22">
-        <v>1.142225489230673</v>
+        <v>0.7052294781015759</v>
       </c>
       <c r="F22">
-        <v>0.3524096543198971</v>
+        <v>0.04205281822467104</v>
       </c>
       <c r="G22">
-        <v>0.006328979602992875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.006830446914819607</v>
+      </c>
+      <c r="H22">
+        <v>0.2723788230213693</v>
+      </c>
+      <c r="I22">
+        <v>0.09462100458569159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8554247398999546</v>
+        <v>0.7111759426786595</v>
       </c>
       <c r="C23">
-        <v>0.5487383252528968</v>
+        <v>0.4616802312396431</v>
       </c>
       <c r="D23">
-        <v>0.1944913718173888</v>
+        <v>0.1413545435439106</v>
       </c>
       <c r="E23">
-        <v>1.168600774343301</v>
+        <v>0.7172332738879645</v>
       </c>
       <c r="F23">
-        <v>0.3681808412740447</v>
+        <v>0.04739279242201497</v>
       </c>
       <c r="G23">
-        <v>0.006274485716937095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.006816580554910627</v>
+      </c>
+      <c r="H23">
+        <v>0.2770130503268444</v>
+      </c>
+      <c r="I23">
+        <v>0.09448066813450755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8787745658704083</v>
+        <v>0.7301399930820797</v>
       </c>
       <c r="C24">
-        <v>0.5675913272948662</v>
+        <v>0.472696290508749</v>
       </c>
       <c r="D24">
-        <v>0.1879247523000528</v>
+        <v>0.1471081563691423</v>
       </c>
       <c r="E24">
-        <v>1.179818211257089</v>
+        <v>0.7217655473920959</v>
       </c>
       <c r="F24">
-        <v>0.374383843354688</v>
+        <v>0.04941694012850418</v>
       </c>
       <c r="G24">
-        <v>0.0062520964283669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.006811264137222051</v>
+      </c>
+      <c r="H24">
+        <v>0.2787580436367292</v>
+      </c>
+      <c r="I24">
+        <v>0.09491846534009694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7615214200998783</v>
+        <v>0.6314456049227106</v>
       </c>
       <c r="C25">
-        <v>0.4739868339390201</v>
+        <v>0.4154246362234321</v>
       </c>
       <c r="D25">
-        <v>0.2247461959858361</v>
+        <v>0.1174701937882335</v>
       </c>
       <c r="E25">
-        <v>1.129117661050189</v>
+        <v>0.6984600575915841</v>
       </c>
       <c r="F25">
-        <v>0.3438527284906435</v>
+        <v>0.03907041543513029</v>
       </c>
       <c r="G25">
-        <v>0.0063571326751626</v>
+        <v>0.006838122950790431</v>
+      </c>
+      <c r="H25">
+        <v>0.2697574784582116</v>
+      </c>
+      <c r="I25">
+        <v>0.09554896223034073</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -403,28 +403,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3546538843350076</v>
+        <v>0.1980432023245938</v>
       </c>
       <c r="C2">
-        <v>0.2564914912576921</v>
+        <v>0.05992570125581027</v>
       </c>
       <c r="D2">
-        <v>0.05052393671600553</v>
+        <v>0.5570935873961507</v>
       </c>
       <c r="E2">
-        <v>0.6358559500465547</v>
+        <v>1.154973283651776</v>
       </c>
       <c r="F2">
-        <v>0.0185882680975994</v>
+        <v>0.2457951797412334</v>
       </c>
       <c r="G2">
-        <v>0.006903334633532278</v>
+        <v>0.007097295065019031</v>
       </c>
       <c r="H2">
-        <v>0.2452693457448621</v>
+        <v>0.4178298331263657</v>
       </c>
       <c r="I2">
-        <v>0.1294981695850873</v>
+        <v>0.2091803144137924</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -432,28 +432,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2725508721159307</v>
+        <v>0.129319614615865</v>
       </c>
       <c r="C3">
-        <v>0.2103255635810917</v>
+        <v>0.1327175235045536</v>
       </c>
       <c r="D3">
-        <v>0.04969290753790809</v>
+        <v>0.5996073502723146</v>
       </c>
       <c r="E3">
-        <v>0.6173068838777072</v>
+        <v>1.156982352726067</v>
       </c>
       <c r="F3">
-        <v>0.02023691370514599</v>
+        <v>0.2296082113602821</v>
       </c>
       <c r="G3">
-        <v>0.006920298051154188</v>
+        <v>0.007100773653314739</v>
       </c>
       <c r="H3">
-        <v>0.2379420445638403</v>
+        <v>0.4072514853058511</v>
       </c>
       <c r="I3">
-        <v>0.1459687472513051</v>
+        <v>0.2118287548144155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -461,28 +461,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2119565186849259</v>
+        <v>0.1049460458845251</v>
       </c>
       <c r="C4">
-        <v>0.1765638073975859</v>
+        <v>0.1883645812486389</v>
       </c>
       <c r="D4">
-        <v>0.05992038744697144</v>
+        <v>0.6289481156376164</v>
       </c>
       <c r="E4">
-        <v>0.6028410712859266</v>
+        <v>1.153686981425362</v>
       </c>
       <c r="F4">
-        <v>0.0246594031252169</v>
+        <v>0.2167346828610983</v>
       </c>
       <c r="G4">
-        <v>0.006932645900007789</v>
+        <v>0.007103338927884559</v>
       </c>
       <c r="H4">
-        <v>0.2322113467545287</v>
+        <v>0.3994545999854755</v>
       </c>
       <c r="I4">
-        <v>0.160107616616862</v>
+        <v>0.2088751067174635</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -490,28 +490,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1832363170230161</v>
+        <v>0.1071165450562561</v>
       </c>
       <c r="C5">
-        <v>0.1604277478256275</v>
+        <v>0.2124430906695413</v>
       </c>
       <c r="D5">
-        <v>0.06792667479630489</v>
+        <v>0.6385821348136478</v>
       </c>
       <c r="E5">
-        <v>0.5952790958929781</v>
+        <v>1.145847968877939</v>
       </c>
       <c r="F5">
-        <v>0.02768350130974482</v>
+        <v>0.2099137122861406</v>
       </c>
       <c r="G5">
-        <v>0.006938772292475571</v>
+        <v>0.007104951343000625</v>
       </c>
       <c r="H5">
-        <v>0.2292111521519238</v>
+        <v>0.3945502658397297</v>
       </c>
       <c r="I5">
-        <v>0.167875660298082</v>
+        <v>0.2011613001046939</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -519,28 +519,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1718773752153701</v>
+        <v>0.1099451778327485</v>
       </c>
       <c r="C6">
-        <v>0.1539131904714877</v>
+        <v>0.2208187881726418</v>
       </c>
       <c r="D6">
-        <v>0.0717905357690564</v>
+        <v>0.6405144720547478</v>
       </c>
       <c r="E6">
-        <v>0.5920034390630011</v>
+        <v>1.140119102907062</v>
       </c>
       <c r="F6">
-        <v>0.02910179303066487</v>
+        <v>0.2069382590962053</v>
       </c>
       <c r="G6">
-        <v>0.006941353246710824</v>
+        <v>0.00710578882479528</v>
       </c>
       <c r="H6">
-        <v>0.2279107688354301</v>
+        <v>0.3920035605179626</v>
       </c>
       <c r="I6">
-        <v>0.1713129032176139</v>
+        <v>0.1954686543882198</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -548,28 +548,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1718773752153701</v>
+        <v>0.1099451778327485</v>
       </c>
       <c r="C7">
-        <v>0.1539131904714877</v>
+        <v>0.2208187881726418</v>
       </c>
       <c r="D7">
-        <v>0.0717905357690564</v>
+        <v>0.6405144720547478</v>
       </c>
       <c r="E7">
-        <v>0.5920034390630011</v>
+        <v>1.140119102907062</v>
       </c>
       <c r="F7">
-        <v>0.02910179303066487</v>
+        <v>0.2069382590962053</v>
       </c>
       <c r="G7">
-        <v>0.006941353246710824</v>
+        <v>0.00710578882479528</v>
       </c>
       <c r="H7">
-        <v>0.2279107688354301</v>
+        <v>0.3920035605179626</v>
       </c>
       <c r="I7">
-        <v>0.1713129032176139</v>
+        <v>0.1954686543882198</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -577,28 +577,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.174608202461263</v>
+        <v>0.1083127537332402</v>
       </c>
       <c r="C8">
-        <v>0.1554915423388122</v>
+        <v>0.2164418498585563</v>
       </c>
       <c r="D8">
-        <v>0.07081678874669842</v>
+        <v>0.6375969374377218</v>
       </c>
       <c r="E8">
-        <v>0.5928126840060566</v>
+        <v>1.139082022727119</v>
       </c>
       <c r="F8">
-        <v>0.02874607018856497</v>
+        <v>0.2076687929030149</v>
       </c>
       <c r="G8">
-        <v>0.006940719786418322</v>
+        <v>0.007105753988735217</v>
       </c>
       <c r="H8">
-        <v>0.2282320654267233</v>
+        <v>0.3921120514696886</v>
       </c>
       <c r="I8">
-        <v>0.1704598310958202</v>
+        <v>0.1944078254617973</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -606,28 +606,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2189157989187939</v>
+        <v>0.1080509268275909</v>
       </c>
       <c r="C9">
-        <v>0.1804432832151652</v>
+        <v>0.1663755446811714</v>
       </c>
       <c r="D9">
-        <v>0.05829825683372099</v>
+        <v>0.6091431392423637</v>
       </c>
       <c r="E9">
-        <v>0.6045762590313993</v>
+        <v>1.137726679593879</v>
       </c>
       <c r="F9">
-        <v>0.02402340007300586</v>
+        <v>0.2182538029555467</v>
       </c>
       <c r="G9">
-        <v>0.006931207669018263</v>
+        <v>0.00710412065227192</v>
       </c>
       <c r="H9">
-        <v>0.2328993840344749</v>
+        <v>0.3970788789026836</v>
       </c>
       <c r="I9">
-        <v>0.1583597095466004</v>
+        <v>0.1927765353954893</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -635,28 +635,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3484565955004634</v>
+        <v>0.2009211820402159</v>
       </c>
       <c r="C10">
-        <v>0.2529853859436453</v>
+        <v>0.05548766013464559</v>
       </c>
       <c r="D10">
-        <v>0.04990031965979403</v>
+        <v>0.5491326708474541</v>
       </c>
       <c r="E10">
-        <v>0.6344709712649831</v>
+        <v>1.143945872047216</v>
       </c>
       <c r="F10">
-        <v>0.01852557586110288</v>
+        <v>0.2445765414252417</v>
       </c>
       <c r="G10">
-        <v>0.006904642799246925</v>
+        <v>0.007098174303265969</v>
       </c>
       <c r="H10">
-        <v>0.2447231865845553</v>
+        <v>0.415161013353983</v>
       </c>
       <c r="I10">
-        <v>0.1306537162893509</v>
+        <v>0.1981256957906934</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -664,28 +664,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4819585770976261</v>
+        <v>0.325494892923876</v>
       </c>
       <c r="C11">
-        <v>0.3291339738981695</v>
+        <v>0.06994868379532662</v>
       </c>
       <c r="D11">
-        <v>0.0756112723562848</v>
+        <v>0.4919787643866652</v>
       </c>
       <c r="E11">
-        <v>0.664305385024045</v>
+        <v>1.148831499010274</v>
       </c>
       <c r="F11">
-        <v>0.02513691063497919</v>
+        <v>0.2698975923893778</v>
       </c>
       <c r="G11">
-        <v>0.006875095220314716</v>
+        <v>0.00709086700129691</v>
       </c>
       <c r="H11">
-        <v>0.2564491446959025</v>
+        <v>0.4373884903352633</v>
       </c>
       <c r="I11">
-        <v>0.1090743872162868</v>
+        <v>0.2018601469471601</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -693,28 +693,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.546841367665822</v>
+        <v>0.385497614946199</v>
       </c>
       <c r="C12">
-        <v>0.3664949488425244</v>
+        <v>0.1193238713513806</v>
       </c>
       <c r="D12">
-        <v>0.09304576997381185</v>
+        <v>0.4621052098962299</v>
       </c>
       <c r="E12">
-        <v>0.6789855676090533</v>
+        <v>1.147859507827661</v>
       </c>
       <c r="F12">
-        <v>0.03077561441212059</v>
+        <v>0.28197941523589</v>
       </c>
       <c r="G12">
-        <v>0.006859581833757587</v>
+        <v>0.007087002215206147</v>
       </c>
       <c r="H12">
-        <v>0.2621855948775609</v>
+        <v>0.4483281121196138</v>
       </c>
       <c r="I12">
-        <v>0.1015541919933131</v>
+        <v>0.2002206033740415</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -722,28 +722,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5975996426831736</v>
+        <v>0.4026780096839651</v>
       </c>
       <c r="C13">
-        <v>0.3958270233749891</v>
+        <v>0.1279734045038339</v>
       </c>
       <c r="D13">
-        <v>0.1075456520325891</v>
+        <v>0.438839036650387</v>
       </c>
       <c r="E13">
-        <v>0.690618501143224</v>
+        <v>1.146565633982055</v>
       </c>
       <c r="F13">
-        <v>0.03566433208904298</v>
+        <v>0.2913509289758929</v>
       </c>
       <c r="G13">
-        <v>0.006846878077874251</v>
+        <v>0.007084285521503066</v>
       </c>
       <c r="H13">
-        <v>0.266713995377805</v>
+        <v>0.452662658081405</v>
       </c>
       <c r="I13">
-        <v>0.09738443946744854</v>
+        <v>0.1983925647331062</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -751,28 +751,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6065207337464633</v>
+        <v>0.3833331395007024</v>
       </c>
       <c r="C14">
-        <v>0.4009898600065805</v>
+        <v>0.1061330917975463</v>
       </c>
       <c r="D14">
-        <v>0.1101451520686546</v>
+        <v>0.4326354723103653</v>
       </c>
       <c r="E14">
-        <v>0.6926784743122538</v>
+        <v>1.144026943832149</v>
       </c>
       <c r="F14">
-        <v>0.03655261419981153</v>
+        <v>0.2929734307237618</v>
       </c>
       <c r="G14">
-        <v>0.006844592667327668</v>
+        <v>0.007084231194115395</v>
       </c>
       <c r="H14">
-        <v>0.2675142325287214</v>
+        <v>0.4516083648093541</v>
       </c>
       <c r="I14">
-        <v>0.09682424659386608</v>
+        <v>0.1957622157117314</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -780,28 +780,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5936645775138457</v>
+        <v>0.3623958886899876</v>
       </c>
       <c r="C15">
-        <v>0.3935503680560867</v>
+        <v>0.087055496357616</v>
       </c>
       <c r="D15">
-        <v>0.1064031887490462</v>
+        <v>0.4342605740307829</v>
       </c>
       <c r="E15">
-        <v>0.6897113781715792</v>
+        <v>1.140000113074072</v>
       </c>
       <c r="F15">
-        <v>0.03527490809947537</v>
+        <v>0.2905880328008245</v>
       </c>
       <c r="G15">
-        <v>0.00684788112720895</v>
+        <v>0.007085337085007035</v>
       </c>
       <c r="H15">
-        <v>0.2663614454169296</v>
+        <v>0.4484228773970422</v>
       </c>
       <c r="I15">
-        <v>0.09764851597847106</v>
+        <v>0.1918557990537156</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -809,28 +809,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5937872764788962</v>
+        <v>0.3546727873265608</v>
       </c>
       <c r="C16">
-        <v>0.3936213500639431</v>
+        <v>0.07934229807753763</v>
       </c>
       <c r="D16">
-        <v>0.1064387717701533</v>
+        <v>0.4379284626419198</v>
       </c>
       <c r="E16">
-        <v>0.6897396491496171</v>
+        <v>1.143785024681807</v>
       </c>
       <c r="F16">
-        <v>0.03528702775103441</v>
+        <v>0.2906148645058091</v>
       </c>
       <c r="G16">
-        <v>0.006847849897703955</v>
+        <v>0.007085237291593246</v>
       </c>
       <c r="H16">
-        <v>0.2663724343008061</v>
+        <v>0.4488586579819574</v>
       </c>
       <c r="I16">
-        <v>0.09764012620111963</v>
+        <v>0.1956738137861314</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -838,28 +838,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5945704547359304</v>
+        <v>0.3477235793554523</v>
       </c>
       <c r="C17">
-        <v>0.3940744323432424</v>
+        <v>0.0723629051579892</v>
       </c>
       <c r="D17">
-        <v>0.1066659568001799</v>
+        <v>0.4424235872797243</v>
       </c>
       <c r="E17">
-        <v>0.6899201217848517</v>
+        <v>1.148708689506001</v>
       </c>
       <c r="F17">
-        <v>0.03536442168017725</v>
+        <v>0.2907663819322793</v>
       </c>
       <c r="G17">
-        <v>0.006847650491628335</v>
+        <v>0.007085035163405785</v>
       </c>
       <c r="H17">
-        <v>0.2664425814923983</v>
+        <v>0.4495941282307989</v>
       </c>
       <c r="I17">
-        <v>0.09758681042577545</v>
+        <v>0.2006309080446002</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -867,28 +867,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5530320053981731</v>
+        <v>0.3113933629533152</v>
       </c>
       <c r="C18">
-        <v>0.3700680798789676</v>
+        <v>0.04530973521521984</v>
       </c>
       <c r="D18">
-        <v>0.09478298871341997</v>
+        <v>0.4595608210640599</v>
       </c>
       <c r="E18">
-        <v>0.6803967636605558</v>
+        <v>1.147796988848132</v>
       </c>
       <c r="F18">
-        <v>0.03135424407429318</v>
+        <v>0.2830879469910402</v>
       </c>
       <c r="G18">
-        <v>0.006858059491084551</v>
+        <v>0.007087516547276946</v>
       </c>
       <c r="H18">
-        <v>0.2627357714774432</v>
+        <v>0.4420797269358211</v>
       </c>
       <c r="I18">
-        <v>0.1009598595701783</v>
+        <v>0.20015221914545</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -896,28 +896,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5274194425491181</v>
+        <v>0.2953674937055057</v>
       </c>
       <c r="C19">
-        <v>0.3552937151401426</v>
+        <v>0.03633048687199231</v>
       </c>
       <c r="D19">
-        <v>0.08766604077103701</v>
+        <v>0.4727244592829257</v>
       </c>
       <c r="E19">
-        <v>0.6745708820299731</v>
+        <v>1.149744531301193</v>
       </c>
       <c r="F19">
-        <v>0.02899953017805718</v>
+        <v>0.2783448924085293</v>
       </c>
       <c r="G19">
-        <v>0.006864309738477304</v>
+        <v>0.007088827378133221</v>
       </c>
       <c r="H19">
-        <v>0.2604630062625934</v>
+        <v>0.4378673174281558</v>
       </c>
       <c r="I19">
-        <v>0.1035641925798343</v>
+        <v>0.2023705197569689</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -925,28 +925,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5276080471607979</v>
+        <v>0.3332898627407038</v>
       </c>
       <c r="C20">
-        <v>0.3554024224671913</v>
+        <v>0.06969052793151102</v>
       </c>
       <c r="D20">
-        <v>0.08771772354070564</v>
+        <v>0.472159171825476</v>
       </c>
       <c r="E20">
-        <v>0.6746136632210248</v>
+        <v>1.149334283070784</v>
       </c>
       <c r="F20">
-        <v>0.02901646747059047</v>
+        <v>0.2783922654332754</v>
       </c>
       <c r="G20">
-        <v>0.006864264175539241</v>
+        <v>0.007088531641788803</v>
       </c>
       <c r="H20">
-        <v>0.2604797097646381</v>
+        <v>0.4399455920120803</v>
       </c>
       <c r="I20">
-        <v>0.1035436384184094</v>
+        <v>0.2019352018892717</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -954,28 +954,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5946462526151617</v>
+        <v>0.4307314280695401</v>
       </c>
       <c r="C21">
-        <v>0.3941182836053919</v>
+        <v>0.1576366558169681</v>
       </c>
       <c r="D21">
-        <v>0.1066879499223886</v>
+        <v>0.4458431718852264</v>
       </c>
       <c r="E21">
-        <v>0.6899375903003699</v>
+        <v>1.15257582479579</v>
       </c>
       <c r="F21">
-        <v>0.0353719152638432</v>
+        <v>0.2908423410002329</v>
       </c>
       <c r="G21">
-        <v>0.006847631186159342</v>
+        <v>0.00708366707309406</v>
       </c>
       <c r="H21">
-        <v>0.2664493710553215</v>
+        <v>0.4587906844567319</v>
       </c>
       <c r="I21">
-        <v>0.09758167202741269</v>
+        <v>0.2044436815672131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -983,28 +983,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6604110541344995</v>
+        <v>0.4932077061030367</v>
       </c>
       <c r="C22">
-        <v>0.432216167333491</v>
+        <v>0.2102308743044842</v>
       </c>
       <c r="D22">
-        <v>0.126078977974331</v>
+        <v>0.4239128545273678</v>
       </c>
       <c r="E22">
-        <v>0.7052294781015759</v>
+        <v>1.158973313412748</v>
       </c>
       <c r="F22">
-        <v>0.04205281822467104</v>
+        <v>0.3029826776564247</v>
       </c>
       <c r="G22">
-        <v>0.006830446914819607</v>
+        <v>0.007078792470677747</v>
       </c>
       <c r="H22">
-        <v>0.2723788230213693</v>
+        <v>0.4740813165371127</v>
       </c>
       <c r="I22">
-        <v>0.09462100458569159</v>
+        <v>0.2101026045794573</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7111759426786595</v>
+        <v>0.5375408583047505</v>
       </c>
       <c r="C23">
-        <v>0.4616802312396431</v>
+        <v>0.246639430384517</v>
       </c>
       <c r="D23">
-        <v>0.1413545435439106</v>
+        <v>0.4091454730240757</v>
       </c>
       <c r="E23">
-        <v>0.7172332738879645</v>
+        <v>1.165676481016805</v>
       </c>
       <c r="F23">
-        <v>0.04739279242201497</v>
+        <v>0.3123193893598374</v>
       </c>
       <c r="G23">
-        <v>0.006816580554910627</v>
+        <v>0.0070748209145583</v>
       </c>
       <c r="H23">
-        <v>0.2770130503268444</v>
+        <v>0.4861666131193653</v>
       </c>
       <c r="I23">
-        <v>0.09448066813450755</v>
+        <v>0.2162065739262563</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7301399930820797</v>
+        <v>0.5522093564310171</v>
       </c>
       <c r="C24">
-        <v>0.472696290508749</v>
+        <v>0.2582737059387848</v>
       </c>
       <c r="D24">
-        <v>0.1471081563691423</v>
+        <v>0.4056748415957368</v>
       </c>
       <c r="E24">
-        <v>0.7217655473920959</v>
+        <v>1.170187418841742</v>
       </c>
       <c r="F24">
-        <v>0.04941694012850418</v>
+        <v>0.3158024755751556</v>
       </c>
       <c r="G24">
-        <v>0.006811264137222051</v>
+        <v>0.007073249915157342</v>
       </c>
       <c r="H24">
-        <v>0.2787580436367292</v>
+        <v>0.4909510011884161</v>
       </c>
       <c r="I24">
-        <v>0.09491846534009694</v>
+        <v>0.2205008683162257</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6314456049227106</v>
+        <v>0.4522825783961494</v>
       </c>
       <c r="C25">
-        <v>0.4154246362234321</v>
+        <v>0.1731792005658077</v>
       </c>
       <c r="D25">
-        <v>0.1174701937882335</v>
+        <v>0.4490949087987082</v>
       </c>
       <c r="E25">
-        <v>0.6984600575915841</v>
+        <v>1.172070928394247</v>
       </c>
       <c r="F25">
-        <v>0.03907041543513029</v>
+        <v>0.2976657088218361</v>
       </c>
       <c r="G25">
-        <v>0.006838122950790431</v>
+        <v>0.007080476672013235</v>
       </c>
       <c r="H25">
-        <v>0.2697574784582116</v>
+        <v>0.4689733892285723</v>
       </c>
       <c r="I25">
-        <v>0.09554896223034073</v>
+        <v>0.2236643829870656</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -403,28 +403,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1980432023245938</v>
+        <v>0.1313612392594206</v>
       </c>
       <c r="C2">
-        <v>0.05992570125581027</v>
+        <v>0.2925540157103397</v>
       </c>
       <c r="D2">
-        <v>0.5570935873961507</v>
+        <v>0.5584913621188971</v>
       </c>
       <c r="E2">
-        <v>1.154973283651776</v>
+        <v>1.154448326525398</v>
       </c>
       <c r="F2">
-        <v>0.2457951797412334</v>
+        <v>0.2454499781922303</v>
       </c>
       <c r="G2">
-        <v>0.007097295065019031</v>
+        <v>0.2389803556237428</v>
       </c>
       <c r="H2">
-        <v>0.4178298331263657</v>
+        <v>0.3900244828949844</v>
       </c>
       <c r="I2">
-        <v>0.2091803144137924</v>
+        <v>0.2091803144137945</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -432,28 +432,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.129319614615865</v>
+        <v>0.1897714957153906</v>
       </c>
       <c r="C3">
-        <v>0.1327175235045536</v>
+        <v>0.3599512407956043</v>
       </c>
       <c r="D3">
-        <v>0.5996073502723146</v>
+        <v>0.6006405994856234</v>
       </c>
       <c r="E3">
-        <v>1.156982352726067</v>
+        <v>1.156635649484474</v>
       </c>
       <c r="F3">
-        <v>0.2296082113602821</v>
+        <v>0.2293390352977168</v>
       </c>
       <c r="G3">
-        <v>0.007100773653314739</v>
+        <v>0.2305729175636821</v>
       </c>
       <c r="H3">
-        <v>0.4072514853058511</v>
+        <v>0.383926447054051</v>
       </c>
       <c r="I3">
-        <v>0.2118287548144155</v>
+        <v>0.2118287548144146</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -461,28 +461,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1049460458845251</v>
+        <v>0.2477513218224725</v>
       </c>
       <c r="C4">
-        <v>0.1883645812486389</v>
+        <v>0.4148378173849951</v>
       </c>
       <c r="D4">
-        <v>0.6289481156376164</v>
+        <v>0.6297364788053018</v>
       </c>
       <c r="E4">
-        <v>1.153686981425362</v>
+        <v>1.153409256435828</v>
       </c>
       <c r="F4">
-        <v>0.2167346828610983</v>
+        <v>0.2165217232065073</v>
       </c>
       <c r="G4">
-        <v>0.007103338927884559</v>
+        <v>0.2294190774481646</v>
       </c>
       <c r="H4">
-        <v>0.3994545999854755</v>
+        <v>0.3798305292378243</v>
       </c>
       <c r="I4">
-        <v>0.2088751067174635</v>
+        <v>0.2088751067174652</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -490,28 +490,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1071165450562561</v>
+        <v>0.2710008018439174</v>
       </c>
       <c r="C5">
-        <v>0.2124430906695413</v>
+        <v>0.4341473262270124</v>
       </c>
       <c r="D5">
-        <v>0.6385821348136478</v>
+        <v>0.6392898624014494</v>
       </c>
       <c r="E5">
-        <v>1.145847968877939</v>
+        <v>1.145595509770882</v>
       </c>
       <c r="F5">
-        <v>0.2099137122861406</v>
+        <v>0.2097205573968881</v>
       </c>
       <c r="G5">
-        <v>0.007104951343000625</v>
+        <v>0.2246135718967653</v>
       </c>
       <c r="H5">
-        <v>0.3945502658397297</v>
+        <v>0.3761349673947014</v>
       </c>
       <c r="I5">
-        <v>0.2011613001046939</v>
+        <v>0.2011613001046913</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -519,28 +519,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1099451778327485</v>
+        <v>0.2810352676691577</v>
       </c>
       <c r="C6">
-        <v>0.2208187881726418</v>
+        <v>0.4423064755315792</v>
       </c>
       <c r="D6">
-        <v>0.6405144720547478</v>
+        <v>0.6411855735751543</v>
       </c>
       <c r="E6">
-        <v>1.140119102907062</v>
+        <v>1.139879607366922</v>
       </c>
       <c r="F6">
-        <v>0.2069382590962053</v>
+        <v>0.2067548714728212</v>
       </c>
       <c r="G6">
-        <v>0.00710578882479528</v>
+        <v>0.2243626733219189</v>
       </c>
       <c r="H6">
-        <v>0.3920035605179626</v>
+        <v>0.3742520074233587</v>
       </c>
       <c r="I6">
-        <v>0.1954686543882198</v>
+        <v>0.195468654388216</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -548,28 +548,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1099451778327485</v>
+        <v>0.2810352676691577</v>
       </c>
       <c r="C7">
-        <v>0.2208187881726418</v>
+        <v>0.4423064755315792</v>
       </c>
       <c r="D7">
-        <v>0.6405144720547478</v>
+        <v>0.6411855735751543</v>
       </c>
       <c r="E7">
-        <v>1.140119102907062</v>
+        <v>1.139879607366922</v>
       </c>
       <c r="F7">
-        <v>0.2069382590962053</v>
+        <v>0.2067548714728212</v>
       </c>
       <c r="G7">
-        <v>0.00710578882479528</v>
+        <v>0.2243626733219189</v>
       </c>
       <c r="H7">
-        <v>0.3920035605179626</v>
+        <v>0.3742520074233587</v>
       </c>
       <c r="I7">
-        <v>0.1954686543882198</v>
+        <v>0.195468654388216</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -577,28 +577,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1083127537332402</v>
+        <v>0.3014403497547265</v>
       </c>
       <c r="C8">
-        <v>0.2164418498585563</v>
+        <v>0.4645038134681898</v>
       </c>
       <c r="D8">
-        <v>0.6375969374377218</v>
+        <v>0.6381530564877321</v>
       </c>
       <c r="E8">
-        <v>1.139082022727119</v>
+        <v>1.138883625987065</v>
       </c>
       <c r="F8">
-        <v>0.2076687929030149</v>
+        <v>0.2075170878562271</v>
       </c>
       <c r="G8">
-        <v>0.007105753988735217</v>
+        <v>0.250739989970742</v>
       </c>
       <c r="H8">
-        <v>0.3921120514696886</v>
+        <v>0.3774843334367054</v>
       </c>
       <c r="I8">
-        <v>0.1944078254617973</v>
+        <v>0.1944078254617959</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -606,28 +606,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1080509268275909</v>
+        <v>0.2436257996143699</v>
       </c>
       <c r="C9">
-        <v>0.1663755446811714</v>
+        <v>0.41175014106691</v>
       </c>
       <c r="D9">
-        <v>0.6091431392423637</v>
+        <v>0.6099090762438236</v>
       </c>
       <c r="E9">
-        <v>1.137726679593879</v>
+        <v>1.137467578129098</v>
       </c>
       <c r="F9">
-        <v>0.2182538029555467</v>
+        <v>0.2180524115828626</v>
       </c>
       <c r="G9">
-        <v>0.00710412065227192</v>
+        <v>0.2481660927320256</v>
       </c>
       <c r="H9">
-        <v>0.3970788789026836</v>
+        <v>0.3786565742355941</v>
       </c>
       <c r="I9">
-        <v>0.1927765353954893</v>
+        <v>0.1927765353954862</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -635,28 +635,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2009211820402159</v>
+        <v>0.2052375749663255</v>
       </c>
       <c r="C10">
-        <v>0.05548766013464559</v>
+        <v>0.389689403178651</v>
       </c>
       <c r="D10">
-        <v>0.5491326708474541</v>
+        <v>0.5499506248046587</v>
       </c>
       <c r="E10">
-        <v>1.143945872047216</v>
+        <v>1.143638656532243</v>
       </c>
       <c r="F10">
-        <v>0.2445765414252417</v>
+        <v>0.2443757165038266</v>
       </c>
       <c r="G10">
-        <v>0.007098174303265969</v>
+        <v>0.340964421826717</v>
       </c>
       <c r="H10">
-        <v>0.415161013353983</v>
+        <v>0.3989063313362133</v>
       </c>
       <c r="I10">
-        <v>0.1981256957906934</v>
+        <v>0.1981256957906938</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -664,28 +664,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.325494892923876</v>
+        <v>0.1896996227398302</v>
       </c>
       <c r="C11">
-        <v>0.06994868379532662</v>
+        <v>0.3893563118761306</v>
       </c>
       <c r="D11">
-        <v>0.4919787643866652</v>
+        <v>0.4926963099493016</v>
       </c>
       <c r="E11">
-        <v>1.148831499010274</v>
+        <v>1.14858268390949</v>
       </c>
       <c r="F11">
-        <v>0.2698975923893778</v>
+        <v>0.2697328772664714</v>
       </c>
       <c r="G11">
-        <v>0.00709086700129691</v>
+        <v>0.4524439417834062</v>
       </c>
       <c r="H11">
-        <v>0.4373884903352633</v>
+        <v>0.4254147213921733</v>
       </c>
       <c r="I11">
-        <v>0.2018601469471601</v>
+        <v>0.2018601469471613</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -693,28 +693,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.385497614946199</v>
+        <v>0.1464780702569126</v>
       </c>
       <c r="C12">
-        <v>0.1193238713513806</v>
+        <v>0.336992759670904</v>
       </c>
       <c r="D12">
-        <v>0.4621052098962299</v>
+        <v>0.4633537228920793</v>
       </c>
       <c r="E12">
-        <v>1.147859507827661</v>
+        <v>1.147448343765955</v>
       </c>
       <c r="F12">
-        <v>0.28197941523589</v>
+        <v>0.2817048382491971</v>
       </c>
       <c r="G12">
-        <v>0.007087002215206147</v>
+        <v>0.4499666815360233</v>
       </c>
       <c r="H12">
-        <v>0.4483281121196138</v>
+        <v>0.4293014125985897</v>
       </c>
       <c r="I12">
-        <v>0.2002206033740415</v>
+        <v>0.2002206033740417</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -722,28 +722,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4026780096839651</v>
+        <v>0.1276204957655243</v>
       </c>
       <c r="C13">
-        <v>0.1279734045038339</v>
+        <v>0.3031013834173873</v>
       </c>
       <c r="D13">
-        <v>0.438839036650387</v>
+        <v>0.4405763362652186</v>
       </c>
       <c r="E13">
-        <v>1.146565633982055</v>
+        <v>1.146017718868153</v>
       </c>
       <c r="F13">
-        <v>0.2913509289758929</v>
+        <v>0.2909824802714737</v>
       </c>
       <c r="G13">
-        <v>0.007084285521503066</v>
+        <v>0.4238867839347837</v>
       </c>
       <c r="H13">
-        <v>0.452662658081405</v>
+        <v>0.4281346689562834</v>
       </c>
       <c r="I13">
-        <v>0.1983925647331062</v>
+        <v>0.1983925647331048</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -751,28 +751,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3833331395007024</v>
+        <v>0.1191312903902753</v>
       </c>
       <c r="C14">
-        <v>0.1061330917975463</v>
+        <v>0.2556388492378735</v>
       </c>
       <c r="D14">
-        <v>0.4326354723103653</v>
+        <v>0.4348877842532728</v>
       </c>
       <c r="E14">
-        <v>1.144026943832149</v>
+        <v>1.143330502637294</v>
       </c>
       <c r="F14">
-        <v>0.2929734307237618</v>
+        <v>0.2925022717705816</v>
       </c>
       <c r="G14">
-        <v>0.007084231194115395</v>
+        <v>0.3541909193746283</v>
       </c>
       <c r="H14">
-        <v>0.4516083648093541</v>
+        <v>0.4207118866994186</v>
       </c>
       <c r="I14">
-        <v>0.1957622157117314</v>
+        <v>0.1957622157117336</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -780,28 +780,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3623958886899876</v>
+        <v>0.1194628822539674</v>
       </c>
       <c r="C15">
-        <v>0.087055496357616</v>
+        <v>0.239664551140448</v>
       </c>
       <c r="D15">
-        <v>0.4342605740307829</v>
+        <v>0.4366154380742205</v>
       </c>
       <c r="E15">
-        <v>1.140000113074072</v>
+        <v>1.139273034437033</v>
       </c>
       <c r="F15">
-        <v>0.2905880328008245</v>
+        <v>0.290095338990481</v>
       </c>
       <c r="G15">
-        <v>0.007085337085007035</v>
+        <v>0.3188595536648849</v>
       </c>
       <c r="H15">
-        <v>0.4484228773970422</v>
+        <v>0.4159942259189847</v>
       </c>
       <c r="I15">
-        <v>0.1918557990537156</v>
+        <v>0.1918557990537166</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -809,28 +809,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3546727873265608</v>
+        <v>0.1245283340118801</v>
       </c>
       <c r="C16">
-        <v>0.07934229807753763</v>
+        <v>0.2180356449712651</v>
       </c>
       <c r="D16">
-        <v>0.4379284626419198</v>
+        <v>0.4404205667167556</v>
       </c>
       <c r="E16">
-        <v>1.143785024681807</v>
+        <v>1.143012745378298</v>
       </c>
       <c r="F16">
-        <v>0.2906148645058091</v>
+        <v>0.2900908734231922</v>
       </c>
       <c r="G16">
-        <v>0.007085237291593246</v>
+        <v>0.2892059915500944</v>
       </c>
       <c r="H16">
-        <v>0.4488586579819574</v>
+        <v>0.4144471130105938</v>
       </c>
       <c r="I16">
-        <v>0.1956738137861314</v>
+        <v>0.1956738137861272</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -838,28 +838,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3477235793554523</v>
+        <v>0.1393815304705686</v>
       </c>
       <c r="C17">
-        <v>0.0723629051579892</v>
+        <v>0.1840316577922202</v>
       </c>
       <c r="D17">
-        <v>0.4424235872797243</v>
+        <v>0.4450852971635588</v>
       </c>
       <c r="E17">
-        <v>1.148708689506001</v>
+        <v>1.147879938466649</v>
       </c>
       <c r="F17">
-        <v>0.2907663819322793</v>
+        <v>0.2902032786313805</v>
       </c>
       <c r="G17">
-        <v>0.007085035163405785</v>
+        <v>0.2481162445096352</v>
       </c>
       <c r="H17">
-        <v>0.4495941282307989</v>
+        <v>0.4126963279439577</v>
       </c>
       <c r="I17">
-        <v>0.2006309080446002</v>
+        <v>0.2006309080445972</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -867,28 +867,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3113933629533152</v>
+        <v>0.1313146339102282</v>
       </c>
       <c r="C18">
-        <v>0.04530973521521984</v>
+        <v>0.1894391494795347</v>
       </c>
       <c r="D18">
-        <v>0.4595608210640599</v>
+        <v>0.4620190879368891</v>
       </c>
       <c r="E18">
-        <v>1.147796988848132</v>
+        <v>1.147011228259473</v>
       </c>
       <c r="F18">
-        <v>0.2830879469910402</v>
+        <v>0.2825552244939483</v>
       </c>
       <c r="G18">
-        <v>0.007087516547276946</v>
+        <v>0.2233820846861488</v>
       </c>
       <c r="H18">
-        <v>0.4420797269358211</v>
+        <v>0.4060970871588387</v>
       </c>
       <c r="I18">
-        <v>0.20015221914545</v>
+        <v>0.2001522191454502</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -896,28 +896,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2953674937055057</v>
+        <v>0.1149263661101811</v>
       </c>
       <c r="C19">
-        <v>0.03633048687199231</v>
+        <v>0.2413477080845257</v>
       </c>
       <c r="D19">
-        <v>0.4727244592829257</v>
+        <v>0.474839894204558</v>
       </c>
       <c r="E19">
-        <v>1.149744531301193</v>
+        <v>1.149051380661759</v>
       </c>
       <c r="F19">
-        <v>0.2783448924085293</v>
+        <v>0.2778770691671239</v>
       </c>
       <c r="G19">
-        <v>0.007088827378133221</v>
+        <v>0.2624437099582488</v>
       </c>
       <c r="H19">
-        <v>0.4378673174281558</v>
+        <v>0.405521375273222</v>
       </c>
       <c r="I19">
-        <v>0.2023705197569689</v>
+        <v>0.2023705197569666</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -925,28 +925,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3332898627407038</v>
+        <v>0.1324103977590705</v>
       </c>
       <c r="C20">
-        <v>0.06969052793151102</v>
+        <v>0.3106979764146078</v>
       </c>
       <c r="D20">
-        <v>0.472159171825476</v>
+        <v>0.4737314083159653</v>
       </c>
       <c r="E20">
-        <v>1.149334283070784</v>
+        <v>1.148813554523735</v>
       </c>
       <c r="F20">
-        <v>0.2783922654332754</v>
+        <v>0.2780431137856421</v>
       </c>
       <c r="G20">
-        <v>0.007088531641788803</v>
+        <v>0.3719865939898904</v>
       </c>
       <c r="H20">
-        <v>0.4399455920120803</v>
+        <v>0.415499839402338</v>
       </c>
       <c r="I20">
-        <v>0.2019352018892717</v>
+        <v>0.2019352018892694</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -954,28 +954,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4307314280695401</v>
+        <v>0.1681136270325807</v>
       </c>
       <c r="C21">
-        <v>0.1576366558169681</v>
+        <v>0.3741938693720396</v>
       </c>
       <c r="D21">
-        <v>0.4458431718852264</v>
+        <v>0.4466476063413489</v>
       </c>
       <c r="E21">
-        <v>1.15257582479579</v>
+        <v>1.152314504087325</v>
       </c>
       <c r="F21">
-        <v>0.2908423410002329</v>
+        <v>0.2906684647350876</v>
       </c>
       <c r="G21">
-        <v>0.00708366707309406</v>
+        <v>0.5263962662480993</v>
       </c>
       <c r="H21">
-        <v>0.4587906844567319</v>
+        <v>0.4471521536738833</v>
       </c>
       <c r="I21">
-        <v>0.2044436815672131</v>
+        <v>0.204443681567208</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -983,28 +983,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4932077061030367</v>
+        <v>0.1262156861749298</v>
       </c>
       <c r="C22">
-        <v>0.2102308743044842</v>
+        <v>0.2943763611438868</v>
       </c>
       <c r="D22">
-        <v>0.4239128545273678</v>
+        <v>0.425750181782015</v>
       </c>
       <c r="E22">
-        <v>1.158973313412748</v>
+        <v>1.158401272785458</v>
       </c>
       <c r="F22">
-        <v>0.3029826776564247</v>
+        <v>0.3025991339616448</v>
       </c>
       <c r="G22">
-        <v>0.007078792470677747</v>
+        <v>0.4966198656579149</v>
       </c>
       <c r="H22">
-        <v>0.4740813165371127</v>
+        <v>0.4495347430562986</v>
       </c>
       <c r="I22">
-        <v>0.2101026045794573</v>
+        <v>0.2101026045794594</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5375408583047505</v>
+        <v>0.1283203872895147</v>
       </c>
       <c r="C23">
-        <v>0.246639430384517</v>
+        <v>0.2532576547569851</v>
       </c>
       <c r="D23">
-        <v>0.4091454730240757</v>
+        <v>0.4115993469703617</v>
       </c>
       <c r="E23">
-        <v>1.165676481016805</v>
+        <v>1.164931549867001</v>
       </c>
       <c r="F23">
-        <v>0.3123193893598374</v>
+        <v>0.3118184951344388</v>
       </c>
       <c r="G23">
-        <v>0.0070748209145583</v>
+        <v>0.4904159528925039</v>
       </c>
       <c r="H23">
-        <v>0.4861666131193653</v>
+        <v>0.4551731924742767</v>
       </c>
       <c r="I23">
-        <v>0.2162065739262563</v>
+        <v>0.2162065739262576</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5522093564310171</v>
+        <v>0.1370004816979668</v>
       </c>
       <c r="C24">
-        <v>0.2582737059387848</v>
+        <v>0.2289197056072732</v>
       </c>
       <c r="D24">
-        <v>0.4056748415957368</v>
+        <v>0.4084728198323757</v>
       </c>
       <c r="E24">
-        <v>1.170187418841742</v>
+        <v>1.169344125658339</v>
       </c>
       <c r="F24">
-        <v>0.3158024755751556</v>
+        <v>0.3152344906563729</v>
       </c>
       <c r="G24">
-        <v>0.007073249915157342</v>
+        <v>0.4769160816908002</v>
       </c>
       <c r="H24">
-        <v>0.4909510011884161</v>
+        <v>0.4562363045140755</v>
       </c>
       <c r="I24">
-        <v>0.2205008683162257</v>
+        <v>0.2205008683162231</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4522825783961494</v>
+        <v>0.127446203809055</v>
       </c>
       <c r="C25">
-        <v>0.1731792005658077</v>
+        <v>0.2246076165698013</v>
       </c>
       <c r="D25">
-        <v>0.4490949087987082</v>
+        <v>0.4515422368393889</v>
       </c>
       <c r="E25">
-        <v>1.172070928394247</v>
+        <v>1.171287276381415</v>
       </c>
       <c r="F25">
-        <v>0.2976657088218361</v>
+        <v>0.2971374351037504</v>
       </c>
       <c r="G25">
-        <v>0.007080476672013235</v>
+        <v>0.3887660674272089</v>
       </c>
       <c r="H25">
-        <v>0.4689733892285723</v>
+        <v>0.4344720385020205</v>
       </c>
       <c r="I25">
-        <v>0.2236643829870656</v>
+        <v>0.223664382987064</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -397,701 +397,776 @@
       <c r="I1" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1313612392594206</v>
+        <v>0.1511811033097203</v>
       </c>
       <c r="C2">
-        <v>0.2925540157103397</v>
+        <v>0.09613034235182256</v>
       </c>
       <c r="D2">
-        <v>0.5584913621188971</v>
+        <v>0.5559902948422346</v>
       </c>
       <c r="E2">
-        <v>1.154448326525398</v>
+        <v>1.150839227014159</v>
       </c>
       <c r="F2">
-        <v>0.2454499781922303</v>
+        <v>0.2440788712492749</v>
       </c>
       <c r="G2">
-        <v>0.2389803556237428</v>
+        <v>0.007143026868604068</v>
       </c>
       <c r="H2">
-        <v>0.3900244828949844</v>
+        <v>0.2787628457619975</v>
       </c>
       <c r="I2">
-        <v>0.2091803144137945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.2091803144137937</v>
+      </c>
+      <c r="J2">
+        <v>0.2775237853246425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1897714957153906</v>
+        <v>0.09560694111468965</v>
       </c>
       <c r="C3">
-        <v>0.3599512407956043</v>
+        <v>0.1649548201980766</v>
       </c>
       <c r="D3">
-        <v>0.6006405994856234</v>
+        <v>0.5934639803172871</v>
       </c>
       <c r="E3">
-        <v>1.156635649484474</v>
+        <v>1.153493982880971</v>
       </c>
       <c r="F3">
-        <v>0.2293390352977168</v>
+        <v>0.2280666421140154</v>
       </c>
       <c r="G3">
-        <v>0.2305729175636821</v>
+        <v>0.00714496047739756</v>
       </c>
       <c r="H3">
-        <v>0.383926447054051</v>
+        <v>0.2728840547601493</v>
       </c>
       <c r="I3">
-        <v>0.2118287548144146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.211828754814416</v>
+      </c>
+      <c r="J3">
+        <v>0.2692703879146737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2477513218224725</v>
+        <v>0.09050866215049243</v>
       </c>
       <c r="C4">
-        <v>0.4148378173849951</v>
+        <v>0.215880160128083</v>
       </c>
       <c r="D4">
-        <v>0.6297364788053018</v>
+        <v>0.6192833477528591</v>
       </c>
       <c r="E4">
-        <v>1.153409256435828</v>
+        <v>1.150628334998175</v>
       </c>
       <c r="F4">
-        <v>0.2165217232065073</v>
+        <v>0.2153245930894036</v>
       </c>
       <c r="G4">
-        <v>0.2294190774481646</v>
+        <v>0.007146319187180518</v>
       </c>
       <c r="H4">
-        <v>0.3798305292378243</v>
+        <v>0.2687571453295495</v>
       </c>
       <c r="I4">
-        <v>0.2088751067174652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.2088751067174654</v>
+      </c>
+      <c r="J4">
+        <v>0.2624427359594879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2710008018439174</v>
+        <v>0.1023502991722955</v>
       </c>
       <c r="C5">
-        <v>0.4341473262270124</v>
+        <v>0.2389591939533567</v>
       </c>
       <c r="D5">
-        <v>0.6392898624014494</v>
+        <v>0.6289195835466486</v>
       </c>
       <c r="E5">
-        <v>1.145595509770882</v>
+        <v>1.14306328737011</v>
       </c>
       <c r="F5">
-        <v>0.2097205573968881</v>
+        <v>0.2085766545207223</v>
       </c>
       <c r="G5">
-        <v>0.2246135718967653</v>
+        <v>0.007147113015534749</v>
       </c>
       <c r="H5">
-        <v>0.3761349673947014</v>
+        <v>0.2663426273640097</v>
       </c>
       <c r="I5">
-        <v>0.2011613001046913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.2011613001046929</v>
+      </c>
+      <c r="J5">
+        <v>0.2579343665095163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2810352676691577</v>
+        <v>0.1084806480961019</v>
       </c>
       <c r="C6">
-        <v>0.4423064755315792</v>
+        <v>0.2472086970310424</v>
       </c>
       <c r="D6">
-        <v>0.6411855735751543</v>
+        <v>0.631262000464855</v>
       </c>
       <c r="E6">
-        <v>1.139879607366922</v>
+        <v>1.137474309837482</v>
       </c>
       <c r="F6">
-        <v>0.2067548714728212</v>
+        <v>0.2056346984444765</v>
       </c>
       <c r="G6">
-        <v>0.2243626733219189</v>
+        <v>0.007147521373272675</v>
       </c>
       <c r="H6">
-        <v>0.3742520074233587</v>
+        <v>0.2651011286196341</v>
       </c>
       <c r="I6">
-        <v>0.195468654388216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1954686543882171</v>
+      </c>
+      <c r="J6">
+        <v>0.255580611253224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2810352676691577</v>
+        <v>0.1084806480961019</v>
       </c>
       <c r="C7">
-        <v>0.4423064755315792</v>
+        <v>0.2472086970310424</v>
       </c>
       <c r="D7">
-        <v>0.6411855735751543</v>
+        <v>0.631262000464855</v>
       </c>
       <c r="E7">
-        <v>1.139879607366922</v>
+        <v>1.137474309837482</v>
       </c>
       <c r="F7">
-        <v>0.2067548714728212</v>
+        <v>0.2056346984444765</v>
       </c>
       <c r="G7">
-        <v>0.2243626733219189</v>
+        <v>0.007147521373272675</v>
       </c>
       <c r="H7">
-        <v>0.3742520074233587</v>
+        <v>0.2651011286196341</v>
       </c>
       <c r="I7">
-        <v>0.195468654388216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1954686543882171</v>
+      </c>
+      <c r="J7">
+        <v>0.255580611253224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3014403497547265</v>
+        <v>0.1043270560451525</v>
       </c>
       <c r="C8">
-        <v>0.4645038134681898</v>
+        <v>0.2409845254632412</v>
       </c>
       <c r="D8">
-        <v>0.6381530564877321</v>
+        <v>0.6264333862035055</v>
       </c>
       <c r="E8">
-        <v>1.138883625987065</v>
+        <v>1.136429903888963</v>
       </c>
       <c r="F8">
-        <v>0.2075170878562271</v>
+        <v>0.2063575400539688</v>
       </c>
       <c r="G8">
-        <v>0.250739989970742</v>
+        <v>0.007147577298435883</v>
       </c>
       <c r="H8">
-        <v>0.3774843334367054</v>
+        <v>0.2649336094255109</v>
       </c>
       <c r="I8">
-        <v>0.1944078254617959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1944078254617975</v>
+      </c>
+      <c r="J8">
+        <v>0.2556649660782446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2436257996143699</v>
+        <v>0.08655299000010062</v>
       </c>
       <c r="C9">
-        <v>0.41175014106691</v>
+        <v>0.1962386445130102</v>
       </c>
       <c r="D9">
-        <v>0.6099090762438236</v>
+        <v>0.6024050183544095</v>
       </c>
       <c r="E9">
-        <v>1.137467578129098</v>
+        <v>1.134792193878005</v>
       </c>
       <c r="F9">
-        <v>0.2180524115828626</v>
+        <v>0.2168463111298246</v>
       </c>
       <c r="G9">
-        <v>0.2481660927320256</v>
+        <v>0.007146708170210895</v>
       </c>
       <c r="H9">
-        <v>0.3786565742355941</v>
+        <v>0.2675759758328523</v>
       </c>
       <c r="I9">
-        <v>0.1927765353954862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1927765353954882</v>
+      </c>
+      <c r="J9">
+        <v>0.2603141867890426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2052375749663255</v>
+        <v>0.1601593162358774</v>
       </c>
       <c r="C10">
-        <v>0.389689403178651</v>
+        <v>0.08370604053885872</v>
       </c>
       <c r="D10">
-        <v>0.5499506248046587</v>
+        <v>0.5410042662174369</v>
       </c>
       <c r="E10">
-        <v>1.143638656532243</v>
+        <v>1.139971185587167</v>
       </c>
       <c r="F10">
-        <v>0.2443757165038266</v>
+        <v>0.2428804177437884</v>
       </c>
       <c r="G10">
-        <v>0.340964421826717</v>
+        <v>0.007143613652891924</v>
       </c>
       <c r="H10">
-        <v>0.3989063313362133</v>
+        <v>0.2769836945231185</v>
       </c>
       <c r="I10">
-        <v>0.1981256957906938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1981256957906948</v>
+      </c>
+      <c r="J10">
+        <v>0.2747291489067454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1896996227398302</v>
+        <v>0.2830275547272794</v>
       </c>
       <c r="C11">
-        <v>0.3893563118761306</v>
+        <v>0.03394762216659678</v>
       </c>
       <c r="D11">
-        <v>0.4926963099493016</v>
+        <v>0.4797012584105495</v>
       </c>
       <c r="E11">
-        <v>1.14858268390949</v>
+        <v>1.143564846699878</v>
       </c>
       <c r="F11">
-        <v>0.2697328772664714</v>
+        <v>0.2678796649586332</v>
       </c>
       <c r="G11">
-        <v>0.4524439417834062</v>
+        <v>0.007139460361424256</v>
       </c>
       <c r="H11">
-        <v>0.4254147213921733</v>
+        <v>0.2896167880790544</v>
       </c>
       <c r="I11">
-        <v>0.2018601469471613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.2018601469471588</v>
+      </c>
+      <c r="J11">
+        <v>0.2902416645175188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1464780702569126</v>
+        <v>0.3395312037402508</v>
       </c>
       <c r="C12">
-        <v>0.336992759670904</v>
+        <v>0.0798078615540332</v>
       </c>
       <c r="D12">
-        <v>0.4633537228920793</v>
+        <v>0.4505732885268499</v>
       </c>
       <c r="E12">
-        <v>1.147448343765955</v>
+        <v>1.141913118304132</v>
       </c>
       <c r="F12">
-        <v>0.2817048382491971</v>
+        <v>0.2797958833795127</v>
       </c>
       <c r="G12">
-        <v>0.4499666815360233</v>
+        <v>0.007137126407425896</v>
       </c>
       <c r="H12">
-        <v>0.4293014125985897</v>
+        <v>0.2959230517504016</v>
       </c>
       <c r="I12">
-        <v>0.2002206033740417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.2002206033740396</v>
+      </c>
+      <c r="J12">
+        <v>0.2977594657540221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1276204957655243</v>
+        <v>0.3673987242770932</v>
       </c>
       <c r="C13">
-        <v>0.3031013834173873</v>
+        <v>0.09948505086778579</v>
       </c>
       <c r="D13">
-        <v>0.4405763362652186</v>
+        <v>0.413643748553264</v>
       </c>
       <c r="E13">
-        <v>1.146017718868153</v>
+        <v>1.140087660214435</v>
       </c>
       <c r="F13">
-        <v>0.2909824802714737</v>
+        <v>0.2890385245768759</v>
       </c>
       <c r="G13">
-        <v>0.4238867839347837</v>
+        <v>0.007135497042167505</v>
       </c>
       <c r="H13">
-        <v>0.4281346689562834</v>
+        <v>0.2978941861102791</v>
       </c>
       <c r="I13">
-        <v>0.1983925647331048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1983925647331068</v>
+      </c>
+      <c r="J13">
+        <v>0.3036729019357379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1191312903902753</v>
+        <v>0.3562678761989119</v>
       </c>
       <c r="C14">
-        <v>0.2556388492378735</v>
+        <v>0.0865602403001943</v>
       </c>
       <c r="D14">
-        <v>0.4348877842532728</v>
+        <v>0.3983780576691938</v>
       </c>
       <c r="E14">
-        <v>1.143330502637294</v>
+        <v>1.137495871932617</v>
       </c>
       <c r="F14">
-        <v>0.2925022717705816</v>
+        <v>0.2906455122478213</v>
       </c>
       <c r="G14">
-        <v>0.3541909193746283</v>
+        <v>0.007135474381634023</v>
       </c>
       <c r="H14">
-        <v>0.4207118866994186</v>
+        <v>0.2987557558437957</v>
       </c>
       <c r="I14">
-        <v>0.1957622157117336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1957622157117291</v>
+      </c>
+      <c r="J14">
+        <v>0.3045738946863383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1194628822539674</v>
+        <v>0.3386120322871334</v>
       </c>
       <c r="C15">
-        <v>0.239664551140448</v>
+        <v>0.0707734628151183</v>
       </c>
       <c r="D15">
-        <v>0.4366154380742205</v>
+        <v>0.3972345162720942</v>
       </c>
       <c r="E15">
-        <v>1.139273034437033</v>
+        <v>1.133659164702892</v>
       </c>
       <c r="F15">
-        <v>0.290095338990481</v>
+        <v>0.2883010848940591</v>
       </c>
       <c r="G15">
-        <v>0.3188595536648849</v>
+        <v>0.007136135360155507</v>
       </c>
       <c r="H15">
-        <v>0.4159942259189847</v>
+        <v>0.298045918646464</v>
       </c>
       <c r="I15">
-        <v>0.1918557990537166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1918557990537164</v>
+      </c>
+      <c r="J15">
+        <v>0.3025151680427973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1245283340118801</v>
+        <v>0.331254688933737</v>
       </c>
       <c r="C16">
-        <v>0.2180356449712651</v>
+        <v>0.0632386987015261</v>
       </c>
       <c r="D16">
-        <v>0.4404205667167556</v>
+        <v>0.4003249111083398</v>
       </c>
       <c r="E16">
-        <v>1.143012745378298</v>
+        <v>1.13741720244422</v>
       </c>
       <c r="F16">
-        <v>0.2900908734231922</v>
+        <v>0.2883238332273315</v>
       </c>
       <c r="G16">
-        <v>0.2892059915500944</v>
+        <v>0.007136121023982586</v>
       </c>
       <c r="H16">
-        <v>0.4144471130105938</v>
+        <v>0.2986789258456773</v>
       </c>
       <c r="I16">
-        <v>0.1956738137861272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1956738137861286</v>
+      </c>
+      <c r="J16">
+        <v>0.3030970663528223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1393815304705686</v>
+        <v>0.3232211432717569</v>
       </c>
       <c r="C17">
-        <v>0.1840316577922202</v>
+        <v>0.05492778640787804</v>
       </c>
       <c r="D17">
-        <v>0.4450852971635588</v>
+        <v>0.4056909668290642</v>
       </c>
       <c r="E17">
-        <v>1.147879938466649</v>
+        <v>1.142295553199099</v>
       </c>
       <c r="F17">
-        <v>0.2902032786313805</v>
+        <v>0.2884681391634435</v>
       </c>
       <c r="G17">
-        <v>0.2481162445096352</v>
+        <v>0.007136049435170361</v>
       </c>
       <c r="H17">
-        <v>0.4126963279439577</v>
+        <v>0.2993728031373798</v>
       </c>
       <c r="I17">
-        <v>0.2006309080445972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.2006309080445992</v>
+      </c>
+      <c r="J17">
+        <v>0.3038339180414053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1313146339102282</v>
+        <v>0.2862344390883058</v>
       </c>
       <c r="C18">
-        <v>0.1894391494795347</v>
+        <v>0.02576893889709317</v>
       </c>
       <c r="D18">
-        <v>0.4620190879368891</v>
+        <v>0.4253421592258558</v>
       </c>
       <c r="E18">
-        <v>1.147011228259473</v>
+        <v>1.141847860410403</v>
       </c>
       <c r="F18">
-        <v>0.2825552244939483</v>
+        <v>0.2808989600678636</v>
       </c>
       <c r="G18">
-        <v>0.2233820846861488</v>
+        <v>0.00713755562529647</v>
       </c>
       <c r="H18">
-        <v>0.4060970871588387</v>
+        <v>0.2945648496491996</v>
       </c>
       <c r="I18">
-        <v>0.2001522191454502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.2001522191454497</v>
+      </c>
+      <c r="J18">
+        <v>0.2986280677131068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1149263661101811</v>
+        <v>0.2707033404589422</v>
       </c>
       <c r="C19">
-        <v>0.2413477080845257</v>
+        <v>0.01701788143615788</v>
       </c>
       <c r="D19">
-        <v>0.474839894204558</v>
+        <v>0.4389924187792118</v>
       </c>
       <c r="E19">
-        <v>1.149051380661759</v>
+        <v>1.144045384049513</v>
       </c>
       <c r="F19">
-        <v>0.2778770691671239</v>
+        <v>0.2762172150706186</v>
       </c>
       <c r="G19">
-        <v>0.2624437099582488</v>
+        <v>0.007138372648855849</v>
       </c>
       <c r="H19">
-        <v>0.405521375273222</v>
+        <v>0.2908266472598163</v>
       </c>
       <c r="I19">
-        <v>0.2023705197569666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.2023705197569712</v>
+      </c>
+      <c r="J19">
+        <v>0.2959679685720251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1324103977590705</v>
+        <v>0.2989061143101353</v>
       </c>
       <c r="C20">
-        <v>0.3106979764146078</v>
+        <v>0.04191851448594541</v>
       </c>
       <c r="D20">
-        <v>0.4737314083159653</v>
+        <v>0.4491874447126825</v>
       </c>
       <c r="E20">
-        <v>1.148813554523735</v>
+        <v>1.143614437307803</v>
       </c>
       <c r="F20">
-        <v>0.2780431137856421</v>
+        <v>0.276262231362526</v>
       </c>
       <c r="G20">
-        <v>0.3719865939898904</v>
+        <v>0.007138120563775894</v>
       </c>
       <c r="H20">
-        <v>0.415499839402338</v>
+        <v>0.290043864605784</v>
       </c>
       <c r="I20">
-        <v>0.2019352018892694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.2019352018892723</v>
+      </c>
+      <c r="J20">
+        <v>0.2955849703136569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1681136270325807</v>
+        <v>0.3872296824429665</v>
       </c>
       <c r="C21">
-        <v>0.3741938693720396</v>
+        <v>0.1202631002352473</v>
       </c>
       <c r="D21">
-        <v>0.4466476063413489</v>
+        <v>0.4292174073163949</v>
       </c>
       <c r="E21">
-        <v>1.152314504087325</v>
+        <v>1.146042157358834</v>
       </c>
       <c r="F21">
-        <v>0.2906684647350876</v>
+        <v>0.2885224091336152</v>
       </c>
       <c r="G21">
-        <v>0.5263962662480993</v>
+        <v>0.007135140331616195</v>
       </c>
       <c r="H21">
-        <v>0.4471521536738833</v>
+        <v>0.3022683217127664</v>
       </c>
       <c r="I21">
-        <v>0.204443681567208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.2044436815672138</v>
+      </c>
+      <c r="J21">
+        <v>0.3043893571993128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1262156861749298</v>
+        <v>0.4408904512464609</v>
       </c>
       <c r="C22">
-        <v>0.2943763611438868</v>
+        <v>0.1635825277413797</v>
       </c>
       <c r="D22">
-        <v>0.425750181782015</v>
+        <v>0.4124227264360104</v>
       </c>
       <c r="E22">
-        <v>1.158401272785458</v>
+        <v>1.151575083729698</v>
       </c>
       <c r="F22">
-        <v>0.3025991339616448</v>
+        <v>0.3004631804714114</v>
       </c>
       <c r="G22">
-        <v>0.4966198656579149</v>
+        <v>0.007132220663192803</v>
       </c>
       <c r="H22">
-        <v>0.4495347430562986</v>
+        <v>0.3116012511388678</v>
       </c>
       <c r="I22">
-        <v>0.2101026045794594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.2101026045794575</v>
+      </c>
+      <c r="J22">
+        <v>0.3137758211424655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1283203872895147</v>
+        <v>0.481372802798438</v>
       </c>
       <c r="C23">
-        <v>0.2532576547569851</v>
+        <v>0.1960155454725933</v>
       </c>
       <c r="D23">
-        <v>0.4115993469703617</v>
+        <v>0.3982048166585029</v>
       </c>
       <c r="E23">
-        <v>1.164931549867001</v>
+        <v>1.157557168371574</v>
       </c>
       <c r="F23">
-        <v>0.3118184951344388</v>
+        <v>0.3096349831202683</v>
       </c>
       <c r="G23">
-        <v>0.4904159528925039</v>
+        <v>0.007129854879168044</v>
       </c>
       <c r="H23">
-        <v>0.4551731924742767</v>
+        <v>0.3188011223457065</v>
       </c>
       <c r="I23">
-        <v>0.2162065739262576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.2162065739262556</v>
+      </c>
+      <c r="J23">
+        <v>0.3214704284872839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1370004816979668</v>
+        <v>0.4939914653033386</v>
       </c>
       <c r="C24">
-        <v>0.2289197056072732</v>
+        <v>0.2055754896666977</v>
       </c>
       <c r="D24">
-        <v>0.4084728198323757</v>
+        <v>0.395449397320949</v>
       </c>
       <c r="E24">
-        <v>1.169344125658339</v>
+        <v>1.161774883194235</v>
       </c>
       <c r="F24">
-        <v>0.3152344906563729</v>
+        <v>0.3130519242464436</v>
       </c>
       <c r="G24">
-        <v>0.4769160816908002</v>
+        <v>0.007128945380232021</v>
       </c>
       <c r="H24">
-        <v>0.4562363045140755</v>
+        <v>0.3215729149229824</v>
       </c>
       <c r="I24">
-        <v>0.2205008683162231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.2205008683162246</v>
+      </c>
+      <c r="J24">
+        <v>0.3246805956928249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.127446203809055</v>
+        <v>0.3956420641744517</v>
       </c>
       <c r="C25">
-        <v>0.2246076165698013</v>
+        <v>0.1223517782446356</v>
       </c>
       <c r="D25">
-        <v>0.4515422368393889</v>
+        <v>0.4434037669099057</v>
       </c>
       <c r="E25">
-        <v>1.171287276381415</v>
+        <v>1.164936530075681</v>
       </c>
       <c r="F25">
-        <v>0.2971374351037504</v>
+        <v>0.295218627614031</v>
       </c>
       <c r="G25">
-        <v>0.3887660674272089</v>
+        <v>0.007133396672469412</v>
       </c>
       <c r="H25">
-        <v>0.4344720385020205</v>
+        <v>0.3080395072539438</v>
       </c>
       <c r="I25">
-        <v>0.223664382987064</v>
+        <v>0.223664382987067</v>
+      </c>
+      <c r="J25">
+        <v>0.3120874920295716</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -406,31 +406,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1511811033097203</v>
+        <v>0.1889129372953526</v>
       </c>
       <c r="C2">
-        <v>0.09613034235182256</v>
+        <v>0.05145540628087652</v>
       </c>
       <c r="D2">
-        <v>0.5559902948422346</v>
+        <v>0.510633136522584</v>
       </c>
       <c r="E2">
-        <v>1.150839227014159</v>
+        <v>1.150850776514954</v>
       </c>
       <c r="F2">
-        <v>0.2440788712492749</v>
+        <v>0.244051625780531</v>
       </c>
       <c r="G2">
-        <v>0.007143026868604068</v>
+        <v>0.007143758385484129</v>
       </c>
       <c r="H2">
-        <v>0.2787628457619975</v>
+        <v>0.2765385556732914</v>
       </c>
       <c r="I2">
-        <v>0.2091803144137937</v>
+        <v>0.2091803144137915</v>
       </c>
       <c r="J2">
-        <v>0.2775237853246425</v>
+        <v>0.2790927646119826</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -438,31 +438,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09560694111468965</v>
+        <v>0.1147728127515536</v>
       </c>
       <c r="C3">
-        <v>0.1649548201980766</v>
+        <v>0.1276683352405244</v>
       </c>
       <c r="D3">
-        <v>0.5934639803172871</v>
+        <v>0.5556586317539761</v>
       </c>
       <c r="E3">
-        <v>1.153493982880971</v>
+        <v>1.153506061810903</v>
       </c>
       <c r="F3">
-        <v>0.2280666421140154</v>
+        <v>0.2280370556961183</v>
       </c>
       <c r="G3">
-        <v>0.00714496047739756</v>
+        <v>0.007145814755611407</v>
       </c>
       <c r="H3">
-        <v>0.2728840547601493</v>
+        <v>0.2702865095000494</v>
       </c>
       <c r="I3">
-        <v>0.211828754814416</v>
+        <v>0.2118287548144138</v>
       </c>
       <c r="J3">
-        <v>0.2692703879146737</v>
+        <v>0.2706881858766149</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -470,31 +470,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09050866215049243</v>
+        <v>0.08605073027678881</v>
       </c>
       <c r="C4">
-        <v>0.215880160128083</v>
+        <v>0.1840294754951445</v>
       </c>
       <c r="D4">
-        <v>0.6192833477528591</v>
+        <v>0.5869376741634227</v>
       </c>
       <c r="E4">
-        <v>1.150628334998175</v>
+        <v>1.150640452582486</v>
       </c>
       <c r="F4">
-        <v>0.2153245930894036</v>
+        <v>0.2152958185488645</v>
       </c>
       <c r="G4">
-        <v>0.007146319187180518</v>
+        <v>0.007147202478436689</v>
       </c>
       <c r="H4">
-        <v>0.2687571453295495</v>
+        <v>0.2660713951214769</v>
       </c>
       <c r="I4">
-        <v>0.2088751067174654</v>
+        <v>0.2088751067174658</v>
       </c>
       <c r="J4">
-        <v>0.2624427359594879</v>
+        <v>0.2637329729143062</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -502,31 +502,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1023502991722955</v>
+        <v>0.088634560928939</v>
       </c>
       <c r="C5">
-        <v>0.2389591939533567</v>
+        <v>0.2083061261039598</v>
       </c>
       <c r="D5">
-        <v>0.6289195835466486</v>
+        <v>0.5977682494760557</v>
       </c>
       <c r="E5">
-        <v>1.14306328737011</v>
+        <v>1.143075964402154</v>
       </c>
       <c r="F5">
-        <v>0.2085766545207223</v>
+        <v>0.2085478735509382</v>
       </c>
       <c r="G5">
-        <v>0.007147113015534749</v>
+        <v>0.007148026877511104</v>
       </c>
       <c r="H5">
-        <v>0.2663426273640097</v>
+        <v>0.2635639320690886</v>
       </c>
       <c r="I5">
-        <v>0.2011613001046929</v>
+        <v>0.2011613001046918</v>
       </c>
       <c r="J5">
-        <v>0.2579343665095163</v>
+        <v>0.2591364487608195</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -534,31 +534,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1084806480961019</v>
+        <v>0.09208648359710619</v>
       </c>
       <c r="C6">
-        <v>0.2472086970310424</v>
+        <v>0.2167500571965187</v>
       </c>
       <c r="D6">
-        <v>0.631262000464855</v>
+        <v>0.6003016410720982</v>
       </c>
       <c r="E6">
-        <v>1.137474309837482</v>
+        <v>1.137487374840272</v>
       </c>
       <c r="F6">
-        <v>0.2056346984444765</v>
+        <v>0.2056058570367308</v>
       </c>
       <c r="G6">
-        <v>0.007147521373272675</v>
+        <v>0.007148451054963098</v>
       </c>
       <c r="H6">
-        <v>0.2651011286196341</v>
+        <v>0.2622743362376215</v>
       </c>
       <c r="I6">
-        <v>0.1954686543882171</v>
+        <v>0.195468654388216</v>
       </c>
       <c r="J6">
-        <v>0.255580611253224</v>
+        <v>0.2567448189688482</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -566,31 +566,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1084806480961019</v>
+        <v>0.09208648359710619</v>
       </c>
       <c r="C7">
-        <v>0.2472086970310424</v>
+        <v>0.2167500571965187</v>
       </c>
       <c r="D7">
-        <v>0.631262000464855</v>
+        <v>0.6003016410720982</v>
       </c>
       <c r="E7">
-        <v>1.137474309837482</v>
+        <v>1.137487374840272</v>
       </c>
       <c r="F7">
-        <v>0.2056346984444765</v>
+        <v>0.2056058570367308</v>
       </c>
       <c r="G7">
-        <v>0.007147521373272675</v>
+        <v>0.007148451054963098</v>
       </c>
       <c r="H7">
-        <v>0.2651011286196341</v>
+        <v>0.2622743362376215</v>
       </c>
       <c r="I7">
-        <v>0.1954686543882171</v>
+        <v>0.195468654388216</v>
       </c>
       <c r="J7">
-        <v>0.255580611253224</v>
+        <v>0.2567448189688482</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -598,31 +598,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1043270560451525</v>
+        <v>0.09022229300813775</v>
       </c>
       <c r="C8">
-        <v>0.2409845254632412</v>
+        <v>0.2123535318682941</v>
       </c>
       <c r="D8">
-        <v>0.6264333862035055</v>
+        <v>0.5973365438421244</v>
       </c>
       <c r="E8">
-        <v>1.136429903888963</v>
+        <v>1.136442058871971</v>
       </c>
       <c r="F8">
-        <v>0.2063575400539688</v>
+        <v>0.2063307752735777</v>
       </c>
       <c r="G8">
-        <v>0.007147577298435883</v>
+        <v>0.007148436850666838</v>
       </c>
       <c r="H8">
-        <v>0.2649336094255109</v>
+        <v>0.2623200524810719</v>
       </c>
       <c r="I8">
-        <v>0.1944078254617975</v>
+        <v>0.194407825461798</v>
       </c>
       <c r="J8">
-        <v>0.2556649660782446</v>
+        <v>0.256885550488286</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -630,31 +630,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08655299000010062</v>
+        <v>0.09051380346537016</v>
       </c>
       <c r="C9">
-        <v>0.1962386445130102</v>
+        <v>0.1619028615249483</v>
       </c>
       <c r="D9">
-        <v>0.6024050183544095</v>
+        <v>0.5675658088136332</v>
       </c>
       <c r="E9">
-        <v>1.134792193878005</v>
+        <v>1.134805100903795</v>
       </c>
       <c r="F9">
-        <v>0.2168463111298246</v>
+        <v>0.2168173355540869</v>
       </c>
       <c r="G9">
-        <v>0.007146708170210895</v>
+        <v>0.007147591079763722</v>
       </c>
       <c r="H9">
-        <v>0.2675759758328523</v>
+        <v>0.2648913898532926</v>
       </c>
       <c r="I9">
-        <v>0.1927765353954882</v>
+        <v>0.1927765353954863</v>
       </c>
       <c r="J9">
-        <v>0.2603141867890426</v>
+        <v>0.261622082692071</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -662,31 +662,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1601593162358774</v>
+        <v>0.1921047816904505</v>
       </c>
       <c r="C10">
-        <v>0.08370604053885872</v>
+        <v>0.04659520757678177</v>
       </c>
       <c r="D10">
-        <v>0.5410042662174369</v>
+        <v>0.5032842372182631</v>
       </c>
       <c r="E10">
-        <v>1.139971185587167</v>
+        <v>1.139980812592168</v>
       </c>
       <c r="F10">
-        <v>0.2428804177437884</v>
+        <v>0.2428591421129651</v>
       </c>
       <c r="G10">
-        <v>0.007143613652891924</v>
+        <v>0.007144187940705799</v>
       </c>
       <c r="H10">
-        <v>0.2769836945231185</v>
+        <v>0.2752374863347197</v>
       </c>
       <c r="I10">
-        <v>0.1981256957906948</v>
+        <v>0.1981256957906939</v>
       </c>
       <c r="J10">
-        <v>0.2747291489067454</v>
+        <v>0.2765843321225072</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -694,31 +694,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2830275547272794</v>
+        <v>0.3197146668046357</v>
       </c>
       <c r="C11">
-        <v>0.03394762216659678</v>
+        <v>0.07109551978376344</v>
       </c>
       <c r="D11">
-        <v>0.4797012584105495</v>
+        <v>0.4410736289854761</v>
       </c>
       <c r="E11">
-        <v>1.143564846699878</v>
+        <v>1.143570937740073</v>
       </c>
       <c r="F11">
-        <v>0.2678796649586332</v>
+        <v>0.2678713340348098</v>
       </c>
       <c r="G11">
-        <v>0.007139460361424256</v>
+        <v>0.007139662611256327</v>
       </c>
       <c r="H11">
-        <v>0.2896167880790544</v>
+        <v>0.289001806760822</v>
       </c>
       <c r="I11">
-        <v>0.2018601469471588</v>
+        <v>0.2018601469471587</v>
       </c>
       <c r="J11">
-        <v>0.2902416645175188</v>
+        <v>0.2927330823388139</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -726,31 +726,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3395312037402508</v>
+        <v>0.3803321028281249</v>
       </c>
       <c r="C12">
-        <v>0.0798078615540332</v>
+        <v>0.1217034295276755</v>
       </c>
       <c r="D12">
-        <v>0.4505732885268499</v>
+        <v>0.4084484459954485</v>
       </c>
       <c r="E12">
-        <v>1.141913118304132</v>
+        <v>1.141918122458789</v>
       </c>
       <c r="F12">
-        <v>0.2797958833795127</v>
+        <v>0.279794686496178</v>
       </c>
       <c r="G12">
-        <v>0.007137126407425896</v>
+        <v>0.007137154114416127</v>
       </c>
       <c r="H12">
-        <v>0.2959230517504016</v>
+        <v>0.2958388203751171</v>
       </c>
       <c r="I12">
-        <v>0.2002206033740396</v>
+        <v>0.200220603374042</v>
       </c>
       <c r="J12">
-        <v>0.2977594657540221</v>
+        <v>0.3005628947597386</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -758,31 +758,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3673987242770932</v>
+        <v>0.3975149561865657</v>
       </c>
       <c r="C13">
-        <v>0.09948505086778579</v>
+        <v>0.1303587383554133</v>
       </c>
       <c r="D13">
-        <v>0.413643748553264</v>
+        <v>0.3827277756885337</v>
       </c>
       <c r="E13">
-        <v>1.140087660214435</v>
+        <v>1.140090616236944</v>
       </c>
       <c r="F13">
-        <v>0.2890385245768759</v>
+        <v>0.2890403932338443</v>
       </c>
       <c r="G13">
-        <v>0.007135497042167505</v>
+        <v>0.00713545529950798</v>
       </c>
       <c r="H13">
-        <v>0.2978941861102791</v>
+        <v>0.2980199358906649</v>
       </c>
       <c r="I13">
-        <v>0.1983925647331068</v>
+        <v>0.1983925647331067</v>
       </c>
       <c r="J13">
-        <v>0.3036729019357379</v>
+        <v>0.3064555396357527</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -790,31 +790,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3562678761989119</v>
+        <v>0.3779150855298699</v>
       </c>
       <c r="C14">
-        <v>0.0865602403001943</v>
+        <v>0.1087606416060044</v>
       </c>
       <c r="D14">
-        <v>0.3983780576691938</v>
+        <v>0.3760614111285185</v>
       </c>
       <c r="E14">
-        <v>1.137495871932617</v>
+        <v>1.137498027912709</v>
       </c>
       <c r="F14">
-        <v>0.2906455122478213</v>
+        <v>0.2906458897652517</v>
       </c>
       <c r="G14">
-        <v>0.007135474381634023</v>
+        <v>0.007135465999384094</v>
       </c>
       <c r="H14">
-        <v>0.2987557558437957</v>
+        <v>0.2987805122313302</v>
       </c>
       <c r="I14">
-        <v>0.1957622157117291</v>
+        <v>0.1957622157117308</v>
       </c>
       <c r="J14">
-        <v>0.3045738946863383</v>
+        <v>0.3068903188376896</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -822,31 +822,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3386120322871334</v>
+        <v>0.3567680278826698</v>
       </c>
       <c r="C15">
-        <v>0.0707734628151183</v>
+        <v>0.08937561498686801</v>
       </c>
       <c r="D15">
-        <v>0.3972345162720942</v>
+        <v>0.3784122077525797</v>
       </c>
       <c r="E15">
-        <v>1.133659164702892</v>
+        <v>1.133661149489371</v>
       </c>
       <c r="F15">
-        <v>0.2883010848940591</v>
+        <v>0.2883002572875591</v>
       </c>
       <c r="G15">
-        <v>0.007136135360155507</v>
+        <v>0.007136153901236136</v>
       </c>
       <c r="H15">
-        <v>0.298045918646464</v>
+        <v>0.2979917845436875</v>
       </c>
       <c r="I15">
-        <v>0.1918557990537164</v>
+        <v>0.1918557990537162</v>
       </c>
       <c r="J15">
-        <v>0.3025151680427973</v>
+        <v>0.3045460271897957</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -854,31 +854,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.331254688933737</v>
+        <v>0.3488996029039972</v>
       </c>
       <c r="C16">
-        <v>0.0632386987015261</v>
+        <v>0.08128804930620263</v>
       </c>
       <c r="D16">
-        <v>0.4003249111083398</v>
+        <v>0.3819807263227016</v>
       </c>
       <c r="E16">
-        <v>1.13741720244422</v>
+        <v>1.137419184907291</v>
       </c>
       <c r="F16">
-        <v>0.2883238332273315</v>
+        <v>0.2883224769554886</v>
       </c>
       <c r="G16">
-        <v>0.007136121023982586</v>
+        <v>0.007136151406264199</v>
       </c>
       <c r="H16">
-        <v>0.2986789258456773</v>
+        <v>0.2985906216765174</v>
       </c>
       <c r="I16">
-        <v>0.1956738137861286</v>
+        <v>0.1956738137861299</v>
       </c>
       <c r="J16">
-        <v>0.3030970663528223</v>
+        <v>0.3050762539993411</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -886,31 +886,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3232211432717569</v>
+        <v>0.3417990623091169</v>
       </c>
       <c r="C17">
-        <v>0.05492778640787804</v>
+        <v>0.07387309515439706</v>
       </c>
       <c r="D17">
-        <v>0.4056909668290642</v>
+        <v>0.3863174116912869</v>
       </c>
       <c r="E17">
-        <v>1.142295553199099</v>
+        <v>1.14229769903722</v>
       </c>
       <c r="F17">
-        <v>0.2884681391634435</v>
+        <v>0.2884660860991557</v>
       </c>
       <c r="G17">
-        <v>0.007136049435170361</v>
+        <v>0.007136095401005098</v>
       </c>
       <c r="H17">
-        <v>0.2993728031373798</v>
+        <v>0.2992396713791387</v>
       </c>
       <c r="I17">
-        <v>0.2006309080445992</v>
+        <v>0.2006309080445968</v>
       </c>
       <c r="J17">
-        <v>0.3038339180414053</v>
+        <v>0.3058744442228326</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -918,31 +918,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2862344390883058</v>
+        <v>0.3049870983268566</v>
       </c>
       <c r="C18">
-        <v>0.02576893889709317</v>
+        <v>0.04376019637099582</v>
       </c>
       <c r="D18">
-        <v>0.4253421592258558</v>
+        <v>0.4054998074787127</v>
       </c>
       <c r="E18">
-        <v>1.141847860410403</v>
+        <v>1.14185053555035</v>
       </c>
       <c r="F18">
-        <v>0.2808989600678636</v>
+        <v>0.2808944241919179</v>
       </c>
       <c r="G18">
-        <v>0.00713755562529647</v>
+        <v>0.007137660188404726</v>
       </c>
       <c r="H18">
-        <v>0.2945648496491996</v>
+        <v>0.2942614783753689</v>
       </c>
       <c r="I18">
-        <v>0.2001522191454497</v>
+        <v>0.2001522191454512</v>
       </c>
       <c r="J18">
-        <v>0.2986280677131068</v>
+        <v>0.3006139270167011</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -950,31 +950,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2707033404589422</v>
+        <v>0.2887170202833134</v>
       </c>
       <c r="C19">
-        <v>0.01701788143615788</v>
+        <v>0.03210620233011515</v>
       </c>
       <c r="D19">
-        <v>0.4389924187792118</v>
+        <v>0.4197886867432128</v>
       </c>
       <c r="E19">
-        <v>1.144045384049513</v>
+        <v>1.144048218325694</v>
       </c>
       <c r="F19">
-        <v>0.2762172150706186</v>
+        <v>0.2762118318930486</v>
       </c>
       <c r="G19">
-        <v>0.007138372648855849</v>
+        <v>0.007138499047076671</v>
       </c>
       <c r="H19">
-        <v>0.2908266472598163</v>
+        <v>0.2904561912760948</v>
       </c>
       <c r="I19">
-        <v>0.2023705197569712</v>
+        <v>0.2023705197569689</v>
       </c>
       <c r="J19">
-        <v>0.2959679685720251</v>
+        <v>0.297864715120648</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -982,31 +982,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2989061143101353</v>
+        <v>0.3274313816481048</v>
       </c>
       <c r="C20">
-        <v>0.04191851448594541</v>
+        <v>0.07090671029021982</v>
       </c>
       <c r="D20">
-        <v>0.4491874447126825</v>
+        <v>0.4192655736466873</v>
       </c>
       <c r="E20">
-        <v>1.143614437307803</v>
+        <v>1.143618564822357</v>
       </c>
       <c r="F20">
-        <v>0.276262231362526</v>
+        <v>0.2762569552284753</v>
       </c>
       <c r="G20">
-        <v>0.007138120563775894</v>
+        <v>0.007138244421478918</v>
       </c>
       <c r="H20">
-        <v>0.290043864605784</v>
+        <v>0.2896706017494096</v>
       </c>
       <c r="I20">
-        <v>0.2019352018892723</v>
+        <v>0.2019352018892712</v>
       </c>
       <c r="J20">
-        <v>0.2955849703136569</v>
+        <v>0.2980652247025294</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3872296824429665</v>
+        <v>0.425825288677754</v>
       </c>
       <c r="C21">
-        <v>0.1202631002352473</v>
+        <v>0.1597547333116663</v>
       </c>
       <c r="D21">
-        <v>0.4292174073163949</v>
+        <v>0.3898230719570778</v>
       </c>
       <c r="E21">
-        <v>1.146042157358834</v>
+        <v>1.146045718935838</v>
       </c>
       <c r="F21">
-        <v>0.2885224091336152</v>
+        <v>0.2885275398514514</v>
       </c>
       <c r="G21">
-        <v>0.007135140331616195</v>
+        <v>0.007135025504571312</v>
       </c>
       <c r="H21">
-        <v>0.3022683217127664</v>
+        <v>0.3026174511751653</v>
       </c>
       <c r="I21">
-        <v>0.2044436815672138</v>
+        <v>0.204443681567211</v>
       </c>
       <c r="J21">
-        <v>0.3043893571993128</v>
+        <v>0.3074292079699993</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4408904512464609</v>
+        <v>0.4884954286003906</v>
       </c>
       <c r="C22">
-        <v>0.1635825277413797</v>
+        <v>0.2120515798159485</v>
       </c>
       <c r="D22">
-        <v>0.4124227264360104</v>
+        <v>0.3643775833863607</v>
       </c>
       <c r="E22">
-        <v>1.151575083729698</v>
+        <v>1.151577979722563</v>
       </c>
       <c r="F22">
-        <v>0.3004631804714114</v>
+        <v>0.3004793886203635</v>
       </c>
       <c r="G22">
-        <v>0.007132220663192803</v>
+        <v>0.007131873839731551</v>
       </c>
       <c r="H22">
-        <v>0.3116012511388678</v>
+        <v>0.3126558654020301</v>
       </c>
       <c r="I22">
-        <v>0.2101026045794575</v>
+        <v>0.2101026045794573</v>
       </c>
       <c r="J22">
-        <v>0.3137758211424655</v>
+        <v>0.3171765506049416</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.481372802798438</v>
+        <v>0.5328512648782513</v>
       </c>
       <c r="C23">
-        <v>0.1960155454725933</v>
+        <v>0.2482655875382686</v>
       </c>
       <c r="D23">
-        <v>0.3982048166585029</v>
+        <v>0.3466216043032792</v>
       </c>
       <c r="E23">
-        <v>1.157557168371574</v>
+        <v>1.157559256286586</v>
       </c>
       <c r="F23">
-        <v>0.3096349831202683</v>
+        <v>0.3096608336066091</v>
       </c>
       <c r="G23">
-        <v>0.007129854879168044</v>
+        <v>0.007129319943871478</v>
       </c>
       <c r="H23">
-        <v>0.3188011223457065</v>
+        <v>0.3204277597197207</v>
       </c>
       <c r="I23">
-        <v>0.2162065739262556</v>
+        <v>0.2162065739262544</v>
       </c>
       <c r="J23">
-        <v>0.3214704284872839</v>
+        <v>0.325138868297276</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4939914653033386</v>
+        <v>0.5474933645431455</v>
       </c>
       <c r="C24">
-        <v>0.2055754896666977</v>
+        <v>0.2598325462924789</v>
       </c>
       <c r="D24">
-        <v>0.395449397320949</v>
+        <v>0.3419480036746411</v>
       </c>
       <c r="E24">
-        <v>1.161774883194235</v>
+        <v>1.161776743503445</v>
       </c>
       <c r="F24">
-        <v>0.3130519242464436</v>
+        <v>0.3130815587770856</v>
       </c>
       <c r="G24">
-        <v>0.007128945380232021</v>
+        <v>0.007128339617714072</v>
       </c>
       <c r="H24">
-        <v>0.3215729149229824</v>
+        <v>0.3234149321151464</v>
       </c>
       <c r="I24">
-        <v>0.2205008683162246</v>
+        <v>0.2205008683162254</v>
       </c>
       <c r="J24">
-        <v>0.3246805956928249</v>
+        <v>0.3284311882861853</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3956420641744517</v>
+        <v>0.4473040772317025</v>
       </c>
       <c r="C25">
-        <v>0.1223517782446356</v>
+        <v>0.1751665974230721</v>
       </c>
       <c r="D25">
-        <v>0.4434037669099057</v>
+        <v>0.3907641001539978</v>
       </c>
       <c r="E25">
-        <v>1.164936530075681</v>
+        <v>1.16494078617554</v>
       </c>
       <c r="F25">
-        <v>0.295218627614031</v>
+        <v>0.2952269658667213</v>
       </c>
       <c r="G25">
-        <v>0.007133396672469412</v>
+        <v>0.007133214733652158</v>
       </c>
       <c r="H25">
-        <v>0.3080395072539438</v>
+        <v>0.3085927413845636</v>
       </c>
       <c r="I25">
-        <v>0.223664382987067</v>
+        <v>0.2236643829870655</v>
       </c>
       <c r="J25">
-        <v>0.3120874920295716</v>
+        <v>0.3151246870219502</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -406,31 +406,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1889129372953526</v>
+        <v>0.03891287221836979</v>
       </c>
       <c r="C2">
-        <v>0.05145540628087652</v>
+        <v>0.06009487530547201</v>
       </c>
       <c r="D2">
-        <v>0.510633136522584</v>
+        <v>0.168016881724305</v>
       </c>
       <c r="E2">
-        <v>1.150850776514954</v>
+        <v>0.328467677382257</v>
       </c>
       <c r="F2">
-        <v>0.244051625780531</v>
+        <v>0.06429032330864373</v>
       </c>
       <c r="G2">
-        <v>0.007143758385484129</v>
+        <v>0.02631601038559739</v>
       </c>
       <c r="H2">
-        <v>0.2765385556732914</v>
+        <v>0.04458374995360299</v>
       </c>
       <c r="I2">
-        <v>0.2091803144137915</v>
+        <v>0.06070610586828314</v>
       </c>
       <c r="J2">
-        <v>0.2790927646119826</v>
+        <v>0.02625403130643734</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -438,31 +438,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1147728127515536</v>
+        <v>0.02446363992367492</v>
       </c>
       <c r="C3">
-        <v>0.1276683352405244</v>
+        <v>0.0761761220668528</v>
       </c>
       <c r="D3">
-        <v>0.5556586317539761</v>
+        <v>0.180186745027481</v>
       </c>
       <c r="E3">
-        <v>1.153506061810903</v>
+        <v>0.3293526162858437</v>
       </c>
       <c r="F3">
-        <v>0.2280370556961183</v>
+        <v>0.06016572434712225</v>
       </c>
       <c r="G3">
-        <v>0.007145814755611407</v>
+        <v>0.0263166356017718</v>
       </c>
       <c r="H3">
-        <v>0.2702865095000494</v>
+        <v>0.04648422760032089</v>
       </c>
       <c r="I3">
-        <v>0.2118287548144138</v>
+        <v>0.06142056634170726</v>
       </c>
       <c r="J3">
-        <v>0.2706881858766149</v>
+        <v>0.02878027086378428</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -470,31 +470,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08605073027678881</v>
+        <v>0.02451039661237094</v>
       </c>
       <c r="C4">
-        <v>0.1840294754951445</v>
+        <v>0.07572858939447284</v>
       </c>
       <c r="D4">
-        <v>0.5869376741634227</v>
+        <v>0.1728005870064706</v>
       </c>
       <c r="E4">
-        <v>1.150640452582486</v>
+        <v>0.3286806387199075</v>
       </c>
       <c r="F4">
-        <v>0.2152958185488645</v>
+        <v>0.05687111609161079</v>
       </c>
       <c r="G4">
-        <v>0.007147202478436689</v>
+        <v>0.02631716986182796</v>
       </c>
       <c r="H4">
-        <v>0.2660713951214769</v>
+        <v>0.04810714177860369</v>
       </c>
       <c r="I4">
-        <v>0.2088751067174658</v>
+        <v>0.06062379513123379</v>
       </c>
       <c r="J4">
-        <v>0.2637329729143062</v>
+        <v>0.02694665914415563</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -502,31 +502,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.088634560928939</v>
+        <v>0.02456857696647773</v>
       </c>
       <c r="C5">
-        <v>0.2083061261039598</v>
+        <v>0.07673622196336062</v>
       </c>
       <c r="D5">
-        <v>0.5977682494760557</v>
+        <v>0.1703613370406578</v>
       </c>
       <c r="E5">
-        <v>1.143075964402154</v>
+        <v>0.3266481359348853</v>
       </c>
       <c r="F5">
-        <v>0.2085478735509382</v>
+        <v>0.0551232881493333</v>
       </c>
       <c r="G5">
-        <v>0.007148026877511104</v>
+        <v>0.02631744752988823</v>
       </c>
       <c r="H5">
-        <v>0.2635639320690886</v>
+        <v>0.0489514714181125</v>
       </c>
       <c r="I5">
-        <v>0.2011613001046918</v>
+        <v>0.05854520659599099</v>
       </c>
       <c r="J5">
-        <v>0.2591364487608195</v>
+        <v>0.02875598329775192</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -534,31 +534,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09208648359710619</v>
+        <v>0.02480416069338568</v>
       </c>
       <c r="C6">
-        <v>0.2167500571965187</v>
+        <v>0.07858572025094274</v>
       </c>
       <c r="D6">
-        <v>0.6003016410720982</v>
+        <v>0.1709690044556469</v>
       </c>
       <c r="E6">
-        <v>1.137487374840272</v>
+        <v>0.3251269035504705</v>
       </c>
       <c r="F6">
-        <v>0.2056058570367308</v>
+        <v>0.05436098684528399</v>
       </c>
       <c r="G6">
-        <v>0.007148451054963098</v>
+        <v>0.02631756394633487</v>
       </c>
       <c r="H6">
-        <v>0.2622743362376215</v>
+        <v>0.04930533273104668</v>
       </c>
       <c r="I6">
-        <v>0.195468654388216</v>
+        <v>0.05701351374056506</v>
       </c>
       <c r="J6">
-        <v>0.2567448189688482</v>
+        <v>0.02922663095813015</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -566,31 +566,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09208648359710619</v>
+        <v>0.03073494267917295</v>
       </c>
       <c r="C7">
-        <v>0.2167500571965187</v>
+        <v>0.09233583519779968</v>
       </c>
       <c r="D7">
-        <v>0.6003016410720982</v>
+        <v>0.1867668800946493</v>
       </c>
       <c r="E7">
-        <v>1.137487374840272</v>
+        <v>0.3251215614200511</v>
       </c>
       <c r="F7">
-        <v>0.2056058570367308</v>
+        <v>0.05436108408954962</v>
       </c>
       <c r="G7">
-        <v>0.007148451054963098</v>
+        <v>0.026317517551735</v>
       </c>
       <c r="H7">
-        <v>0.2622743362376215</v>
+        <v>0.04916429341716718</v>
       </c>
       <c r="I7">
-        <v>0.195468654388216</v>
+        <v>0.05701351374056583</v>
       </c>
       <c r="J7">
-        <v>0.2567448189688482</v>
+        <v>0.03019840622691315</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -598,31 +598,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09022229300813775</v>
+        <v>0.03319082467437726</v>
       </c>
       <c r="C8">
-        <v>0.2123535318682941</v>
+        <v>0.09597408252315069</v>
       </c>
       <c r="D8">
-        <v>0.5973365438421244</v>
+        <v>0.1912235097038258</v>
       </c>
       <c r="E8">
-        <v>1.136442058871971</v>
+        <v>0.3248235706367357</v>
       </c>
       <c r="F8">
-        <v>0.2063307752735777</v>
+        <v>0.05454972473951101</v>
       </c>
       <c r="G8">
-        <v>0.007148436850666838</v>
+        <v>0.02631747474503368</v>
       </c>
       <c r="H8">
-        <v>0.2623200524810719</v>
+        <v>0.04903345714202403</v>
       </c>
       <c r="I8">
-        <v>0.194407825461798</v>
+        <v>0.05672830845412419</v>
       </c>
       <c r="J8">
-        <v>0.256885550488286</v>
+        <v>0.03223079160565834</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -630,31 +630,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09051380346537016</v>
+        <v>0.0264965303356203</v>
       </c>
       <c r="C9">
-        <v>0.1619028615249483</v>
+        <v>0.08840524714791291</v>
       </c>
       <c r="D9">
-        <v>0.5675658088136332</v>
+        <v>0.1884129109164361</v>
       </c>
       <c r="E9">
-        <v>1.134805100903795</v>
+        <v>0.3242730900397624</v>
       </c>
       <c r="F9">
-        <v>0.2168173355540869</v>
+        <v>0.05726984162206547</v>
       </c>
       <c r="G9">
-        <v>0.007147591079763722</v>
+        <v>0.02631706669240235</v>
       </c>
       <c r="H9">
-        <v>0.2648913898532926</v>
+        <v>0.04779306693624821</v>
       </c>
       <c r="I9">
-        <v>0.1927765353954863</v>
+        <v>0.0562898783611315</v>
       </c>
       <c r="J9">
-        <v>0.261622082692071</v>
+        <v>0.03354349119090147</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -662,31 +662,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1921047816904505</v>
+        <v>0.03995698985630196</v>
       </c>
       <c r="C10">
-        <v>0.04659520757678177</v>
+        <v>0.05904220948339548</v>
       </c>
       <c r="D10">
-        <v>0.5032842372182631</v>
+        <v>0.1658843795828995</v>
       </c>
       <c r="E10">
-        <v>1.139980812592168</v>
+        <v>0.3254672155055917</v>
       </c>
       <c r="F10">
-        <v>0.2428591421129651</v>
+        <v>0.06398635345049303</v>
       </c>
       <c r="G10">
-        <v>0.007144187940705799</v>
+        <v>0.02631606611740528</v>
       </c>
       <c r="H10">
-        <v>0.2752374863347197</v>
+        <v>0.04475176292375944</v>
       </c>
       <c r="I10">
-        <v>0.1981256957906939</v>
+        <v>0.05772817998171039</v>
       </c>
       <c r="J10">
-        <v>0.2765843321225072</v>
+        <v>0.02648135536980604</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -694,31 +694,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3197146668046357</v>
+        <v>0.0829405370705361</v>
       </c>
       <c r="C11">
-        <v>0.07109551978376344</v>
+        <v>0.04317210931167365</v>
       </c>
       <c r="D11">
-        <v>0.4410736289854761</v>
+        <v>0.1388368225175758</v>
       </c>
       <c r="E11">
-        <v>1.143570937740073</v>
+        <v>0.3262253576438807</v>
       </c>
       <c r="F11">
-        <v>0.2678713340348098</v>
+        <v>0.07038497097328139</v>
       </c>
       <c r="G11">
-        <v>0.007139662611256327</v>
+        <v>0.02631506104408477</v>
       </c>
       <c r="H11">
-        <v>0.289001806760822</v>
+        <v>0.04169515116412279</v>
       </c>
       <c r="I11">
-        <v>0.2018601469471587</v>
+        <v>0.05873337873935966</v>
       </c>
       <c r="J11">
-        <v>0.2927330823388139</v>
+        <v>0.01815227592322571</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -726,31 +726,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3803321028281249</v>
+        <v>0.0991087437951336</v>
       </c>
       <c r="C12">
-        <v>0.1217034295276755</v>
+        <v>0.0454703042329198</v>
       </c>
       <c r="D12">
-        <v>0.4084484459954485</v>
+        <v>0.1301605875141102</v>
       </c>
       <c r="E12">
-        <v>1.141918122458789</v>
+        <v>0.3256506290410212</v>
       </c>
       <c r="F12">
-        <v>0.279794686496178</v>
+        <v>0.07341638064130768</v>
       </c>
       <c r="G12">
-        <v>0.007137154114416127</v>
+        <v>0.02631455851417541</v>
       </c>
       <c r="H12">
-        <v>0.2958388203751171</v>
+        <v>0.04042468654576024</v>
       </c>
       <c r="I12">
-        <v>0.200220603374042</v>
+        <v>0.0582919599589014</v>
       </c>
       <c r="J12">
-        <v>0.3005628947597386</v>
+        <v>0.01598169884716235</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -758,31 +758,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3975149561865657</v>
+        <v>0.103581953729678</v>
       </c>
       <c r="C13">
-        <v>0.1303587383554133</v>
+        <v>0.04621076000510743</v>
       </c>
       <c r="D13">
-        <v>0.3827277756885337</v>
+        <v>0.1233370739548124</v>
       </c>
       <c r="E13">
-        <v>1.140090616236944</v>
+        <v>0.3250518515592679</v>
       </c>
       <c r="F13">
-        <v>0.2890403932338443</v>
+        <v>0.07576275563386838</v>
       </c>
       <c r="G13">
-        <v>0.00713545529950798</v>
+        <v>0.02631416341624188</v>
       </c>
       <c r="H13">
-        <v>0.2980199358906649</v>
+        <v>0.04217480723796172</v>
       </c>
       <c r="I13">
-        <v>0.1983925647331067</v>
+        <v>0.05779998450094727</v>
       </c>
       <c r="J13">
-        <v>0.3064555396357527</v>
+        <v>0.01427213131142487</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -790,31 +790,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3779150855298699</v>
+        <v>0.09828275734984229</v>
       </c>
       <c r="C14">
-        <v>0.1087606416060044</v>
+        <v>0.04440923458829341</v>
       </c>
       <c r="D14">
-        <v>0.3760614111285185</v>
+        <v>0.1215364734027647</v>
       </c>
       <c r="E14">
-        <v>1.137498027912709</v>
+        <v>0.3243168437113658</v>
       </c>
       <c r="F14">
-        <v>0.2906458897652517</v>
+        <v>0.07617309185885532</v>
       </c>
       <c r="G14">
-        <v>0.007135465999384094</v>
+        <v>0.02631409485496401</v>
       </c>
       <c r="H14">
-        <v>0.2987805122313302</v>
+        <v>0.04614403776522878</v>
       </c>
       <c r="I14">
-        <v>0.1957622157117308</v>
+        <v>0.05709245099717305</v>
       </c>
       <c r="J14">
-        <v>0.3068903188376896</v>
+        <v>0.01397807358611772</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -822,31 +822,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3567680278826698</v>
+        <v>0.09266683984967901</v>
       </c>
       <c r="C15">
-        <v>0.08937561498686801</v>
+        <v>0.04342062152097199</v>
       </c>
       <c r="D15">
-        <v>0.3784122077525797</v>
+        <v>0.122094369750073</v>
       </c>
       <c r="E15">
-        <v>1.133661149489371</v>
+        <v>0.3232770050203363</v>
       </c>
       <c r="F15">
-        <v>0.2883002572875591</v>
+        <v>0.07558156087020478</v>
       </c>
       <c r="G15">
-        <v>0.007136153901236136</v>
+        <v>0.02631419631216331</v>
       </c>
       <c r="H15">
-        <v>0.2979917845436875</v>
+        <v>0.04839837716495977</v>
       </c>
       <c r="I15">
-        <v>0.1918557990537162</v>
+        <v>0.05604249725647667</v>
       </c>
       <c r="J15">
-        <v>0.3045460271897957</v>
+        <v>0.01442655130188171</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -854,31 +854,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3488996029039972</v>
+        <v>0.09045391887850908</v>
       </c>
       <c r="C16">
-        <v>0.08128804930620263</v>
+        <v>0.04317038526940423</v>
       </c>
       <c r="D16">
-        <v>0.3819807263227016</v>
+        <v>0.1230895770739566</v>
       </c>
       <c r="E16">
-        <v>1.137419184907291</v>
+        <v>0.3243179100560009</v>
       </c>
       <c r="F16">
-        <v>0.2883224769554886</v>
+        <v>0.07558721788400533</v>
       </c>
       <c r="G16">
-        <v>0.007136151406264199</v>
+        <v>0.02631419342961621</v>
       </c>
       <c r="H16">
-        <v>0.2985906216765174</v>
+        <v>0.04916309111809585</v>
       </c>
       <c r="I16">
-        <v>0.1956738137861299</v>
+        <v>0.05706867955092057</v>
       </c>
       <c r="J16">
-        <v>0.3050762539993411</v>
+        <v>0.01440951697118928</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -886,31 +886,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3417990623091169</v>
+        <v>0.08842314426991903</v>
       </c>
       <c r="C17">
-        <v>0.07387309515439706</v>
+        <v>0.04304356462069656</v>
       </c>
       <c r="D17">
-        <v>0.3863174116912869</v>
+        <v>0.1243051484185147</v>
       </c>
       <c r="E17">
-        <v>1.14229769903722</v>
+        <v>0.325668219143138</v>
       </c>
       <c r="F17">
-        <v>0.2884660860991557</v>
+        <v>0.07562329473731634</v>
       </c>
       <c r="G17">
-        <v>0.007136095401005098</v>
+        <v>0.02631418486221711</v>
       </c>
       <c r="H17">
-        <v>0.2992396713791387</v>
+        <v>0.04972974695711557</v>
       </c>
       <c r="I17">
-        <v>0.2006309080445968</v>
+        <v>0.05840241224911419</v>
       </c>
       <c r="J17">
-        <v>0.3058744442228326</v>
+        <v>0.01436622580686315</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -918,31 +918,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3049870983268566</v>
+        <v>0.07859052814968519</v>
       </c>
       <c r="C18">
-        <v>0.04376019637099582</v>
+        <v>0.04360809134277315</v>
       </c>
       <c r="D18">
-        <v>0.4054998074787127</v>
+        <v>0.1293625999299413</v>
       </c>
       <c r="E18">
-        <v>1.14185053555035</v>
+        <v>0.3256195506119802</v>
       </c>
       <c r="F18">
-        <v>0.2808944241919179</v>
+        <v>0.07370366765662298</v>
       </c>
       <c r="G18">
-        <v>0.007137660188404726</v>
+        <v>0.02631450637913846</v>
       </c>
       <c r="H18">
-        <v>0.2942614783753689</v>
+        <v>0.05005883312197001</v>
       </c>
       <c r="I18">
-        <v>0.2001522191454512</v>
+        <v>0.05827355220341381</v>
       </c>
       <c r="J18">
-        <v>0.3006139270167011</v>
+        <v>0.01576953475247862</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -950,31 +950,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2887170202833134</v>
+        <v>0.07423856478264189</v>
       </c>
       <c r="C19">
-        <v>0.03210620233011515</v>
+        <v>0.04430331935487205</v>
       </c>
       <c r="D19">
-        <v>0.4197886867432128</v>
+        <v>0.1331801061903943</v>
       </c>
       <c r="E19">
-        <v>1.144048218325694</v>
+        <v>0.3262748466438073</v>
       </c>
       <c r="F19">
-        <v>0.2762118318930486</v>
+        <v>0.0725130150174213</v>
       </c>
       <c r="G19">
-        <v>0.007138499047076671</v>
+        <v>0.02631470343550605</v>
       </c>
       <c r="H19">
-        <v>0.2904561912760948</v>
+        <v>0.04882200848657078</v>
       </c>
       <c r="I19">
-        <v>0.2023705197569689</v>
+        <v>0.05887082051479602</v>
       </c>
       <c r="J19">
-        <v>0.297864715120648</v>
+        <v>0.01662286060421072</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -982,31 +982,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3274313816481048</v>
+        <v>0.08481770164195759</v>
       </c>
       <c r="C20">
-        <v>0.07090671029021982</v>
+        <v>0.043110508007674</v>
       </c>
       <c r="D20">
-        <v>0.4192655736466873</v>
+        <v>0.1330421932454609</v>
       </c>
       <c r="E20">
-        <v>1.143618564822357</v>
+        <v>0.3261559965483951</v>
       </c>
       <c r="F20">
-        <v>0.2762569552284753</v>
+        <v>0.07252179172372392</v>
       </c>
       <c r="G20">
-        <v>0.007138244421478918</v>
+        <v>0.02631470615194003</v>
       </c>
       <c r="H20">
-        <v>0.2896706017494096</v>
+        <v>0.04356104875981315</v>
       </c>
       <c r="I20">
-        <v>0.2019352018892712</v>
+        <v>0.05875358982995313</v>
       </c>
       <c r="J20">
-        <v>0.2980652247025294</v>
+        <v>0.01662180173617273</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.425825288677754</v>
+        <v>0.1111172139400722</v>
       </c>
       <c r="C21">
-        <v>0.1597547333116663</v>
+        <v>0.05154972840376316</v>
       </c>
       <c r="D21">
-        <v>0.3898230719570778</v>
+        <v>0.1253062165984322</v>
       </c>
       <c r="E21">
-        <v>1.146045718935838</v>
+        <v>0.3267079395653278</v>
       </c>
       <c r="F21">
-        <v>0.2885275398514514</v>
+        <v>0.07562679019152091</v>
       </c>
       <c r="G21">
-        <v>0.007135025504571312</v>
+        <v>0.02631418263465747</v>
       </c>
       <c r="H21">
-        <v>0.3026174511751653</v>
+        <v>0.0391731703463965</v>
       </c>
       <c r="I21">
-        <v>0.204443681567211</v>
+        <v>0.05942927314575818</v>
       </c>
       <c r="J21">
-        <v>0.3074292079699993</v>
+        <v>0.01435096450059466</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4884954286003906</v>
+        <v>0.1276083585226166</v>
       </c>
       <c r="C22">
-        <v>0.2120515798159485</v>
+        <v>0.06238896809142695</v>
       </c>
       <c r="D22">
-        <v>0.3643775833863607</v>
+        <v>0.1187015274139156</v>
       </c>
       <c r="E22">
-        <v>1.151577979722563</v>
+        <v>0.3281213882635706</v>
       </c>
       <c r="F22">
-        <v>0.3004793886203635</v>
+        <v>0.07863968021302684</v>
       </c>
       <c r="G22">
-        <v>0.007131873839731551</v>
+        <v>0.02631366061003151</v>
       </c>
       <c r="H22">
-        <v>0.3126558654020301</v>
+        <v>0.03744612562406919</v>
       </c>
       <c r="I22">
-        <v>0.2101026045794573</v>
+        <v>0.0609548665598042</v>
       </c>
       <c r="J22">
-        <v>0.3171765506049416</v>
+        <v>0.01208786899712314</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5328512648782513</v>
+        <v>0.1391828393318206</v>
       </c>
       <c r="C23">
-        <v>0.2482655875382686</v>
+        <v>0.07043678979731138</v>
       </c>
       <c r="D23">
-        <v>0.3466216043032792</v>
+        <v>0.114146645305132</v>
       </c>
       <c r="E23">
-        <v>1.157559256286586</v>
+        <v>0.3296861303983449</v>
       </c>
       <c r="F23">
-        <v>0.3096608336066091</v>
+        <v>0.08094485126218429</v>
       </c>
       <c r="G23">
-        <v>0.007129319943871478</v>
+        <v>0.02631325371953004</v>
       </c>
       <c r="H23">
-        <v>0.3204277597197207</v>
+        <v>0.03620749194815712</v>
       </c>
       <c r="I23">
-        <v>0.2162065739262544</v>
+        <v>0.06260235172373035</v>
       </c>
       <c r="J23">
-        <v>0.325138868297276</v>
+        <v>0.01031947770738692</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5474933645431455</v>
+        <v>0.1429454857424432</v>
       </c>
       <c r="C24">
-        <v>0.2598325462924789</v>
+        <v>0.07303436587799916</v>
       </c>
       <c r="D24">
-        <v>0.3419480036746411</v>
+        <v>0.1129929621476027</v>
       </c>
       <c r="E24">
-        <v>1.161776743503445</v>
+        <v>0.3308203919087628</v>
       </c>
       <c r="F24">
-        <v>0.3130815587770856</v>
+        <v>0.08180156788500809</v>
       </c>
       <c r="G24">
-        <v>0.007128339617714072</v>
+        <v>0.02631310057734926</v>
       </c>
       <c r="H24">
-        <v>0.3234149321151464</v>
+        <v>0.03574020682224014</v>
       </c>
       <c r="I24">
-        <v>0.2205008683162254</v>
+        <v>0.06376250975505594</v>
       </c>
       <c r="J24">
-        <v>0.3284311882861853</v>
+        <v>0.009649093522931468</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4473040772317025</v>
+        <v>0.1163996170740625</v>
       </c>
       <c r="C25">
-        <v>0.1751665974230721</v>
+        <v>0.05436868607465137</v>
       </c>
       <c r="D25">
-        <v>0.3907641001539978</v>
+        <v>0.1258474725472538</v>
       </c>
       <c r="E25">
-        <v>1.16494078617554</v>
+        <v>0.3318787384074893</v>
       </c>
       <c r="F25">
-        <v>0.2952269658667213</v>
+        <v>0.07731650519855204</v>
       </c>
       <c r="G25">
-        <v>0.007133214733652158</v>
+        <v>0.02631388612666142</v>
       </c>
       <c r="H25">
-        <v>0.3085927413845636</v>
+        <v>0.03812769427496363</v>
       </c>
       <c r="I25">
-        <v>0.2236643829870655</v>
+        <v>0.06461772859928673</v>
       </c>
       <c r="J25">
-        <v>0.3151246870219502</v>
+        <v>0.01303546384517721</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -400,773 +400,1223 @@
       <c r="J1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03891287221836979</v>
+        <v>0.0558932333025058</v>
       </c>
       <c r="C2">
-        <v>0.06009487530547201</v>
+        <v>0.01984465090479828</v>
       </c>
       <c r="D2">
-        <v>0.168016881724305</v>
+        <v>0.02099829015633974</v>
       </c>
       <c r="E2">
-        <v>0.328467677382257</v>
+        <v>0.1477153903022063</v>
       </c>
       <c r="F2">
-        <v>0.06429032330864373</v>
+        <v>0.07183257587122152</v>
       </c>
       <c r="G2">
-        <v>0.02631601038559739</v>
+        <v>0.02033779767850583</v>
       </c>
       <c r="H2">
-        <v>0.04458374995360299</v>
+        <v>0.01866513561772543</v>
       </c>
       <c r="I2">
-        <v>0.06070610586828314</v>
+        <v>0.04622954124251572</v>
       </c>
       <c r="J2">
-        <v>0.02625403130643734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.02272026466039368</v>
+      </c>
+      <c r="K2">
+        <v>0.06318827918364045</v>
+      </c>
+      <c r="L2">
+        <v>0.07023969356819497</v>
+      </c>
+      <c r="M2">
+        <v>0.03270032536625208</v>
+      </c>
+      <c r="N2">
+        <v>0.112694187820909</v>
+      </c>
+      <c r="O2">
+        <v>0.01741121621903896</v>
+      </c>
+      <c r="P2">
+        <v>0.02540546848093136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02446363992367492</v>
+        <v>0.04470211034062436</v>
       </c>
       <c r="C3">
-        <v>0.0761761220668528</v>
+        <v>0.02101360612432987</v>
       </c>
       <c r="D3">
-        <v>0.180186745027481</v>
+        <v>0.02040971874119863</v>
       </c>
       <c r="E3">
-        <v>0.3293526162858437</v>
+        <v>0.146555286605004</v>
       </c>
       <c r="F3">
-        <v>0.06016572434712225</v>
+        <v>0.07447096201231</v>
       </c>
       <c r="G3">
-        <v>0.0263166356017718</v>
+        <v>0.0194182946282696</v>
       </c>
       <c r="H3">
-        <v>0.04648422760032089</v>
+        <v>0.02064772176809192</v>
       </c>
       <c r="I3">
-        <v>0.06142056634170726</v>
+        <v>0.04453327407678875</v>
       </c>
       <c r="J3">
-        <v>0.02878027086378428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0.01685340014697477</v>
+      </c>
+      <c r="K3">
+        <v>0.06303352620294222</v>
+      </c>
+      <c r="L3">
+        <v>0.07271094712927964</v>
+      </c>
+      <c r="M3">
+        <v>0.02751409588417346</v>
+      </c>
+      <c r="N3">
+        <v>0.1120352592687028</v>
+      </c>
+      <c r="O3">
+        <v>0.02004812120232323</v>
+      </c>
+      <c r="P3">
+        <v>0.02507854273716344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02451039661237094</v>
+        <v>0.04181514488700723</v>
       </c>
       <c r="C4">
-        <v>0.07572858939447284</v>
+        <v>0.02094233939223657</v>
       </c>
       <c r="D4">
-        <v>0.1728005870064706</v>
+        <v>0.02009061996319129</v>
       </c>
       <c r="E4">
-        <v>0.3286806387199075</v>
+        <v>0.1476622857064173</v>
       </c>
       <c r="F4">
-        <v>0.05687111609161079</v>
+        <v>0.07565172677252624</v>
       </c>
       <c r="G4">
-        <v>0.02631716986182796</v>
+        <v>0.0191410048410355</v>
       </c>
       <c r="H4">
-        <v>0.04810714177860369</v>
+        <v>0.02136378409991162</v>
       </c>
       <c r="I4">
-        <v>0.06062379513123379</v>
+        <v>0.04369133422707086</v>
       </c>
       <c r="J4">
-        <v>0.02694665914415563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.01041208027918679</v>
+      </c>
+      <c r="K4">
+        <v>0.06282445624081327</v>
+      </c>
+      <c r="L4">
+        <v>0.07297336162289557</v>
+      </c>
+      <c r="M4">
+        <v>0.02798773399119625</v>
+      </c>
+      <c r="N4">
+        <v>0.1106815373467551</v>
+      </c>
+      <c r="O4">
+        <v>0.02026519092910168</v>
+      </c>
+      <c r="P4">
+        <v>0.02525939843326597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02456857696647773</v>
+        <v>0.03982237369022345</v>
       </c>
       <c r="C5">
-        <v>0.07673622196336062</v>
+        <v>0.02102804910083453</v>
       </c>
       <c r="D5">
-        <v>0.1703613370406578</v>
+        <v>0.01994877631581672</v>
       </c>
       <c r="E5">
-        <v>0.3266481359348853</v>
+        <v>0.1472009774430706</v>
       </c>
       <c r="F5">
-        <v>0.0551232881493333</v>
+        <v>0.07570872337123463</v>
       </c>
       <c r="G5">
-        <v>0.02631744752988823</v>
+        <v>0.01910407158380661</v>
       </c>
       <c r="H5">
-        <v>0.0489514714181125</v>
+        <v>0.02183069240282124</v>
       </c>
       <c r="I5">
-        <v>0.05854520659599099</v>
+        <v>0.04431129154388484</v>
       </c>
       <c r="J5">
-        <v>0.02875598329775192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.0108543853382623</v>
+      </c>
+      <c r="K5">
+        <v>0.06271189804283185</v>
+      </c>
+      <c r="L5">
+        <v>0.07310298096877893</v>
+      </c>
+      <c r="M5">
+        <v>0.02780350559617275</v>
+      </c>
+      <c r="N5">
+        <v>0.1093860810932997</v>
+      </c>
+      <c r="O5">
+        <v>0.02055227184459309</v>
+      </c>
+      <c r="P5">
+        <v>0.02537284723098627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02480416069338568</v>
+        <v>0.03841068178244194</v>
       </c>
       <c r="C6">
-        <v>0.07858572025094274</v>
+        <v>0.02121315675570468</v>
       </c>
       <c r="D6">
-        <v>0.1709690044556469</v>
+        <v>0.01984363562400169</v>
       </c>
       <c r="E6">
-        <v>0.3251269035504705</v>
+        <v>0.1464268963109128</v>
       </c>
       <c r="F6">
-        <v>0.05436098684528399</v>
+        <v>0.07554609827369638</v>
       </c>
       <c r="G6">
-        <v>0.02631756394633487</v>
+        <v>0.01910039922310304</v>
       </c>
       <c r="H6">
-        <v>0.04930533273104668</v>
+        <v>0.0221384990530403</v>
       </c>
       <c r="I6">
-        <v>0.05701351374056506</v>
+        <v>0.04500844663305236</v>
       </c>
       <c r="J6">
-        <v>0.02922663095813015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.01086849189743067</v>
+      </c>
+      <c r="K6">
+        <v>0.06266717968062042</v>
+      </c>
+      <c r="L6">
+        <v>0.07326160789505755</v>
+      </c>
+      <c r="M6">
+        <v>0.02734175018588372</v>
+      </c>
+      <c r="N6">
+        <v>0.1086245427140454</v>
+      </c>
+      <c r="O6">
+        <v>0.02088010099799516</v>
+      </c>
+      <c r="P6">
+        <v>0.02532433006771247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03073494267917295</v>
+        <v>0.03321783928801698</v>
       </c>
       <c r="C7">
-        <v>0.09233583519779968</v>
+        <v>0.02274729748919171</v>
       </c>
       <c r="D7">
-        <v>0.1867668800946493</v>
+        <v>0.0203652635590097</v>
       </c>
       <c r="E7">
-        <v>0.3251215614200511</v>
+        <v>0.1439316709519297</v>
       </c>
       <c r="F7">
-        <v>0.05436108408954962</v>
+        <v>0.07595121642594888</v>
       </c>
       <c r="G7">
-        <v>0.026317517551735</v>
+        <v>0.01912927709540702</v>
       </c>
       <c r="H7">
-        <v>0.04916429341716718</v>
+        <v>0.02333949773293757</v>
       </c>
       <c r="I7">
-        <v>0.05701351374056583</v>
+        <v>0.04532225673972397</v>
       </c>
       <c r="J7">
-        <v>0.03019840622691315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.00912400842804177</v>
+      </c>
+      <c r="K7">
+        <v>0.06273834660702807</v>
+      </c>
+      <c r="L7">
+        <v>0.07478234073238853</v>
+      </c>
+      <c r="M7">
+        <v>0.02534730255374195</v>
+      </c>
+      <c r="N7">
+        <v>0.1089219768289388</v>
+      </c>
+      <c r="O7">
+        <v>0.02297080838023928</v>
+      </c>
+      <c r="P7">
+        <v>0.0259521006758969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03319082467437726</v>
+        <v>0.03208545648266618</v>
       </c>
       <c r="C8">
-        <v>0.09597408252315069</v>
+        <v>0.02317109962944521</v>
       </c>
       <c r="D8">
-        <v>0.1912235097038258</v>
+        <v>0.02081339951653719</v>
       </c>
       <c r="E8">
-        <v>0.3248235706367357</v>
+        <v>0.1430695373893463</v>
       </c>
       <c r="F8">
-        <v>0.05454972473951101</v>
+        <v>0.07586429172395259</v>
       </c>
       <c r="G8">
-        <v>0.02631747474503368</v>
+        <v>0.01912347655925214</v>
       </c>
       <c r="H8">
-        <v>0.04903345714202403</v>
+        <v>0.02366615630470555</v>
       </c>
       <c r="I8">
-        <v>0.05672830845412419</v>
+        <v>0.0456593672697794</v>
       </c>
       <c r="J8">
-        <v>0.03223079160565834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.01026641642086565</v>
+      </c>
+      <c r="K8">
+        <v>0.06276676619015102</v>
+      </c>
+      <c r="L8">
+        <v>0.07512650991160393</v>
+      </c>
+      <c r="M8">
+        <v>0.0252396993877811</v>
+      </c>
+      <c r="N8">
+        <v>0.1089544647245504</v>
+      </c>
+      <c r="O8">
+        <v>0.02352569566546528</v>
+      </c>
+      <c r="P8">
+        <v>0.02658287905183245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0264965303356203</v>
+        <v>0.03728089724205527</v>
       </c>
       <c r="C9">
-        <v>0.08840524714791291</v>
+        <v>0.02230549201275111</v>
       </c>
       <c r="D9">
-        <v>0.1884129109164361</v>
+        <v>0.02079409087637079</v>
       </c>
       <c r="E9">
-        <v>0.3242730900397624</v>
+        <v>0.1430222767873287</v>
       </c>
       <c r="F9">
-        <v>0.05726984162206547</v>
+        <v>0.07425245363954126</v>
       </c>
       <c r="G9">
-        <v>0.02631706669240235</v>
+        <v>0.01914856961747303</v>
       </c>
       <c r="H9">
-        <v>0.04779306693624821</v>
+        <v>0.02234702566861085</v>
       </c>
       <c r="I9">
-        <v>0.0562898783611315</v>
+        <v>0.04687167519751247</v>
       </c>
       <c r="J9">
-        <v>0.03354349119090147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0.01554975151567347</v>
+      </c>
+      <c r="K9">
+        <v>0.06289327919585042</v>
+      </c>
+      <c r="L9">
+        <v>0.07393643869374664</v>
+      </c>
+      <c r="M9">
+        <v>0.0254419161177471</v>
+      </c>
+      <c r="N9">
+        <v>0.1095014646034984</v>
+      </c>
+      <c r="O9">
+        <v>0.02211152436769586</v>
+      </c>
+      <c r="P9">
+        <v>0.02608801977946212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03995698985630196</v>
+        <v>0.05618790905903977</v>
       </c>
       <c r="C10">
-        <v>0.05904220948339548</v>
+        <v>0.01982859074397844</v>
       </c>
       <c r="D10">
-        <v>0.1658843795828995</v>
+        <v>0.02097355532553015</v>
       </c>
       <c r="E10">
-        <v>0.3254672155055917</v>
+        <v>0.1466173192908331</v>
       </c>
       <c r="F10">
-        <v>0.06398635345049303</v>
+        <v>0.07084068815684355</v>
       </c>
       <c r="G10">
-        <v>0.02631606611740528</v>
+        <v>0.02037287234564308</v>
       </c>
       <c r="H10">
-        <v>0.04475176292375944</v>
+        <v>0.01870267649740547</v>
       </c>
       <c r="I10">
-        <v>0.05772817998171039</v>
+        <v>0.04795049995431139</v>
       </c>
       <c r="J10">
-        <v>0.02648135536980604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.02278187496700828</v>
+      </c>
+      <c r="K10">
+        <v>0.06314669004160237</v>
+      </c>
+      <c r="L10">
+        <v>0.06987083104240673</v>
+      </c>
+      <c r="M10">
+        <v>0.03298442522453629</v>
+      </c>
+      <c r="N10">
+        <v>0.1114741433875728</v>
+      </c>
+      <c r="O10">
+        <v>0.01728654727648778</v>
+      </c>
+      <c r="P10">
+        <v>0.02545862466624266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0829405370705361</v>
+        <v>0.07685302452780658</v>
       </c>
       <c r="C11">
-        <v>0.04317210931167365</v>
+        <v>0.02039019262033341</v>
       </c>
       <c r="D11">
-        <v>0.1388368225175758</v>
+        <v>0.02502654769851189</v>
       </c>
       <c r="E11">
-        <v>0.3262253576438807</v>
+        <v>0.1507760336158492</v>
       </c>
       <c r="F11">
-        <v>0.07038497097328139</v>
+        <v>0.06735718842292844</v>
       </c>
       <c r="G11">
-        <v>0.02631506104408477</v>
+        <v>0.02286564827359281</v>
       </c>
       <c r="H11">
-        <v>0.04169515116412279</v>
+        <v>0.01769734442170897</v>
       </c>
       <c r="I11">
-        <v>0.05873337873935966</v>
+        <v>0.04907808480093899</v>
       </c>
       <c r="J11">
-        <v>0.01815227592322571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.0276591299174648</v>
+      </c>
+      <c r="K11">
+        <v>0.06335749997025662</v>
+      </c>
+      <c r="L11">
+        <v>0.06570755311209689</v>
+      </c>
+      <c r="M11">
+        <v>0.04824175783857524</v>
+      </c>
+      <c r="N11">
+        <v>0.1131046473897899</v>
+      </c>
+      <c r="O11">
+        <v>0.01479143348115816</v>
+      </c>
+      <c r="P11">
+        <v>0.03150970589500326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0991087437951336</v>
+        <v>0.08446112364094097</v>
       </c>
       <c r="C12">
-        <v>0.0454703042329198</v>
+        <v>0.02108309107820094</v>
       </c>
       <c r="D12">
-        <v>0.1301605875141102</v>
+        <v>0.02710471120941402</v>
       </c>
       <c r="E12">
-        <v>0.3256506290410212</v>
+        <v>0.1516063753936239</v>
       </c>
       <c r="F12">
-        <v>0.07341638064130768</v>
+        <v>0.06540655489756175</v>
       </c>
       <c r="G12">
-        <v>0.02631455851417541</v>
+        <v>0.02425018577743768</v>
       </c>
       <c r="H12">
-        <v>0.04042468654576024</v>
+        <v>0.01842132555472215</v>
       </c>
       <c r="I12">
-        <v>0.0582919599589014</v>
+        <v>0.0501979617344448</v>
       </c>
       <c r="J12">
-        <v>0.01598169884716235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.03194250795990863</v>
+      </c>
+      <c r="K12">
+        <v>0.06345465872745248</v>
+      </c>
+      <c r="L12">
+        <v>0.0641982105946311</v>
+      </c>
+      <c r="M12">
+        <v>0.05400114755230409</v>
+      </c>
+      <c r="N12">
+        <v>0.1135483013236541</v>
+      </c>
+      <c r="O12">
+        <v>0.01474935992801259</v>
+      </c>
+      <c r="P12">
+        <v>0.03427231409958981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.103581953729678</v>
+        <v>0.08562624023760698</v>
       </c>
       <c r="C13">
-        <v>0.04621076000510743</v>
+        <v>0.02136735811934989</v>
       </c>
       <c r="D13">
-        <v>0.1233370739548124</v>
+        <v>0.02963016194521371</v>
       </c>
       <c r="E13">
-        <v>0.3250518515592679</v>
+        <v>0.1519678314006774</v>
       </c>
       <c r="F13">
-        <v>0.07576275563386838</v>
+        <v>0.06333388868667267</v>
       </c>
       <c r="G13">
-        <v>0.02631416341624188</v>
+        <v>0.02435017750562454</v>
       </c>
       <c r="H13">
-        <v>0.04217480723796172</v>
+        <v>0.02259861813183052</v>
       </c>
       <c r="I13">
-        <v>0.05779998450094727</v>
+        <v>0.05074481176713091</v>
       </c>
       <c r="J13">
-        <v>0.01427213131142487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.03460168725440334</v>
+      </c>
+      <c r="K13">
+        <v>0.06343090102013982</v>
+      </c>
+      <c r="L13">
+        <v>0.06353198487107459</v>
+      </c>
+      <c r="M13">
+        <v>0.0560890133789724</v>
+      </c>
+      <c r="N13">
+        <v>0.1134385679979287</v>
+      </c>
+      <c r="O13">
+        <v>0.01429104823647946</v>
+      </c>
+      <c r="P13">
+        <v>0.03596065622825255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.09828275734984229</v>
+        <v>0.08218980865774089</v>
       </c>
       <c r="C14">
-        <v>0.04440923458829341</v>
+        <v>0.02114424992664878</v>
       </c>
       <c r="D14">
-        <v>0.1215364734027647</v>
+        <v>0.03078644428458997</v>
       </c>
       <c r="E14">
-        <v>0.3243168437113658</v>
+        <v>0.1516370772872116</v>
       </c>
       <c r="F14">
-        <v>0.07617309185885532</v>
+        <v>0.06231977621405126</v>
       </c>
       <c r="G14">
-        <v>0.02631409485496401</v>
+        <v>0.02361773724229196</v>
       </c>
       <c r="H14">
-        <v>0.04614403776522878</v>
+        <v>0.02655699271183799</v>
       </c>
       <c r="I14">
-        <v>0.05709245099717305</v>
+        <v>0.050887281312164</v>
       </c>
       <c r="J14">
-        <v>0.01397807358611772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>0.03459759593007049</v>
+      </c>
+      <c r="K14">
+        <v>0.06334164441946942</v>
+      </c>
+      <c r="L14">
+        <v>0.06371543393793293</v>
+      </c>
+      <c r="M14">
+        <v>0.05462427429933402</v>
+      </c>
+      <c r="N14">
+        <v>0.1128580222131709</v>
+      </c>
+      <c r="O14">
+        <v>0.01445280803434335</v>
+      </c>
+      <c r="P14">
+        <v>0.03582072640993126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09266683984967901</v>
+        <v>0.07906254869259395</v>
       </c>
       <c r="C15">
-        <v>0.04342062152097199</v>
+        <v>0.02090181501520655</v>
       </c>
       <c r="D15">
-        <v>0.122094369750073</v>
+        <v>0.03074033508739723</v>
       </c>
       <c r="E15">
-        <v>0.3232770050203363</v>
+        <v>0.1509952516440328</v>
       </c>
       <c r="F15">
-        <v>0.07558156087020478</v>
+        <v>0.06203825727728487</v>
       </c>
       <c r="G15">
-        <v>0.02631419631216331</v>
+        <v>0.0230511583007923</v>
       </c>
       <c r="H15">
-        <v>0.04839837716495977</v>
+        <v>0.02791171597042808</v>
       </c>
       <c r="I15">
-        <v>0.05604249725647667</v>
+        <v>0.05118495896214364</v>
       </c>
       <c r="J15">
-        <v>0.01442655130188171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>0.03363879470017773</v>
+      </c>
+      <c r="K15">
+        <v>0.06326928319780944</v>
+      </c>
+      <c r="L15">
+        <v>0.06403427695457585</v>
+      </c>
+      <c r="M15">
+        <v>0.05278110338231505</v>
+      </c>
+      <c r="N15">
+        <v>0.1121583499246571</v>
+      </c>
+      <c r="O15">
+        <v>0.0149573510692324</v>
+      </c>
+      <c r="P15">
+        <v>0.03512242457180367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.09045391887850908</v>
+        <v>0.07797731977690874</v>
       </c>
       <c r="C16">
-        <v>0.04317038526940423</v>
+        <v>0.02079091252180306</v>
       </c>
       <c r="D16">
-        <v>0.1230895770739566</v>
+        <v>0.03078039763920053</v>
       </c>
       <c r="E16">
-        <v>0.3243179100560009</v>
+        <v>0.1513073186746424</v>
       </c>
       <c r="F16">
-        <v>0.07558721788400533</v>
+        <v>0.06235116609904227</v>
       </c>
       <c r="G16">
-        <v>0.02631419342961621</v>
+        <v>0.02285070693073096</v>
       </c>
       <c r="H16">
-        <v>0.04916309111809585</v>
+        <v>0.02830981706631457</v>
       </c>
       <c r="I16">
-        <v>0.05706867955092057</v>
+        <v>0.05049846623110409</v>
       </c>
       <c r="J16">
-        <v>0.01440951697118928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.03337380481317173</v>
+      </c>
+      <c r="K16">
+        <v>0.06326560805099352</v>
+      </c>
+      <c r="L16">
+        <v>0.064271685311012</v>
+      </c>
+      <c r="M16">
+        <v>0.05207974491348887</v>
+      </c>
+      <c r="N16">
+        <v>0.1125009984680887</v>
+      </c>
+      <c r="O16">
+        <v>0.01520572330180696</v>
+      </c>
+      <c r="P16">
+        <v>0.03487034480133317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08842314426991903</v>
+        <v>0.07703975865606577</v>
       </c>
       <c r="C17">
-        <v>0.04304356462069656</v>
+        <v>0.02068684733768639</v>
       </c>
       <c r="D17">
-        <v>0.1243051484185147</v>
+        <v>0.03078842020063195</v>
       </c>
       <c r="E17">
-        <v>0.325668219143138</v>
+        <v>0.151740952548341</v>
       </c>
       <c r="F17">
-        <v>0.07562329473731634</v>
+        <v>0.06278437733752584</v>
       </c>
       <c r="G17">
-        <v>0.02631418486221711</v>
+        <v>0.0226804628917701</v>
       </c>
       <c r="H17">
-        <v>0.04972974695711557</v>
+        <v>0.02852812758859859</v>
       </c>
       <c r="I17">
-        <v>0.05840241224911419</v>
+        <v>0.0496498192635395</v>
       </c>
       <c r="J17">
-        <v>0.01436622580686315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.03313026606912901</v>
+      </c>
+      <c r="K17">
+        <v>0.06326989705582309</v>
+      </c>
+      <c r="L17">
+        <v>0.06452627827038993</v>
+      </c>
+      <c r="M17">
+        <v>0.0514334548178971</v>
+      </c>
+      <c r="N17">
+        <v>0.1129848659075147</v>
+      </c>
+      <c r="O17">
+        <v>0.01544413961231493</v>
+      </c>
+      <c r="P17">
+        <v>0.03462716937379914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07859052814968519</v>
+        <v>0.07235921694309198</v>
       </c>
       <c r="C18">
-        <v>0.04360809134277315</v>
+        <v>0.02030670659428178</v>
       </c>
       <c r="D18">
-        <v>0.1293625999299413</v>
+        <v>0.02927361518311913</v>
       </c>
       <c r="E18">
-        <v>0.3256195506119802</v>
+        <v>0.1510783091185984</v>
       </c>
       <c r="F18">
-        <v>0.07370366765662298</v>
+        <v>0.06384635430822602</v>
       </c>
       <c r="G18">
-        <v>0.02631450637913846</v>
+        <v>0.02197147663869306</v>
       </c>
       <c r="H18">
-        <v>0.05005883312197001</v>
+        <v>0.02701386417621523</v>
       </c>
       <c r="I18">
-        <v>0.05827355220341381</v>
+        <v>0.04918776496066843</v>
       </c>
       <c r="J18">
-        <v>0.01576953475247862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0.03048358159259261</v>
+      </c>
+      <c r="K18">
+        <v>0.06320459777230758</v>
+      </c>
+      <c r="L18">
+        <v>0.06541739664938448</v>
+      </c>
+      <c r="M18">
+        <v>0.04793714124765745</v>
+      </c>
+      <c r="N18">
+        <v>0.1125436314996582</v>
+      </c>
+      <c r="O18">
+        <v>0.01622695550918597</v>
+      </c>
+      <c r="P18">
+        <v>0.0328681367582178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.07423856478264189</v>
+        <v>0.07058977883942351</v>
       </c>
       <c r="C19">
-        <v>0.04430331935487205</v>
+        <v>0.02015522891980304</v>
       </c>
       <c r="D19">
-        <v>0.1331801061903943</v>
+        <v>0.02809948315166582</v>
       </c>
       <c r="E19">
-        <v>0.3262748466438073</v>
+        <v>0.1509601541135617</v>
       </c>
       <c r="F19">
-        <v>0.0725130150174213</v>
+        <v>0.0649182180146083</v>
       </c>
       <c r="G19">
-        <v>0.02631470343550605</v>
+        <v>0.02172836328511227</v>
       </c>
       <c r="H19">
-        <v>0.04882200848657078</v>
+        <v>0.02498083432888689</v>
       </c>
       <c r="I19">
-        <v>0.05887082051479602</v>
+        <v>0.04860742771704808</v>
       </c>
       <c r="J19">
-        <v>0.01662286060421072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.02894204539753884</v>
+      </c>
+      <c r="K19">
+        <v>0.06319894690236282</v>
+      </c>
+      <c r="L19">
+        <v>0.06594240553543244</v>
+      </c>
+      <c r="M19">
+        <v>0.04628807458951579</v>
+      </c>
+      <c r="N19">
+        <v>0.1126475081218631</v>
+      </c>
+      <c r="O19">
+        <v>0.01630203806663067</v>
+      </c>
+      <c r="P19">
+        <v>0.03191193830872506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.08481770164195759</v>
+        <v>0.07675288160089057</v>
       </c>
       <c r="C20">
-        <v>0.043110508007674</v>
+        <v>0.02048789067589958</v>
       </c>
       <c r="D20">
-        <v>0.1330421932454609</v>
+        <v>0.02720144083951385</v>
       </c>
       <c r="E20">
-        <v>0.3261559965483951</v>
+        <v>0.1512167520643541</v>
       </c>
       <c r="F20">
-        <v>0.07252179172372392</v>
+        <v>0.06552974907629384</v>
       </c>
       <c r="G20">
-        <v>0.02631470615194003</v>
+        <v>0.02274889128226981</v>
       </c>
       <c r="H20">
-        <v>0.04356104875981315</v>
+        <v>0.02087838307533136</v>
       </c>
       <c r="I20">
-        <v>0.05875358982995313</v>
+        <v>0.0492067389756705</v>
       </c>
       <c r="J20">
-        <v>0.01662180173617273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.02984189096386635</v>
+      </c>
+      <c r="K20">
+        <v>0.06332140775498568</v>
+      </c>
+      <c r="L20">
+        <v>0.06525972609265321</v>
+      </c>
+      <c r="M20">
+        <v>0.04942475940089489</v>
+      </c>
+      <c r="N20">
+        <v>0.113106913977892</v>
+      </c>
+      <c r="O20">
+        <v>0.01477156694264286</v>
+      </c>
+      <c r="P20">
+        <v>0.03269363689377482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1111172139400722</v>
+        <v>0.09037635160389071</v>
       </c>
       <c r="C21">
-        <v>0.05154972840376316</v>
+        <v>0.02170539540788041</v>
       </c>
       <c r="D21">
-        <v>0.1253062165984322</v>
+        <v>0.02850907304917289</v>
       </c>
       <c r="E21">
-        <v>0.3267079395653278</v>
+        <v>0.152742390636994</v>
       </c>
       <c r="F21">
-        <v>0.07562679019152091</v>
+        <v>0.06465231570677681</v>
       </c>
       <c r="G21">
-        <v>0.02631418263465747</v>
+        <v>0.02542549339169466</v>
       </c>
       <c r="H21">
-        <v>0.0391731703463965</v>
+        <v>0.01869096958792729</v>
       </c>
       <c r="I21">
-        <v>0.05942927314575818</v>
+        <v>0.05020191362589076</v>
       </c>
       <c r="J21">
-        <v>0.01435096450059466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.03498753261204056</v>
+      </c>
+      <c r="K21">
+        <v>0.06355892806656298</v>
+      </c>
+      <c r="L21">
+        <v>0.06326990902148989</v>
+      </c>
+      <c r="M21">
+        <v>0.05829667071884571</v>
+      </c>
+      <c r="N21">
+        <v>0.1145148083033042</v>
+      </c>
+      <c r="O21">
+        <v>0.0150995134627932</v>
+      </c>
+      <c r="P21">
+        <v>0.03636415963346766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1276083585226166</v>
+        <v>0.09846855077313568</v>
       </c>
       <c r="C22">
-        <v>0.06238896809142695</v>
+        <v>0.02271969001645614</v>
       </c>
       <c r="D22">
-        <v>0.1187015274139156</v>
+        <v>0.03052713488870478</v>
       </c>
       <c r="E22">
-        <v>0.3281213882635706</v>
+        <v>0.154280864095875</v>
       </c>
       <c r="F22">
-        <v>0.07863968021302684</v>
+        <v>0.06362067212222501</v>
       </c>
       <c r="G22">
-        <v>0.02631366061003151</v>
+        <v>0.02714898793318747</v>
       </c>
       <c r="H22">
-        <v>0.03744612562406919</v>
+        <v>0.01925079386588036</v>
       </c>
       <c r="I22">
-        <v>0.0609548665598042</v>
+        <v>0.050222636187899</v>
       </c>
       <c r="J22">
-        <v>0.01208786899712314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.03917154312762316</v>
+      </c>
+      <c r="K22">
+        <v>0.06370136247240124</v>
+      </c>
+      <c r="L22">
+        <v>0.06203761356470753</v>
+      </c>
+      <c r="M22">
+        <v>0.06427514528866753</v>
+      </c>
+      <c r="N22">
+        <v>0.1158251905279909</v>
+      </c>
+      <c r="O22">
+        <v>0.0160574380703482</v>
+      </c>
+      <c r="P22">
+        <v>0.03940277986058964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1391828393318206</v>
+        <v>0.1041373823709224</v>
       </c>
       <c r="C23">
-        <v>0.07043678979731138</v>
+        <v>0.0235214436132712</v>
       </c>
       <c r="D23">
-        <v>0.114146645305132</v>
+        <v>0.03215752727662982</v>
       </c>
       <c r="E23">
-        <v>0.3296861303983449</v>
+        <v>0.1556004518163766</v>
       </c>
       <c r="F23">
-        <v>0.08094485126218429</v>
+        <v>0.06298151595578111</v>
       </c>
       <c r="G23">
-        <v>0.02631325371953004</v>
+        <v>0.02840030747028407</v>
       </c>
       <c r="H23">
-        <v>0.03620749194815712</v>
+        <v>0.01998442460291379</v>
       </c>
       <c r="I23">
-        <v>0.06260235172373035</v>
+        <v>0.0499165428683679</v>
       </c>
       <c r="J23">
-        <v>0.01031947770738692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0.04225466392157727</v>
+      </c>
+      <c r="K23">
+        <v>0.06380855143480331</v>
+      </c>
+      <c r="L23">
+        <v>0.06122961470853401</v>
+      </c>
+      <c r="M23">
+        <v>0.06855738972542864</v>
+      </c>
+      <c r="N23">
+        <v>0.1169881874779098</v>
+      </c>
+      <c r="O23">
+        <v>0.01688986959572694</v>
+      </c>
+      <c r="P23">
+        <v>0.04170441408885604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1429454857424432</v>
+        <v>0.1060403267993553</v>
       </c>
       <c r="C24">
-        <v>0.07303436587799916</v>
+        <v>0.02378376129199962</v>
       </c>
       <c r="D24">
-        <v>0.1129929621476027</v>
+        <v>0.03273022978141834</v>
       </c>
       <c r="E24">
-        <v>0.3308203919087628</v>
+        <v>0.1562736651386055</v>
       </c>
       <c r="F24">
-        <v>0.08180156788500809</v>
+        <v>0.06295402177704441</v>
       </c>
       <c r="G24">
-        <v>0.02631310057734926</v>
+        <v>0.02881850086148795</v>
       </c>
       <c r="H24">
-        <v>0.03574020682224014</v>
+        <v>0.02020557802396544</v>
       </c>
       <c r="I24">
-        <v>0.06376250975505594</v>
+        <v>0.04947023157855454</v>
       </c>
       <c r="J24">
-        <v>0.009649093522931468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.04330922352998401</v>
+      </c>
+      <c r="K24">
+        <v>0.06385423669981979</v>
+      </c>
+      <c r="L24">
+        <v>0.06101502353821896</v>
+      </c>
+      <c r="M24">
+        <v>0.06996780537622063</v>
+      </c>
+      <c r="N24">
+        <v>0.1176349127227315</v>
+      </c>
+      <c r="O24">
+        <v>0.0171757555160044</v>
+      </c>
+      <c r="P24">
+        <v>0.04248172899551438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1163996170740625</v>
+        <v>0.0934865504030329</v>
       </c>
       <c r="C25">
-        <v>0.05436868607465137</v>
+        <v>0.02192252624397625</v>
       </c>
       <c r="D25">
-        <v>0.1258474725472538</v>
+        <v>0.02926278585951661</v>
       </c>
       <c r="E25">
-        <v>0.3318787384074893</v>
+        <v>0.1550633111458914</v>
       </c>
       <c r="F25">
-        <v>0.07731650519855204</v>
+        <v>0.06576141135068093</v>
       </c>
       <c r="G25">
-        <v>0.02631388612666142</v>
+        <v>0.02600740008541566</v>
       </c>
       <c r="H25">
-        <v>0.03812769427496363</v>
+        <v>0.01831262215096904</v>
       </c>
       <c r="I25">
-        <v>0.06461772859928673</v>
+        <v>0.04759788570374832</v>
       </c>
       <c r="J25">
-        <v>0.01303546384517721</v>
+        <v>0.0366287813958582</v>
+      </c>
+      <c r="K25">
+        <v>0.0636878638806585</v>
+      </c>
+      <c r="L25">
+        <v>0.06322719643236496</v>
+      </c>
+      <c r="M25">
+        <v>0.06025865577966839</v>
+      </c>
+      <c r="N25">
+        <v>0.1169546302662554</v>
+      </c>
+      <c r="O25">
+        <v>0.01527978518405567</v>
+      </c>
+      <c r="P25">
+        <v>0.03735690791431633</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_line/i_ka.xlsx
+++ b/group2 project/results/res_line/i_ka.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0558932333025058</v>
+        <v>0.01728019918878898</v>
       </c>
       <c r="C2">
-        <v>0.01984465090479828</v>
+        <v>0.04108286010486882</v>
       </c>
       <c r="D2">
-        <v>0.02099829015633974</v>
+        <v>0.02663191584787632</v>
       </c>
       <c r="E2">
-        <v>0.1477153903022063</v>
+        <v>0.2040399302780742</v>
       </c>
       <c r="F2">
-        <v>0.07183257587122152</v>
+        <v>0.1422687701643794</v>
       </c>
       <c r="G2">
-        <v>0.02033779767850583</v>
+        <v>0.02901019412659251</v>
       </c>
       <c r="H2">
-        <v>0.01866513561772543</v>
+        <v>0.04187132188042568</v>
       </c>
       <c r="I2">
-        <v>0.04622954124251572</v>
+        <v>0.05966408858965101</v>
       </c>
       <c r="J2">
-        <v>0.02272026466039368</v>
+        <v>0.02497174151638406</v>
       </c>
       <c r="K2">
-        <v>0.06318827918364045</v>
+        <v>0.06487046043496369</v>
       </c>
       <c r="L2">
-        <v>0.07023969356819497</v>
+        <v>0.1052627045352999</v>
       </c>
       <c r="M2">
-        <v>0.03270032536625208</v>
+        <v>0.04889540811444935</v>
       </c>
       <c r="N2">
-        <v>0.112694187820909</v>
+        <v>0.1790336971215542</v>
       </c>
       <c r="O2">
-        <v>0.01741121621903896</v>
+        <v>0.04579898445125886</v>
       </c>
       <c r="P2">
-        <v>0.02540546848093136</v>
+        <v>0.04026643107018009</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04470211034062436</v>
+        <v>0.02706566418807811</v>
       </c>
       <c r="C3">
-        <v>0.02101360612432987</v>
+        <v>0.04454816605804091</v>
       </c>
       <c r="D3">
-        <v>0.02040971874119863</v>
+        <v>0.02931867364086992</v>
       </c>
       <c r="E3">
-        <v>0.146555286605004</v>
+        <v>0.2035739922364296</v>
       </c>
       <c r="F3">
-        <v>0.07447096201231</v>
+        <v>0.1459726069978403</v>
       </c>
       <c r="G3">
-        <v>0.0194182946282696</v>
+        <v>0.03187421029369022</v>
       </c>
       <c r="H3">
-        <v>0.02064772176809192</v>
+        <v>0.04633599582098159</v>
       </c>
       <c r="I3">
-        <v>0.04453327407678875</v>
+        <v>0.06267288710176216</v>
       </c>
       <c r="J3">
-        <v>0.01685340014697477</v>
+        <v>0.02892834608604225</v>
       </c>
       <c r="K3">
-        <v>0.06303352620294222</v>
+        <v>0.06471797010785346</v>
       </c>
       <c r="L3">
-        <v>0.07271094712927964</v>
+        <v>0.1088019659222206</v>
       </c>
       <c r="M3">
-        <v>0.02751409588417346</v>
+        <v>0.05833184547477499</v>
       </c>
       <c r="N3">
-        <v>0.1120352592687028</v>
+        <v>0.1791241189046333</v>
       </c>
       <c r="O3">
-        <v>0.02004812120232323</v>
+        <v>0.0503252463843245</v>
       </c>
       <c r="P3">
-        <v>0.02507854273716344</v>
+        <v>0.04572018459232948</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04181514488700723</v>
+        <v>0.02927046743828421</v>
       </c>
       <c r="C4">
-        <v>0.02094233939223657</v>
+        <v>0.04408854960208507</v>
       </c>
       <c r="D4">
-        <v>0.02009061996319129</v>
+        <v>0.02726862489965735</v>
       </c>
       <c r="E4">
-        <v>0.1476622857064173</v>
+        <v>0.2038717504746599</v>
       </c>
       <c r="F4">
-        <v>0.07565172677252624</v>
+        <v>0.1461945003804532</v>
       </c>
       <c r="G4">
-        <v>0.0191410048410355</v>
+        <v>0.03344958501615278</v>
       </c>
       <c r="H4">
-        <v>0.02136378409991162</v>
+        <v>0.04605008203994919</v>
       </c>
       <c r="I4">
-        <v>0.04369133422707086</v>
+        <v>0.06206051814820335</v>
       </c>
       <c r="J4">
-        <v>0.01041208027918679</v>
+        <v>0.03928823367983133</v>
       </c>
       <c r="K4">
-        <v>0.06282445624081327</v>
+        <v>0.06446768024184539</v>
       </c>
       <c r="L4">
-        <v>0.07297336162289557</v>
+        <v>0.1085766554048897</v>
       </c>
       <c r="M4">
-        <v>0.02798773399119625</v>
+        <v>0.05677938108693088</v>
       </c>
       <c r="N4">
-        <v>0.1106815373467551</v>
+        <v>0.1767116099036242</v>
       </c>
       <c r="O4">
-        <v>0.02026519092910168</v>
+        <v>0.04992036320992593</v>
       </c>
       <c r="P4">
-        <v>0.02525939843326597</v>
+        <v>0.04257217912440751</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03982237369022345</v>
+        <v>0.02927078552533815</v>
       </c>
       <c r="C5">
-        <v>0.02102804910083453</v>
+        <v>0.04326966035445221</v>
       </c>
       <c r="D5">
-        <v>0.01994877631581672</v>
+        <v>0.02644139981207306</v>
       </c>
       <c r="E5">
-        <v>0.1472009774430706</v>
+        <v>0.2013188863064091</v>
       </c>
       <c r="F5">
-        <v>0.07570872337123463</v>
+        <v>0.1435985681309078</v>
       </c>
       <c r="G5">
-        <v>0.01910407158380661</v>
+        <v>0.03348635408938437</v>
       </c>
       <c r="H5">
-        <v>0.02183069240282124</v>
+        <v>0.04523951391490893</v>
       </c>
       <c r="I5">
-        <v>0.04431129154388484</v>
+        <v>0.05763223324961309</v>
       </c>
       <c r="J5">
-        <v>0.0108543853382623</v>
+        <v>0.04216905838873757</v>
       </c>
       <c r="K5">
-        <v>0.06271189804283185</v>
+        <v>0.06428566654728092</v>
       </c>
       <c r="L5">
-        <v>0.07310298096877893</v>
+        <v>0.107315804985067</v>
       </c>
       <c r="M5">
-        <v>0.02780350559617275</v>
+        <v>0.05520933158116169</v>
       </c>
       <c r="N5">
-        <v>0.1093860810932997</v>
+        <v>0.1728616988794241</v>
       </c>
       <c r="O5">
-        <v>0.02055227184459309</v>
+        <v>0.04900145445706485</v>
       </c>
       <c r="P5">
-        <v>0.02537284723098627</v>
+        <v>0.04107507830522393</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03841068178244194</v>
+        <v>0.02917250000489692</v>
       </c>
       <c r="C6">
-        <v>0.02121315675570468</v>
+        <v>0.04286314654456244</v>
       </c>
       <c r="D6">
-        <v>0.01984363562400169</v>
+        <v>0.02642439211766274</v>
       </c>
       <c r="E6">
-        <v>0.1464268963109128</v>
+        <v>0.1990025729206224</v>
       </c>
       <c r="F6">
-        <v>0.07554609827369638</v>
+        <v>0.1414688481140231</v>
       </c>
       <c r="G6">
-        <v>0.01910039922310304</v>
+        <v>0.03320395283676315</v>
       </c>
       <c r="H6">
-        <v>0.0221384990530403</v>
+        <v>0.04483812383278594</v>
       </c>
       <c r="I6">
-        <v>0.04500844663305236</v>
+        <v>0.05412647359266699</v>
       </c>
       <c r="J6">
-        <v>0.01086849189743067</v>
+        <v>0.04177472361067865</v>
       </c>
       <c r="K6">
-        <v>0.06266717968062042</v>
+        <v>0.06419297613096757</v>
       </c>
       <c r="L6">
-        <v>0.07326160789505755</v>
+        <v>0.1064640214086525</v>
       </c>
       <c r="M6">
-        <v>0.02734175018588372</v>
+        <v>0.05475885457671051</v>
       </c>
       <c r="N6">
-        <v>0.1086245427140454</v>
+        <v>0.170233597620749</v>
       </c>
       <c r="O6">
-        <v>0.02088010099799516</v>
+        <v>0.04854166186368136</v>
       </c>
       <c r="P6">
-        <v>0.02532433006771247</v>
+        <v>0.04092221026858247</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03321783928801698</v>
+        <v>0.03420083545513718</v>
       </c>
       <c r="C7">
-        <v>0.02274729748919171</v>
+        <v>0.04525421152427834</v>
       </c>
       <c r="D7">
-        <v>0.0203652635590097</v>
+        <v>0.03036876474450494</v>
       </c>
       <c r="E7">
-        <v>0.1439316709519297</v>
+        <v>0.1965002607120868</v>
       </c>
       <c r="F7">
-        <v>0.07595121642594888</v>
+        <v>0.1419039673060905</v>
       </c>
       <c r="G7">
-        <v>0.01912927709540702</v>
+        <v>0.03338036625764278</v>
       </c>
       <c r="H7">
-        <v>0.02333949773293757</v>
+        <v>0.04764475993812051</v>
       </c>
       <c r="I7">
-        <v>0.04532225673972397</v>
+        <v>0.05381156488260578</v>
       </c>
       <c r="J7">
-        <v>0.00912400842804177</v>
+        <v>0.03398597635142396</v>
       </c>
       <c r="K7">
-        <v>0.06273834660702807</v>
+        <v>0.06426654580913675</v>
       </c>
       <c r="L7">
-        <v>0.07478234073238853</v>
+        <v>0.1082878261690493</v>
       </c>
       <c r="M7">
-        <v>0.02534730255374195</v>
+        <v>0.06218100819307815</v>
       </c>
       <c r="N7">
-        <v>0.1089219768289388</v>
+        <v>0.170540570368184</v>
       </c>
       <c r="O7">
-        <v>0.02297080838023928</v>
+        <v>0.05149621707453713</v>
       </c>
       <c r="P7">
-        <v>0.0259521006758969</v>
+        <v>0.04749202127573039</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03208545648266618</v>
+        <v>0.03503562287535732</v>
       </c>
       <c r="C8">
-        <v>0.02317109962944521</v>
+        <v>0.04573112966826835</v>
       </c>
       <c r="D8">
-        <v>0.02081339951653719</v>
+        <v>0.03154888285799812</v>
       </c>
       <c r="E8">
-        <v>0.1430695373893463</v>
+        <v>0.1953500854057682</v>
       </c>
       <c r="F8">
-        <v>0.07586429172395259</v>
+        <v>0.1414499893812251</v>
       </c>
       <c r="G8">
-        <v>0.01912347655925214</v>
+        <v>0.0331629645228464</v>
       </c>
       <c r="H8">
-        <v>0.02366615630470555</v>
+        <v>0.04819635331215102</v>
       </c>
       <c r="I8">
-        <v>0.0456593672697794</v>
+        <v>0.05295096370625219</v>
       </c>
       <c r="J8">
-        <v>0.01026641642086565</v>
+        <v>0.03096495970444154</v>
       </c>
       <c r="K8">
-        <v>0.06276676619015102</v>
+        <v>0.06428827240270241</v>
       </c>
       <c r="L8">
-        <v>0.07512650991160393</v>
+        <v>0.1085023294055827</v>
       </c>
       <c r="M8">
-        <v>0.0252396993877811</v>
+        <v>0.0638945279879013</v>
       </c>
       <c r="N8">
-        <v>0.1089544647245504</v>
+        <v>0.1702378111500389</v>
       </c>
       <c r="O8">
-        <v>0.02352569566546528</v>
+        <v>0.05207468850146973</v>
       </c>
       <c r="P8">
-        <v>0.02658287905183245</v>
+        <v>0.0493198890386924</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03728089724205527</v>
+        <v>0.02918004428261633</v>
       </c>
       <c r="C9">
-        <v>0.02230549201275111</v>
+        <v>0.04422002289032995</v>
       </c>
       <c r="D9">
-        <v>0.02079409087637079</v>
+        <v>0.03087305445125378</v>
       </c>
       <c r="E9">
-        <v>0.1430222767873287</v>
+        <v>0.1948741641335746</v>
       </c>
       <c r="F9">
-        <v>0.07425245363954126</v>
+        <v>0.1391898429260407</v>
       </c>
       <c r="G9">
-        <v>0.01914856961747303</v>
+        <v>0.03121388024540306</v>
       </c>
       <c r="H9">
-        <v>0.02234702566861085</v>
+        <v>0.04620879085490248</v>
       </c>
       <c r="I9">
-        <v>0.04687167519751247</v>
+        <v>0.05093364751046234</v>
       </c>
       <c r="J9">
-        <v>0.01554975151567347</v>
+        <v>0.0252401629389097</v>
       </c>
       <c r="K9">
-        <v>0.06289327919585042</v>
+        <v>0.0644144603828319</v>
       </c>
       <c r="L9">
-        <v>0.07393643869374664</v>
+        <v>0.1067839685449097</v>
       </c>
       <c r="M9">
-        <v>0.0254419161177471</v>
+        <v>0.05996912322566553</v>
       </c>
       <c r="N9">
-        <v>0.1095014646034984</v>
+        <v>0.1703342298345809</v>
       </c>
       <c r="O9">
-        <v>0.02211152436769586</v>
+        <v>0.050076571858532</v>
       </c>
       <c r="P9">
-        <v>0.02608801977946212</v>
+        <v>0.04782615744551233</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05618790905903977</v>
+        <v>0.01543038715544234</v>
       </c>
       <c r="C10">
-        <v>0.01982859074397844</v>
+        <v>0.03944449315386472</v>
       </c>
       <c r="D10">
-        <v>0.02097355532553015</v>
+        <v>0.02594510986308027</v>
       </c>
       <c r="E10">
-        <v>0.1466173192908331</v>
+        <v>0.1999518036829576</v>
       </c>
       <c r="F10">
-        <v>0.07084068815684355</v>
+        <v>0.1374109920883174</v>
       </c>
       <c r="G10">
-        <v>0.02037287234564308</v>
+        <v>0.02782334706527724</v>
       </c>
       <c r="H10">
-        <v>0.01870267649740547</v>
+        <v>0.03995757600061575</v>
       </c>
       <c r="I10">
-        <v>0.04795049995431139</v>
+        <v>0.05248933475414333</v>
       </c>
       <c r="J10">
-        <v>0.02278187496700828</v>
+        <v>0.02312229632338094</v>
       </c>
       <c r="K10">
-        <v>0.06314669004160237</v>
+        <v>0.06473857986679969</v>
       </c>
       <c r="L10">
-        <v>0.06987083104240673</v>
+        <v>0.1027908497473115</v>
       </c>
       <c r="M10">
-        <v>0.03298442522453629</v>
+        <v>0.04569569785792889</v>
       </c>
       <c r="N10">
-        <v>0.1114741433875728</v>
+        <v>0.1742172544154623</v>
       </c>
       <c r="O10">
-        <v>0.01728654727648778</v>
+        <v>0.04376811899482615</v>
       </c>
       <c r="P10">
-        <v>0.02545862466624266</v>
+        <v>0.03860766370853726</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07685302452780658</v>
+        <v>0.01891260128160806</v>
       </c>
       <c r="C11">
-        <v>0.02039019262033341</v>
+        <v>0.0340833364778124</v>
       </c>
       <c r="D11">
-        <v>0.02502654769851189</v>
+        <v>0.02226068153554273</v>
       </c>
       <c r="E11">
-        <v>0.1507760336158492</v>
+        <v>0.2051551219432559</v>
       </c>
       <c r="F11">
-        <v>0.06735718842292844</v>
+        <v>0.1349732122949543</v>
       </c>
       <c r="G11">
-        <v>0.02286564827359281</v>
+        <v>0.02493478667470831</v>
       </c>
       <c r="H11">
-        <v>0.01769734442170897</v>
+        <v>0.03284690891192452</v>
       </c>
       <c r="I11">
-        <v>0.04907808480093899</v>
+        <v>0.05320174726644022</v>
       </c>
       <c r="J11">
-        <v>0.0276591299174648</v>
+        <v>0.02438173661584608</v>
       </c>
       <c r="K11">
-        <v>0.06335749997025662</v>
+        <v>0.06500573777743779</v>
       </c>
       <c r="L11">
-        <v>0.06570755311209689</v>
+        <v>0.09811651081388348</v>
       </c>
       <c r="M11">
-        <v>0.04824175783857524</v>
+        <v>0.03151547245551606</v>
       </c>
       <c r="N11">
-        <v>0.1131046473897899</v>
+        <v>0.1772187785902841</v>
       </c>
       <c r="O11">
-        <v>0.01479143348115816</v>
+        <v>0.03656708476803387</v>
       </c>
       <c r="P11">
-        <v>0.03150970589500326</v>
+        <v>0.0292853466720508</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08446112364094097</v>
+        <v>0.02531536613881131</v>
       </c>
       <c r="C12">
-        <v>0.02108309107820094</v>
+        <v>0.03195399879016236</v>
       </c>
       <c r="D12">
-        <v>0.02710471120941402</v>
+        <v>0.02192489719801573</v>
       </c>
       <c r="E12">
-        <v>0.1516063753936239</v>
+        <v>0.2055560872856227</v>
       </c>
       <c r="F12">
-        <v>0.06540655489756175</v>
+        <v>0.1323125779614115</v>
       </c>
       <c r="G12">
-        <v>0.02425018577743768</v>
+        <v>0.02371815688340641</v>
       </c>
       <c r="H12">
-        <v>0.01842132555472215</v>
+        <v>0.02906021332221494</v>
       </c>
       <c r="I12">
-        <v>0.0501979617344448</v>
+        <v>0.0512742761493413</v>
       </c>
       <c r="J12">
-        <v>0.03194250795990863</v>
+        <v>0.02368687750107593</v>
       </c>
       <c r="K12">
-        <v>0.06345465872745248</v>
+        <v>0.06510180272306451</v>
       </c>
       <c r="L12">
-        <v>0.0641982105946311</v>
+        <v>0.09580184211813725</v>
       </c>
       <c r="M12">
-        <v>0.05400114755230409</v>
+        <v>0.02754154894411683</v>
       </c>
       <c r="N12">
-        <v>0.1135483013236541</v>
+        <v>0.1772033930716284</v>
       </c>
       <c r="O12">
-        <v>0.01474935992801259</v>
+        <v>0.03400622712956278</v>
       </c>
       <c r="P12">
-        <v>0.03427231409958981</v>
+        <v>0.0269830903995392</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08562624023760698</v>
+        <v>0.02672362254258027</v>
       </c>
       <c r="C13">
-        <v>0.02136735811934989</v>
+        <v>0.03108100301922525</v>
       </c>
       <c r="D13">
-        <v>0.02963016194521371</v>
+        <v>0.02206268918180581</v>
       </c>
       <c r="E13">
-        <v>0.1519678314006774</v>
+        <v>0.205433108676415</v>
       </c>
       <c r="F13">
-        <v>0.06333388868667267</v>
+        <v>0.1294323542427941</v>
       </c>
       <c r="G13">
-        <v>0.02435017750562454</v>
+        <v>0.02377666978683212</v>
       </c>
       <c r="H13">
-        <v>0.02259861813183052</v>
+        <v>0.0224480892173363</v>
       </c>
       <c r="I13">
-        <v>0.05074481176713091</v>
+        <v>0.04982836560894482</v>
       </c>
       <c r="J13">
-        <v>0.03460168725440334</v>
+        <v>0.02405926229571418</v>
       </c>
       <c r="K13">
-        <v>0.06343090102013982</v>
+        <v>0.06506857556750489</v>
       </c>
       <c r="L13">
-        <v>0.06353198487107459</v>
+        <v>0.09456976602602933</v>
       </c>
       <c r="M13">
-        <v>0.0560890133789724</v>
+        <v>0.02626319527997711</v>
       </c>
       <c r="N13">
-        <v>0.1134385679979287</v>
+        <v>0.1765450850359082</v>
       </c>
       <c r="O13">
-        <v>0.01429104823647946</v>
+        <v>0.03539795742020137</v>
       </c>
       <c r="P13">
-        <v>0.03596065622825255</v>
+        <v>0.02587516719332712</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08218980865774089</v>
+        <v>0.02437342713648723</v>
       </c>
       <c r="C14">
-        <v>0.02114424992664878</v>
+        <v>0.03123692379446149</v>
       </c>
       <c r="D14">
-        <v>0.03078644428458997</v>
+        <v>0.0222908281640821</v>
       </c>
       <c r="E14">
-        <v>0.1516370772872116</v>
+        <v>0.2043921447202557</v>
       </c>
       <c r="F14">
-        <v>0.06231977621405126</v>
+        <v>0.1274141535289661</v>
       </c>
       <c r="G14">
-        <v>0.02361773724229196</v>
+        <v>0.02437417912849116</v>
       </c>
       <c r="H14">
-        <v>0.02655699271183799</v>
+        <v>0.01855176896763303</v>
       </c>
       <c r="I14">
-        <v>0.050887281312164</v>
+        <v>0.04839194369557273</v>
       </c>
       <c r="J14">
-        <v>0.03459759593007049</v>
+        <v>0.02421253322202486</v>
       </c>
       <c r="K14">
-        <v>0.06334164441946942</v>
+        <v>0.06495550401237153</v>
       </c>
       <c r="L14">
-        <v>0.06371543393793293</v>
+        <v>0.09435847296864809</v>
       </c>
       <c r="M14">
-        <v>0.05462427429933402</v>
+        <v>0.02656608748906646</v>
       </c>
       <c r="N14">
-        <v>0.1128580222131709</v>
+        <v>0.1751094759214752</v>
       </c>
       <c r="O14">
-        <v>0.01445280803434335</v>
+        <v>0.03802880942457432</v>
       </c>
       <c r="P14">
-        <v>0.03582072640993126</v>
+        <v>0.02577140807005689</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07906254869259395</v>
+        <v>0.02273965625345718</v>
       </c>
       <c r="C15">
-        <v>0.02090181501520655</v>
+        <v>0.03134808058320799</v>
       </c>
       <c r="D15">
-        <v>0.03074033508739723</v>
+        <v>0.02227826038758572</v>
       </c>
       <c r="E15">
-        <v>0.1509952516440328</v>
+        <v>0.2026908246920548</v>
       </c>
       <c r="F15">
-        <v>0.06203825727728487</v>
+        <v>0.1257573098826782</v>
       </c>
       <c r="G15">
-        <v>0.0230511583007923</v>
+        <v>0.02465881418673225</v>
       </c>
       <c r="H15">
-        <v>0.02791171597042808</v>
+        <v>0.0174776941582202</v>
       </c>
       <c r="I15">
-        <v>0.05118495896214364</v>
+        <v>0.04617327468281708</v>
       </c>
       <c r="J15">
-        <v>0.03363879470017773</v>
+        <v>0.02390631709817534</v>
       </c>
       <c r="K15">
-        <v>0.06326928319780944</v>
+        <v>0.06484700739553292</v>
       </c>
       <c r="L15">
-        <v>0.06403427695457585</v>
+        <v>0.09410517723998944</v>
       </c>
       <c r="M15">
-        <v>0.05278110338231505</v>
+        <v>0.02695270398496942</v>
       </c>
       <c r="N15">
-        <v>0.1121583499246571</v>
+        <v>0.1731226480042868</v>
       </c>
       <c r="O15">
-        <v>0.0149573510692324</v>
+        <v>0.03920391130798632</v>
       </c>
       <c r="P15">
-        <v>0.03512242457180367</v>
+        <v>0.02589082740869446</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07797731977690874</v>
+        <v>0.02086862990384215</v>
       </c>
       <c r="C16">
-        <v>0.02079091252180306</v>
+        <v>0.03205501216847646</v>
       </c>
       <c r="D16">
-        <v>0.03078039763920053</v>
+        <v>0.02223312049432825</v>
       </c>
       <c r="E16">
-        <v>0.1513073186746424</v>
+        <v>0.2040355705814393</v>
       </c>
       <c r="F16">
-        <v>0.06235116609904227</v>
+        <v>0.1274107013927306</v>
       </c>
       <c r="G16">
-        <v>0.02285070693073096</v>
+        <v>0.02518672837689149</v>
       </c>
       <c r="H16">
-        <v>0.02830981706631457</v>
+        <v>0.01754567871378043</v>
       </c>
       <c r="I16">
-        <v>0.05049846623110409</v>
+        <v>0.04873708552133903</v>
       </c>
       <c r="J16">
-        <v>0.03337380481317173</v>
+        <v>0.0243025196461729</v>
       </c>
       <c r="K16">
-        <v>0.06326560805099352</v>
+        <v>0.06487420886460475</v>
       </c>
       <c r="L16">
-        <v>0.064271685311012</v>
+        <v>0.09509905810583134</v>
       </c>
       <c r="M16">
-        <v>0.05207974491348887</v>
+        <v>0.02782711790372212</v>
       </c>
       <c r="N16">
-        <v>0.1125009984680887</v>
+        <v>0.1747036413924086</v>
       </c>
       <c r="O16">
-        <v>0.01520572330180696</v>
+        <v>0.04052778068961851</v>
       </c>
       <c r="P16">
-        <v>0.03487034480133317</v>
+        <v>0.02624251245008956</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.07703975865606577</v>
+        <v>0.01892997016906605</v>
       </c>
       <c r="C17">
-        <v>0.02068684733768639</v>
+        <v>0.03289583295585367</v>
       </c>
       <c r="D17">
-        <v>0.03078842020063195</v>
+        <v>0.02217569727596429</v>
       </c>
       <c r="E17">
-        <v>0.151740952548341</v>
+        <v>0.2058101522192788</v>
       </c>
       <c r="F17">
-        <v>0.06278437733752584</v>
+        <v>0.1295870028092697</v>
       </c>
       <c r="G17">
-        <v>0.0226804628917701</v>
+        <v>0.02579801816448147</v>
       </c>
       <c r="H17">
-        <v>0.02852812758859859</v>
+        <v>0.0178188573490633</v>
       </c>
       <c r="I17">
-        <v>0.0496498192635395</v>
+        <v>0.05202633203487355</v>
       </c>
       <c r="J17">
-        <v>0.03313026606912901</v>
+        <v>0.0248405439329826</v>
       </c>
       <c r="K17">
-        <v>0.06326989705582309</v>
+        <v>0.06491899379115694</v>
       </c>
       <c r="L17">
-        <v>0.06452627827038993</v>
+        <v>0.09632017188598437</v>
       </c>
       <c r="M17">
-        <v>0.0514334548178971</v>
+        <v>0.02895738950866638</v>
       </c>
       <c r="N17">
-        <v>0.1129848659075147</v>
+        <v>0.1767974831620071</v>
       </c>
       <c r="O17">
-        <v>0.01544413961231493</v>
+        <v>0.0419317748711321</v>
       </c>
       <c r="P17">
-        <v>0.03462716937379914</v>
+        <v>0.02670254013218927</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07235921694309198</v>
+        <v>0.01593002561156844</v>
       </c>
       <c r="C18">
-        <v>0.02030670659428178</v>
+        <v>0.03401505423124902</v>
       </c>
       <c r="D18">
-        <v>0.02927361518311913</v>
+        <v>0.0218073154762078</v>
       </c>
       <c r="E18">
-        <v>0.1510783091185984</v>
+        <v>0.2050093183330013</v>
       </c>
       <c r="F18">
-        <v>0.06384635430822602</v>
+        <v>0.1305729930516123</v>
       </c>
       <c r="G18">
-        <v>0.02197147663869306</v>
+        <v>0.02653508739832088</v>
       </c>
       <c r="H18">
-        <v>0.02701386417621523</v>
+        <v>0.01945829865442648</v>
       </c>
       <c r="I18">
-        <v>0.04918776496066843</v>
+        <v>0.05225245917048765</v>
       </c>
       <c r="J18">
-        <v>0.03048358159259261</v>
+        <v>0.02484841059396482</v>
       </c>
       <c r="K18">
-        <v>0.06320459777230758</v>
+        <v>0.06484192182228669</v>
       </c>
       <c r="L18">
-        <v>0.06541739664938448</v>
+        <v>0.09742856159286736</v>
       </c>
       <c r="M18">
-        <v>0.04793714124765745</v>
+        <v>0.03128362236349702</v>
       </c>
       <c r="N18">
-        <v>0.1125436314996582</v>
+        <v>0.1761542356413963</v>
       </c>
       <c r="O18">
-        <v>0.01622695550918597</v>
+        <v>0.04329940374594423</v>
       </c>
       <c r="P18">
-        <v>0.0328681367582178</v>
+        <v>0.02788801170246176</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.07058977883942351</v>
+        <v>0.01468747658181091</v>
       </c>
       <c r="C19">
-        <v>0.02015522891980304</v>
+        <v>0.03487261951858738</v>
       </c>
       <c r="D19">
-        <v>0.02809948315166582</v>
+        <v>0.0216892927468231</v>
       </c>
       <c r="E19">
-        <v>0.1509601541135617</v>
+        <v>0.205485795331333</v>
       </c>
       <c r="F19">
-        <v>0.0649182180146083</v>
+        <v>0.1324982972138499</v>
       </c>
       <c r="G19">
-        <v>0.02172836328511227</v>
+        <v>0.02693973104476134</v>
       </c>
       <c r="H19">
-        <v>0.02498083432888689</v>
+        <v>0.02178590321530814</v>
       </c>
       <c r="I19">
-        <v>0.04860742771704808</v>
+        <v>0.05392593676675302</v>
       </c>
       <c r="J19">
-        <v>0.02894204539753884</v>
+        <v>0.02520506145421003</v>
       </c>
       <c r="K19">
-        <v>0.06319894690236282</v>
+        <v>0.06485065184902719</v>
       </c>
       <c r="L19">
-        <v>0.06594240553543244</v>
+        <v>0.0985194235651647</v>
       </c>
       <c r="M19">
-        <v>0.04628807458951579</v>
+        <v>0.03301194312745669</v>
       </c>
       <c r="N19">
-        <v>0.1126475081218631</v>
+        <v>0.1769527714502112</v>
       </c>
       <c r="O19">
-        <v>0.01630203806663067</v>
+        <v>0.04362756207875438</v>
       </c>
       <c r="P19">
-        <v>0.03191193830872506</v>
+        <v>0.02888101749246246</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.07675288160089057</v>
+        <v>0.01865457658075386</v>
       </c>
       <c r="C20">
-        <v>0.02048789067589958</v>
+        <v>0.03370756536249795</v>
       </c>
       <c r="D20">
-        <v>0.02720144083951385</v>
+        <v>0.02180892725427874</v>
       </c>
       <c r="E20">
-        <v>0.1512167520643541</v>
+        <v>0.2056254432126275</v>
       </c>
       <c r="F20">
-        <v>0.06552974907629384</v>
+        <v>0.1330226227058054</v>
       </c>
       <c r="G20">
-        <v>0.02274889128226981</v>
+        <v>0.02537127276057535</v>
       </c>
       <c r="H20">
-        <v>0.02087838307533136</v>
+        <v>0.02612947824669593</v>
       </c>
       <c r="I20">
-        <v>0.0492067389756705</v>
+        <v>0.05311090504162352</v>
       </c>
       <c r="J20">
-        <v>0.02984189096386635</v>
+        <v>0.02448664672467262</v>
       </c>
       <c r="K20">
-        <v>0.06332140775498568</v>
+        <v>0.06497463271189596</v>
       </c>
       <c r="L20">
-        <v>0.06525972609265321</v>
+        <v>0.09753536447346452</v>
       </c>
       <c r="M20">
-        <v>0.04942475940089489</v>
+        <v>0.03060860908085911</v>
       </c>
       <c r="N20">
-        <v>0.113106913977892</v>
+        <v>0.1772851634258928</v>
       </c>
       <c r="O20">
-        <v>0.01477156694264286</v>
+        <v>0.03894350901077206</v>
       </c>
       <c r="P20">
-        <v>0.03269363689377482</v>
+        <v>0.02822547776591713</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.09037635160389071</v>
+        <v>0.02935829310057762</v>
       </c>
       <c r="C21">
-        <v>0.02170539540788041</v>
+        <v>0.03111571685015335</v>
       </c>
       <c r="D21">
-        <v>0.02850907304917289</v>
+        <v>0.0220410626456264</v>
       </c>
       <c r="E21">
-        <v>0.152742390636994</v>
+        <v>0.2078445013872061</v>
       </c>
       <c r="F21">
-        <v>0.06465231570677681</v>
+        <v>0.1329554111226816</v>
       </c>
       <c r="G21">
-        <v>0.02542549339169466</v>
+        <v>0.02323326049951006</v>
       </c>
       <c r="H21">
-        <v>0.01869096958792729</v>
+        <v>0.02808093186111018</v>
       </c>
       <c r="I21">
-        <v>0.05020191362589076</v>
+        <v>0.05335101143010224</v>
       </c>
       <c r="J21">
-        <v>0.03498753261204056</v>
+        <v>0.02419242205228282</v>
       </c>
       <c r="K21">
-        <v>0.06355892806656298</v>
+        <v>0.06525067281737124</v>
       </c>
       <c r="L21">
-        <v>0.06326990902148989</v>
+        <v>0.09527474092263268</v>
       </c>
       <c r="M21">
-        <v>0.05829667071884571</v>
+        <v>0.02604765320665824</v>
       </c>
       <c r="N21">
-        <v>0.1145148083033042</v>
+        <v>0.1795968240287706</v>
       </c>
       <c r="O21">
-        <v>0.0150995134627932</v>
+        <v>0.03258533010334685</v>
       </c>
       <c r="P21">
-        <v>0.03636415963346766</v>
+        <v>0.02605001476688866</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.09846855077313568</v>
+        <v>0.03517855548643678</v>
       </c>
       <c r="C22">
-        <v>0.02271969001645614</v>
+        <v>0.02998223763272098</v>
       </c>
       <c r="D22">
-        <v>0.03052713488870478</v>
+        <v>0.02238767305663047</v>
       </c>
       <c r="E22">
-        <v>0.154280864095875</v>
+        <v>0.2109274595954938</v>
       </c>
       <c r="F22">
-        <v>0.06362067212222501</v>
+        <v>0.1337921388783821</v>
       </c>
       <c r="G22">
-        <v>0.02714898793318747</v>
+        <v>0.02267056515601208</v>
       </c>
       <c r="H22">
-        <v>0.01925079386588036</v>
+        <v>0.02673871759027358</v>
       </c>
       <c r="I22">
-        <v>0.050222636187899</v>
+        <v>0.05612006487229524</v>
       </c>
       <c r="J22">
-        <v>0.03917154312762316</v>
+        <v>0.02529031646945779</v>
       </c>
       <c r="K22">
-        <v>0.06370136247240124</v>
+        <v>0.06545363790426462</v>
       </c>
       <c r="L22">
-        <v>0.06203761356470753</v>
+        <v>0.0945369988142187</v>
       </c>
       <c r="M22">
-        <v>0.06427514528866753</v>
+        <v>0.02468182651689397</v>
       </c>
       <c r="N22">
-        <v>0.1158251905279909</v>
+        <v>0.1828207975739677</v>
       </c>
       <c r="O22">
-        <v>0.0160574380703482</v>
+        <v>0.03063319000580199</v>
       </c>
       <c r="P22">
-        <v>0.03940277986058964</v>
+        <v>0.02504252891602787</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1041373823709224</v>
+        <v>0.03873112528640944</v>
       </c>
       <c r="C23">
-        <v>0.0235214436132712</v>
+        <v>0.02945388241373144</v>
       </c>
       <c r="D23">
-        <v>0.03215752727662982</v>
+        <v>0.02277742423581274</v>
       </c>
       <c r="E23">
-        <v>0.1556004518163766</v>
+        <v>0.2139087617720911</v>
       </c>
       <c r="F23">
-        <v>0.06298151595578111</v>
+        <v>0.1352034283889185</v>
       </c>
       <c r="G23">
-        <v>0.02840030747028407</v>
+        <v>0.02248607780965167</v>
       </c>
       <c r="H23">
-        <v>0.01998442460291379</v>
+        <v>0.02576608187247043</v>
       </c>
       <c r="I23">
-        <v>0.0499165428683679</v>
+        <v>0.05943766044764008</v>
       </c>
       <c r="J23">
-        <v>0.04225466392157727</v>
+        <v>0.02651215865434969</v>
       </c>
       <c r="K23">
-        <v>0.06380855143480331</v>
+        <v>0.06562213246637023</v>
       </c>
       <c r="L23">
-        <v>0.06122961470853401</v>
+        <v>0.09444096818623175</v>
       </c>
       <c r="M23">
-        <v>0.06855738972542864</v>
+        <v>0.0242800391007336</v>
       </c>
       <c r="N23">
-        <v>0.1169881874779098</v>
+        <v>0.186024707621182</v>
       </c>
       <c r="O23">
-        <v>0.01688986959572694</v>
+        <v>0.02974357191478051</v>
       </c>
       <c r="P23">
-        <v>0.04170441408885604</v>
+        <v>0.02457979546032155</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1060403267993553</v>
+        <v>0.03927069557104619</v>
       </c>
       <c r="C24">
-        <v>0.02378376129199962</v>
+        <v>0.02955780210593359</v>
       </c>
       <c r="D24">
-        <v>0.03273022978141834</v>
+        <v>0.02291384705599072</v>
       </c>
       <c r="E24">
-        <v>0.1562736651386055</v>
+        <v>0.2157476732312308</v>
       </c>
       <c r="F24">
-        <v>0.06295402177704441</v>
+        <v>0.1366529094949169</v>
       </c>
       <c r="G24">
-        <v>0.02881850086148795</v>
+        <v>0.02255156374252756</v>
       </c>
       <c r="H24">
-        <v>0.02020557802396544</v>
+        <v>0.0257927993937218</v>
       </c>
       <c r="I24">
-        <v>0.04947023157855454</v>
+        <v>0.06200426428232633</v>
       </c>
       <c r="J24">
-        <v>0.04330922352998401</v>
+        <v>0.0270891766992608</v>
       </c>
       <c r="K24">
-        <v>0.06385423669981979</v>
+        <v>0.06570774588101509</v>
       </c>
       <c r="L24">
-        <v>0.06101502353821896</v>
+        <v>0.0948813427342029</v>
       </c>
       <c r="M24">
-        <v>0.06996780537622063</v>
+        <v>0.02423452333872004</v>
       </c>
       <c r="N24">
-        <v>0.1176349127227315</v>
+        <v>0.1880895827595403</v>
       </c>
       <c r="O24">
-        <v>0.0171757555160044</v>
+        <v>0.02981237336105683</v>
       </c>
       <c r="P24">
-        <v>0.04248172899551438</v>
+        <v>0.02451057240821382</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0934865504030329</v>
+        <v>0.02677522664347299</v>
       </c>
       <c r="C25">
-        <v>0.02192252624397625</v>
+        <v>0.03290681282392863</v>
       </c>
       <c r="D25">
-        <v>0.02926278585951661</v>
+        <v>0.02229032300053352</v>
       </c>
       <c r="E25">
-        <v>0.1550633111458914</v>
+        <v>0.2153725895425156</v>
       </c>
       <c r="F25">
-        <v>0.06576141135068093</v>
+        <v>0.1407689909775884</v>
       </c>
       <c r="G25">
-        <v>0.02600740008541566</v>
+        <v>0.02417084864560489</v>
       </c>
       <c r="H25">
-        <v>0.01831262215096904</v>
+        <v>0.03058882838134702</v>
       </c>
       <c r="I25">
-        <v>0.04759788570374832</v>
+        <v>0.06544314322599216</v>
       </c>
       <c r="J25">
-        <v>0.0366287813958582</v>
+        <v>0.02617330207632626</v>
       </c>
       <c r="K25">
-        <v>0.0636878638806585</v>
+        <v>0.06554698490378788</v>
       </c>
       <c r="L25">
-        <v>0.06322719643236496</v>
+        <v>0.09863158020069358</v>
       </c>
       <c r="M25">
-        <v>0.06025865577966839</v>
+        <v>0.02745609096092516</v>
       </c>
       <c r="N25">
-        <v>0.1169546302662554</v>
+        <v>0.1883307802832095</v>
       </c>
       <c r="O25">
-        <v>0.01527978518405567</v>
+        <v>0.03457364124995507</v>
       </c>
       <c r="P25">
-        <v>0.03735690791431633</v>
+        <v>0.02673774064091656</v>
       </c>
     </row>
   </sheetData>
